--- a/BackTest/2019-10-15 BackTest PPT.xlsx
+++ b/BackTest/2019-10-15 BackTest PPT.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>32</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-29.03225806451613</v>
+      </c>
       <c r="L12" t="n">
         <v>654.2</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>32</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-15.38461538461539</v>
+      </c>
       <c r="L13" t="n">
         <v>653.3</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>38</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-25</v>
+      </c>
       <c r="L14" t="n">
         <v>653.5</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>51</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-45.45454545454545</v>
+      </c>
       <c r="L15" t="n">
         <v>651.6</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>54</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L16" t="n">
         <v>650.4</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>57</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-14.28571428571428</v>
+      </c>
       <c r="L17" t="n">
         <v>649.5</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>60</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-16.66666666666666</v>
+      </c>
       <c r="L18" t="n">
         <v>648.7</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>61</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-29.41176470588236</v>
+      </c>
       <c r="L19" t="n">
         <v>648</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>74</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>19.04761904761905</v>
+      </c>
       <c r="L20" t="n">
         <v>648.3</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>80</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>4.166666666666666</v>
+      </c>
       <c r="L21" t="n">
         <v>648.5</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>87</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>16.36363636363636</v>
+      </c>
       <c r="L22" t="n">
         <v>649.4</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>93</v>
       </c>
       <c r="K23" t="n">
-        <v>6.521739130434782</v>
+        <v>16.36363636363636</v>
       </c>
       <c r="L23" t="n">
         <v>650.9</v>
@@ -1466,7 +1488,7 @@
         <v>95</v>
       </c>
       <c r="K24" t="n">
-        <v>14.60674157303371</v>
+        <v>54.54545454545454</v>
       </c>
       <c r="L24" t="n">
         <v>652</v>
@@ -1515,7 +1537,7 @@
         <v>96</v>
       </c>
       <c r="K25" t="n">
-        <v>4.878048780487805</v>
+        <v>47.61904761904761</v>
       </c>
       <c r="L25" t="n">
         <v>654.3</v>
@@ -1564,7 +1586,7 @@
         <v>97</v>
       </c>
       <c r="K26" t="n">
-        <v>11.39240506329114</v>
+        <v>45</v>
       </c>
       <c r="L26" t="n">
         <v>656.4</v>
@@ -1613,7 +1635,7 @@
         <v>105</v>
       </c>
       <c r="K27" t="n">
-        <v>1.149425287356322</v>
+        <v>28.88888888888889</v>
       </c>
       <c r="L27" t="n">
         <v>657.4</v>
@@ -1662,7 +1684,7 @@
         <v>109</v>
       </c>
       <c r="K28" t="n">
-        <v>10.3448275862069</v>
+        <v>37.5</v>
       </c>
       <c r="L28" t="n">
         <v>659.1</v>
@@ -1711,7 +1733,7 @@
         <v>112</v>
       </c>
       <c r="K29" t="n">
-        <v>15.90909090909091</v>
+        <v>21.05263157894737</v>
       </c>
       <c r="L29" t="n">
         <v>661.2</v>
@@ -1760,7 +1782,7 @@
         <v>121</v>
       </c>
       <c r="K30" t="n">
-        <v>2.127659574468085</v>
+        <v>12.19512195121951</v>
       </c>
       <c r="L30" t="n">
         <v>661.1</v>
@@ -1809,7 +1831,7 @@
         <v>125</v>
       </c>
       <c r="K31" t="n">
-        <v>3.225806451612903</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L31" t="n">
         <v>661.2</v>
@@ -1860,7 +1882,7 @@
         <v>126</v>
       </c>
       <c r="K32" t="n">
-        <v>4.25531914893617</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L32" t="n">
         <v>660.7</v>
@@ -1911,7 +1933,7 @@
         <v>129</v>
       </c>
       <c r="K33" t="n">
-        <v>1.030927835051546</v>
+        <v>-47.05882352941176</v>
       </c>
       <c r="L33" t="n">
         <v>659.3</v>
@@ -1962,7 +1984,7 @@
         <v>133</v>
       </c>
       <c r="K34" t="n">
-        <v>-9.473684210526317</v>
+        <v>-51.35135135135135</v>
       </c>
       <c r="L34" t="n">
         <v>657.3</v>
@@ -2013,7 +2035,7 @@
         <v>137</v>
       </c>
       <c r="K35" t="n">
-        <v>9.302325581395349</v>
+        <v>-40</v>
       </c>
       <c r="L35" t="n">
         <v>655.8</v>
@@ -2064,7 +2086,7 @@
         <v>137</v>
       </c>
       <c r="K36" t="n">
-        <v>6.024096385542169</v>
+        <v>-25</v>
       </c>
       <c r="L36" t="n">
         <v>654.2</v>
@@ -2115,7 +2137,7 @@
         <v>137</v>
       </c>
       <c r="K37" t="n">
-        <v>2.5</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L37" t="n">
         <v>653.4</v>
@@ -2166,7 +2188,7 @@
         <v>142</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L38" t="n">
         <v>651.7</v>
@@ -2217,7 +2239,7 @@
         <v>142</v>
       </c>
       <c r="K39" t="n">
-        <v>1.234567901234568</v>
+        <v>-52.38095238095239</v>
       </c>
       <c r="L39" t="n">
         <v>649.7</v>
@@ -2268,7 +2290,7 @@
         <v>142</v>
       </c>
       <c r="K40" t="n">
-        <v>-17.64705882352941</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L40" t="n">
         <v>648.6</v>
@@ -2319,7 +2341,7 @@
         <v>145</v>
       </c>
       <c r="K41" t="n">
-        <v>-4.615384615384616</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L41" t="n">
         <v>648.2</v>
@@ -2370,7 +2392,7 @@
         <v>148</v>
       </c>
       <c r="K42" t="n">
-        <v>-21.31147540983606</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L42" t="n">
         <v>647.4</v>
@@ -2421,7 +2443,7 @@
         <v>153</v>
       </c>
       <c r="K43" t="n">
-        <v>-40</v>
+        <v>-30</v>
       </c>
       <c r="L43" t="n">
         <v>646.4</v>
@@ -2472,7 +2494,7 @@
         <v>161</v>
       </c>
       <c r="K44" t="n">
-        <v>-27.27272727272727</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L44" t="n">
         <v>646.6</v>
@@ -2523,7 +2545,7 @@
         <v>161</v>
       </c>
       <c r="K45" t="n">
-        <v>-26.15384615384616</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L45" t="n">
         <v>646.4</v>
@@ -2574,7 +2596,7 @@
         <v>172</v>
       </c>
       <c r="K46" t="n">
-        <v>-9.333333333333334</v>
+        <v>25.71428571428571</v>
       </c>
       <c r="L46" t="n">
         <v>647.3</v>
@@ -2625,7 +2647,7 @@
         <v>173</v>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>41.93548387096774</v>
       </c>
       <c r="L47" t="n">
         <v>648.1</v>
@@ -2676,7 +2698,7 @@
         <v>174</v>
       </c>
       <c r="K48" t="n">
-        <v>-4.615384615384616</v>
+        <v>43.75</v>
       </c>
       <c r="L48" t="n">
         <v>649.5</v>
@@ -2727,7 +2749,7 @@
         <v>174</v>
       </c>
       <c r="K49" t="n">
-        <v>-9.67741935483871</v>
+        <v>43.75</v>
       </c>
       <c r="L49" t="n">
         <v>650.9</v>
@@ -2778,7 +2800,7 @@
         <v>178</v>
       </c>
       <c r="K50" t="n">
-        <v>12.28070175438596</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L50" t="n">
         <v>652.7</v>
@@ -2829,7 +2851,7 @@
         <v>181</v>
       </c>
       <c r="K51" t="n">
-        <v>14.28571428571428</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L51" t="n">
         <v>653.9</v>
@@ -2880,7 +2902,7 @@
         <v>185</v>
       </c>
       <c r="K52" t="n">
-        <v>18.64406779661017</v>
+        <v>75</v>
       </c>
       <c r="L52" t="n">
         <v>655.8</v>
@@ -2931,7 +2953,7 @@
         <v>189</v>
       </c>
       <c r="K53" t="n">
-        <v>16.66666666666666</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L53" t="n">
         <v>657.8</v>
@@ -2982,7 +3004,7 @@
         <v>210</v>
       </c>
       <c r="K54" t="n">
-        <v>-9.090909090909092</v>
+        <v>-18.36734693877551</v>
       </c>
       <c r="L54" t="n">
         <v>656.9</v>
@@ -3033,7 +3055,7 @@
         <v>232</v>
       </c>
       <c r="K55" t="n">
-        <v>11.57894736842105</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="L55" t="n">
         <v>658.2</v>
@@ -3084,7 +3106,7 @@
         <v>241</v>
       </c>
       <c r="K56" t="n">
-        <v>1.923076923076923</v>
+        <v>-8.823529411764707</v>
       </c>
       <c r="L56" t="n">
         <v>657.5</v>
@@ -3135,7 +3157,7 @@
         <v>243</v>
       </c>
       <c r="K57" t="n">
-        <v>0</v>
+        <v>-13.04347826086956</v>
       </c>
       <c r="L57" t="n">
         <v>656.7</v>
@@ -3186,7 +3208,7 @@
         <v>246</v>
       </c>
       <c r="K58" t="n">
-        <v>1.923076923076923</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L58" t="n">
         <v>655.5</v>
@@ -3237,7 +3259,7 @@
         <v>247</v>
       </c>
       <c r="K59" t="n">
-        <v>2.857142857142857</v>
+        <v>-21.73913043478261</v>
       </c>
       <c r="L59" t="n">
         <v>654.4</v>
@@ -3288,7 +3310,7 @@
         <v>254</v>
       </c>
       <c r="K60" t="n">
-        <v>-3.571428571428571</v>
+        <v>-26.02739726027397</v>
       </c>
       <c r="L60" t="n">
         <v>652.2</v>
@@ -3339,7 +3361,7 @@
         <v>256</v>
       </c>
       <c r="K61" t="n">
-        <v>-8.108108108108109</v>
+        <v>-35.2112676056338</v>
       </c>
       <c r="L61" t="n">
         <v>650.1</v>
@@ -3390,7 +3412,7 @@
         <v>264</v>
       </c>
       <c r="K62" t="n">
-        <v>-12.06896551724138</v>
+        <v>-38.66666666666666</v>
       </c>
       <c r="L62" t="n">
         <v>646.8</v>
@@ -3441,7 +3463,7 @@
         <v>274</v>
       </c>
       <c r="K63" t="n">
-        <v>0.8264462809917356</v>
+        <v>3.125</v>
       </c>
       <c r="L63" t="n">
         <v>644.9</v>
@@ -3492,7 +3514,7 @@
         <v>274</v>
       </c>
       <c r="K64" t="n">
-        <v>-6.194690265486726</v>
+        <v>-47.61904761904761</v>
       </c>
       <c r="L64" t="n">
         <v>645.1</v>
@@ -3543,7 +3565,7 @@
         <v>277</v>
       </c>
       <c r="K65" t="n">
-        <v>-8.620689655172415</v>
+        <v>-38.88888888888889</v>
       </c>
       <c r="L65" t="n">
         <v>642.8</v>
@@ -3594,7 +3616,7 @@
         <v>282</v>
       </c>
       <c r="K66" t="n">
-        <v>-23.63636363636364</v>
+        <v>-43.58974358974359</v>
       </c>
       <c r="L66" t="n">
         <v>640.9</v>
@@ -3645,7 +3667,7 @@
         <v>282</v>
       </c>
       <c r="K67" t="n">
-        <v>-22.93577981651376</v>
+        <v>-38.88888888888889</v>
       </c>
       <c r="L67" t="n">
         <v>639.2</v>
@@ -3696,7 +3718,7 @@
         <v>283</v>
       </c>
       <c r="K68" t="n">
-        <v>-22.93577981651376</v>
+        <v>-38.88888888888889</v>
       </c>
       <c r="L68" t="n">
         <v>637.9</v>
@@ -3747,7 +3769,7 @@
         <v>283</v>
       </c>
       <c r="K69" t="n">
-        <v>-22.93577981651376</v>
+        <v>-24.13793103448276</v>
       </c>
       <c r="L69" t="n">
         <v>636.5</v>
@@ -3798,7 +3820,7 @@
         <v>292</v>
       </c>
       <c r="K70" t="n">
-        <v>-17.5438596491228</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L70" t="n">
         <v>636.7</v>
@@ -3849,7 +3871,7 @@
         <v>293</v>
       </c>
       <c r="K71" t="n">
-        <v>-14.28571428571428</v>
+        <v>44.82758620689656</v>
       </c>
       <c r="L71" t="n">
         <v>637.2</v>
@@ -3900,7 +3922,7 @@
         <v>293</v>
       </c>
       <c r="K72" t="n">
-        <v>-18.51851851851852</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L72" t="n">
         <v>638.5</v>
@@ -3951,7 +3973,7 @@
         <v>303</v>
       </c>
       <c r="K73" t="n">
-        <v>-22.80701754385965</v>
+        <v>-24.13793103448276</v>
       </c>
       <c r="L73" t="n">
         <v>637.8</v>
@@ -4002,7 +4024,7 @@
         <v>305</v>
       </c>
       <c r="K74" t="n">
-        <v>-3.157894736842105</v>
+        <v>-7.142857142857142</v>
       </c>
       <c r="L74" t="n">
         <v>637.3</v>
@@ -4053,7 +4075,7 @@
         <v>307</v>
       </c>
       <c r="K75" t="n">
-        <v>-36</v>
+        <v>4</v>
       </c>
       <c r="L75" t="n">
         <v>636.9</v>
@@ -4104,7 +4126,7 @@
         <v>307</v>
       </c>
       <c r="K76" t="n">
-        <v>-27.27272727272727</v>
+        <v>4</v>
       </c>
       <c r="L76" t="n">
         <v>637</v>
@@ -4155,7 +4177,7 @@
         <v>307</v>
       </c>
       <c r="K77" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="L77" t="n">
         <v>637.1</v>
@@ -4206,7 +4228,7 @@
         <v>308</v>
       </c>
       <c r="K78" t="n">
-        <v>-22.58064516129032</v>
+        <v>-4</v>
       </c>
       <c r="L78" t="n">
         <v>637</v>
@@ -4257,7 +4279,7 @@
         <v>308</v>
       </c>
       <c r="K79" t="n">
-        <v>-24.59016393442623</v>
+        <v>-62.5</v>
       </c>
       <c r="L79" t="n">
         <v>636.9</v>
@@ -4308,7 +4330,7 @@
         <v>309</v>
       </c>
       <c r="K80" t="n">
-        <v>-16.36363636363636</v>
+        <v>-75</v>
       </c>
       <c r="L80" t="n">
         <v>635.8</v>
@@ -4359,7 +4381,7 @@
         <v>314</v>
       </c>
       <c r="K81" t="n">
-        <v>-20.68965517241379</v>
+        <v>-80.95238095238095</v>
       </c>
       <c r="L81" t="n">
         <v>634.1</v>
@@ -4410,7 +4432,7 @@
         <v>321</v>
       </c>
       <c r="K82" t="n">
-        <v>5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L82" t="n">
         <v>633.1</v>
@@ -4461,7 +4483,7 @@
         <v>324</v>
       </c>
       <c r="K83" t="n">
-        <v>-20</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L83" t="n">
         <v>632.8</v>
@@ -4512,7 +4534,7 @@
         <v>326</v>
       </c>
       <c r="K84" t="n">
-        <v>-15.38461538461539</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L84" t="n">
         <v>632.5</v>
@@ -4563,7 +4585,7 @@
         <v>327</v>
       </c>
       <c r="K85" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="L85" t="n">
         <v>632.5</v>
@@ -4614,7 +4636,7 @@
         <v>333</v>
       </c>
       <c r="K86" t="n">
-        <v>13.72549019607843</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L86" t="n">
         <v>633.1</v>
@@ -4665,7 +4687,7 @@
         <v>335</v>
       </c>
       <c r="K87" t="n">
-        <v>9.433962264150944</v>
+        <v>18.51851851851852</v>
       </c>
       <c r="L87" t="n">
         <v>633.5</v>
@@ -4716,7 +4738,7 @@
         <v>335</v>
       </c>
       <c r="K88" t="n">
-        <v>7.692307692307693</v>
+        <v>18.51851851851852</v>
       </c>
       <c r="L88" t="n">
         <v>634</v>
@@ -4767,7 +4789,7 @@
         <v>336</v>
       </c>
       <c r="K89" t="n">
-        <v>9.433962264150944</v>
+        <v>25.92592592592592</v>
       </c>
       <c r="L89" t="n">
         <v>634.6</v>
@@ -4818,7 +4840,7 @@
         <v>336</v>
       </c>
       <c r="K90" t="n">
-        <v>-9.090909090909092</v>
+        <v>54.54545454545454</v>
       </c>
       <c r="L90" t="n">
         <v>635.3</v>
@@ -4869,7 +4891,7 @@
         <v>337</v>
       </c>
       <c r="K91" t="n">
-        <v>-13.63636363636363</v>
+        <v>25</v>
       </c>
       <c r="L91" t="n">
         <v>636.4</v>
@@ -4920,7 +4942,7 @@
         <v>338</v>
       </c>
       <c r="K92" t="n">
-        <v>-15.55555555555556</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L92" t="n">
         <v>636.7</v>
@@ -4971,7 +4993,7 @@
         <v>347</v>
       </c>
       <c r="K93" t="n">
-        <v>-13.63636363636363</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L93" t="n">
         <v>636.4</v>
@@ -5022,7 +5044,7 @@
         <v>349</v>
       </c>
       <c r="K94" t="n">
-        <v>-13.63636363636363</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L94" t="n">
         <v>636.1</v>
@@ -5073,7 +5095,7 @@
         <v>354</v>
       </c>
       <c r="K95" t="n">
-        <v>2.127659574468085</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L95" t="n">
         <v>636.2</v>
@@ -5124,7 +5146,7 @@
         <v>355</v>
       </c>
       <c r="K96" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L96" t="n">
         <v>635.6</v>
@@ -5175,7 +5197,7 @@
         <v>356</v>
       </c>
       <c r="K97" t="n">
-        <v>2.040816326530612</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L97" t="n">
         <v>635.3</v>
@@ -5226,7 +5248,7 @@
         <v>358</v>
       </c>
       <c r="K98" t="n">
-        <v>8</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L98" t="n">
         <v>635.2</v>
@@ -5277,7 +5299,7 @@
         <v>358</v>
       </c>
       <c r="K99" t="n">
-        <v>8</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L99" t="n">
         <v>635</v>
@@ -5328,7 +5350,7 @@
         <v>359</v>
       </c>
       <c r="K100" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L100" t="n">
         <v>634.9</v>
@@ -5379,7 +5401,7 @@
         <v>361</v>
       </c>
       <c r="K101" t="n">
-        <v>27.65957446808511</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L101" t="n">
         <v>635.1</v>
@@ -5430,7 +5452,7 @@
         <v>366</v>
       </c>
       <c r="K102" t="n">
-        <v>2.222222222222222</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="L102" t="n">
         <v>634.9</v>
@@ -5481,7 +5503,7 @@
         <v>372</v>
       </c>
       <c r="K103" t="n">
-        <v>20.83333333333334</v>
+        <v>47.82608695652174</v>
       </c>
       <c r="L103" t="n">
         <v>636.2</v>
@@ -5532,7 +5554,7 @@
         <v>372</v>
       </c>
       <c r="K104" t="n">
-        <v>17.39130434782609</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L104" t="n">
         <v>637.3</v>
@@ -5583,7 +5605,7 @@
         <v>374</v>
       </c>
       <c r="K105" t="n">
-        <v>19.14893617021277</v>
+        <v>47.36842105263158</v>
       </c>
       <c r="L105" t="n">
         <v>638.1</v>
@@ -5634,7 +5656,7 @@
         <v>376</v>
       </c>
       <c r="K106" t="n">
-        <v>11.62790697674419</v>
+        <v>50</v>
       </c>
       <c r="L106" t="n">
         <v>639.2</v>
@@ -5685,7 +5707,7 @@
         <v>385</v>
       </c>
       <c r="K107" t="n">
-        <v>-4</v>
+        <v>-3.703703703703703</v>
       </c>
       <c r="L107" t="n">
         <v>639.3</v>
@@ -5736,7 +5758,7 @@
         <v>393</v>
       </c>
       <c r="K108" t="n">
-        <v>10.3448275862069</v>
+        <v>20</v>
       </c>
       <c r="L108" t="n">
         <v>640</v>
@@ -5787,7 +5809,7 @@
         <v>394</v>
       </c>
       <c r="K109" t="n">
-        <v>6.896551724137931</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L109" t="n">
         <v>640.6</v>
@@ -5838,7 +5860,7 @@
         <v>396</v>
       </c>
       <c r="K110" t="n">
-        <v>10</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L110" t="n">
         <v>641.3</v>
@@ -5889,7 +5911,7 @@
         <v>396</v>
       </c>
       <c r="K111" t="n">
-        <v>11.86440677966102</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L111" t="n">
         <v>641.8</v>
@@ -5940,7 +5962,7 @@
         <v>403</v>
       </c>
       <c r="K112" t="n">
-        <v>1.538461538461539</v>
+        <v>-9.67741935483871</v>
       </c>
       <c r="L112" t="n">
         <v>642.1</v>
@@ -5991,7 +6013,7 @@
         <v>408</v>
       </c>
       <c r="K113" t="n">
-        <v>24.59016393442623</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="L113" t="n">
         <v>642.3</v>
@@ -6042,7 +6064,7 @@
         <v>411</v>
       </c>
       <c r="K114" t="n">
-        <v>16.12903225806452</v>
+        <v>-8.108108108108109</v>
       </c>
       <c r="L114" t="n">
         <v>642.2</v>
@@ -6093,7 +6115,7 @@
         <v>416</v>
       </c>
       <c r="K115" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L115" t="n">
         <v>641.4</v>
@@ -6144,7 +6166,7 @@
         <v>416</v>
       </c>
       <c r="K116" t="n">
-        <v>1.639344262295082</v>
+        <v>-3.225806451612903</v>
       </c>
       <c r="L116" t="n">
         <v>640.4</v>
@@ -6195,7 +6217,7 @@
         <v>419</v>
       </c>
       <c r="K117" t="n">
-        <v>4.761904761904762</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L117" t="n">
         <v>640.6</v>
@@ -6246,7 +6268,7 @@
         <v>423</v>
       </c>
       <c r="K118" t="n">
-        <v>-4.615384615384616</v>
+        <v>-31.03448275862069</v>
       </c>
       <c r="L118" t="n">
         <v>639.6</v>
@@ -6297,7 +6319,7 @@
         <v>427</v>
       </c>
       <c r="K119" t="n">
-        <v>1.449275362318841</v>
+        <v>-22.58064516129032</v>
       </c>
       <c r="L119" t="n">
         <v>639.1</v>
@@ -6348,7 +6370,7 @@
         <v>427</v>
       </c>
       <c r="K120" t="n">
-        <v>0</v>
+        <v>-22.58064516129032</v>
       </c>
       <c r="L120" t="n">
         <v>638.4</v>
@@ -6399,7 +6421,7 @@
         <v>427</v>
       </c>
       <c r="K121" t="n">
-        <v>-3.03030303030303</v>
+        <v>0</v>
       </c>
       <c r="L121" t="n">
         <v>637.7</v>
@@ -6450,7 +6472,7 @@
         <v>427</v>
       </c>
       <c r="K122" t="n">
-        <v>4.918032786885246</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L122" t="n">
         <v>637.7</v>
@@ -6501,7 +6523,7 @@
         <v>432</v>
       </c>
       <c r="K123" t="n">
-        <v>-13.33333333333333</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L123" t="n">
         <v>636.7</v>
@@ -6552,7 +6574,7 @@
         <v>436</v>
       </c>
       <c r="K124" t="n">
-        <v>-6.25</v>
+        <v>10</v>
       </c>
       <c r="L124" t="n">
         <v>636.4</v>
@@ -6603,7 +6625,7 @@
         <v>436</v>
       </c>
       <c r="K125" t="n">
-        <v>-9.67741935483871</v>
+        <v>10</v>
       </c>
       <c r="L125" t="n">
         <v>636.6</v>
@@ -6654,7 +6676,7 @@
         <v>441</v>
       </c>
       <c r="K126" t="n">
-        <v>-20</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L126" t="n">
         <v>636.3</v>
@@ -6705,7 +6727,7 @@
         <v>447</v>
       </c>
       <c r="K127" t="n">
-        <v>3.225806451612903</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L127" t="n">
         <v>636.3</v>
@@ -6756,7 +6778,7 @@
         <v>447</v>
       </c>
       <c r="K128" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L128" t="n">
         <v>636.7</v>
@@ -6807,7 +6829,7 @@
         <v>452</v>
       </c>
       <c r="K129" t="n">
-        <v>-17.24137931034483</v>
+        <v>-20</v>
       </c>
       <c r="L129" t="n">
         <v>636.2</v>
@@ -6858,7 +6880,7 @@
         <v>453</v>
       </c>
       <c r="K130" t="n">
-        <v>-22.80701754385965</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L130" t="n">
         <v>635.6</v>
@@ -6909,7 +6931,7 @@
         <v>454</v>
       </c>
       <c r="K131" t="n">
-        <v>-24.13793103448276</v>
+        <v>-25.92592592592592</v>
       </c>
       <c r="L131" t="n">
         <v>634.9</v>
@@ -6960,7 +6982,7 @@
         <v>458</v>
       </c>
       <c r="K132" t="n">
-        <v>-5.454545454545454</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L132" t="n">
         <v>634.6</v>
@@ -7011,7 +7033,7 @@
         <v>458</v>
       </c>
       <c r="K133" t="n">
-        <v>-16</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L133" t="n">
         <v>634.8</v>
@@ -7062,7 +7084,7 @@
         <v>459</v>
       </c>
       <c r="K134" t="n">
-        <v>-12.5</v>
+        <v>-13.04347826086956</v>
       </c>
       <c r="L134" t="n">
         <v>634.5</v>
@@ -7113,7 +7135,7 @@
         <v>462</v>
       </c>
       <c r="K135" t="n">
-        <v>-8.695652173913043</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L135" t="n">
         <v>633.9</v>
@@ -7164,7 +7186,7 @@
         <v>466</v>
       </c>
       <c r="K136" t="n">
-        <v>0</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L136" t="n">
         <v>634.2</v>
@@ -7215,7 +7237,7 @@
         <v>472</v>
       </c>
       <c r="K137" t="n">
-        <v>-16.9811320754717</v>
+        <v>-36</v>
       </c>
       <c r="L137" t="n">
         <v>633.3</v>
@@ -7266,7 +7288,7 @@
         <v>476</v>
       </c>
       <c r="K138" t="n">
-        <v>-1.886792452830189</v>
+        <v>0</v>
       </c>
       <c r="L138" t="n">
         <v>632.8</v>
@@ -7317,7 +7339,7 @@
         <v>477</v>
       </c>
       <c r="K139" t="n">
-        <v>-8</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L139" t="n">
         <v>632.9</v>
@@ -7368,7 +7390,7 @@
         <v>482</v>
       </c>
       <c r="K140" t="n">
-        <v>-16.36363636363636</v>
+        <v>-7.142857142857142</v>
       </c>
       <c r="L140" t="n">
         <v>632.6</v>
@@ -7419,7 +7441,7 @@
         <v>483</v>
       </c>
       <c r="K141" t="n">
-        <v>-14.28571428571428</v>
+        <v>-20</v>
       </c>
       <c r="L141" t="n">
         <v>632.5</v>
@@ -7470,7 +7492,7 @@
         <v>488</v>
       </c>
       <c r="K142" t="n">
-        <v>-4.918032786885246</v>
+        <v>0</v>
       </c>
       <c r="L142" t="n">
         <v>632.5</v>
@@ -7521,7 +7543,7 @@
         <v>489</v>
       </c>
       <c r="K143" t="n">
-        <v>1.754385964912281</v>
+        <v>0</v>
       </c>
       <c r="L143" t="n">
         <v>632.4</v>
@@ -7572,7 +7594,7 @@
         <v>494</v>
       </c>
       <c r="K144" t="n">
-        <v>-13.79310344827586</v>
+        <v>-6.25</v>
       </c>
       <c r="L144" t="n">
         <v>631.9</v>
@@ -7623,7 +7645,7 @@
         <v>494</v>
       </c>
       <c r="K145" t="n">
-        <v>-13.79310344827586</v>
+        <v>-21.42857142857143</v>
       </c>
       <c r="L145" t="n">
         <v>631.7</v>
@@ -7674,7 +7696,7 @@
         <v>494</v>
       </c>
       <c r="K146" t="n">
-        <v>-5.660377358490567</v>
+        <v>0</v>
       </c>
       <c r="L146" t="n">
         <v>631.1</v>
@@ -7725,7 +7747,7 @@
         <v>499</v>
       </c>
       <c r="K147" t="n">
-        <v>-7.692307692307693</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L147" t="n">
         <v>631.6</v>
@@ -7776,7 +7798,7 @@
         <v>501</v>
       </c>
       <c r="K148" t="n">
-        <v>-11.11111111111111</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L148" t="n">
         <v>631.5</v>
@@ -7827,7 +7849,7 @@
         <v>505</v>
       </c>
       <c r="K149" t="n">
-        <v>-9.433962264150944</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L149" t="n">
         <v>630.9</v>
@@ -7878,7 +7900,7 @@
         <v>505</v>
       </c>
       <c r="K150" t="n">
-        <v>-7.692307692307693</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L150" t="n">
         <v>630.8</v>
@@ -7929,7 +7951,7 @@
         <v>513</v>
       </c>
       <c r="K151" t="n">
-        <v>-18.64406779661017</v>
+        <v>-60</v>
       </c>
       <c r="L151" t="n">
         <v>629.8</v>
@@ -7980,7 +8002,7 @@
         <v>517</v>
       </c>
       <c r="K152" t="n">
-        <v>-18.64406779661017</v>
+        <v>-35.71428571428572</v>
       </c>
       <c r="L152" t="n">
         <v>628.7</v>
@@ -8031,7 +8053,7 @@
         <v>517</v>
       </c>
       <c r="K153" t="n">
-        <v>-18.64406779661017</v>
+        <v>-21.73913043478261</v>
       </c>
       <c r="L153" t="n">
         <v>627.7</v>
@@ -8082,7 +8104,7 @@
         <v>517</v>
       </c>
       <c r="K154" t="n">
-        <v>-17.24137931034483</v>
+        <v>-21.73913043478261</v>
       </c>
       <c r="L154" t="n">
         <v>627.2</v>
@@ -8133,7 +8155,7 @@
         <v>518</v>
       </c>
       <c r="K155" t="n">
-        <v>-10.71428571428571</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L155" t="n">
         <v>626.8</v>
@@ -8184,7 +8206,7 @@
         <v>524</v>
       </c>
       <c r="K156" t="n">
-        <v>-27.58620689655172</v>
+        <v>-60</v>
       </c>
       <c r="L156" t="n">
         <v>625.8</v>
@@ -8235,7 +8257,7 @@
         <v>526</v>
       </c>
       <c r="K157" t="n">
-        <v>-14.81481481481481</v>
+        <v>-44</v>
       </c>
       <c r="L157" t="n">
         <v>624.5</v>
@@ -8286,7 +8308,7 @@
         <v>529</v>
       </c>
       <c r="K158" t="n">
-        <v>-16.9811320754717</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L158" t="n">
         <v>623.7</v>
@@ -8337,7 +8359,7 @@
         <v>532</v>
       </c>
       <c r="K159" t="n">
-        <v>-23.63636363636364</v>
+        <v>-25.92592592592592</v>
       </c>
       <c r="L159" t="n">
         <v>623</v>
@@ -8388,7 +8410,7 @@
         <v>533</v>
       </c>
       <c r="K160" t="n">
-        <v>-17.64705882352941</v>
+        <v>0</v>
       </c>
       <c r="L160" t="n">
         <v>622.2</v>
@@ -8490,7 +8512,7 @@
         <v>537</v>
       </c>
       <c r="K162" t="n">
-        <v>-22.44897959183674</v>
+        <v>0</v>
       </c>
       <c r="L162" t="n">
         <v>622.3</v>
@@ -8541,7 +8563,7 @@
         <v>538</v>
       </c>
       <c r="K163" t="n">
-        <v>-22.44897959183674</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L163" t="n">
         <v>622.2</v>
@@ -8592,7 +8614,7 @@
         <v>540</v>
       </c>
       <c r="K164" t="n">
-        <v>-8.695652173913043</v>
+        <v>0</v>
       </c>
       <c r="L164" t="n">
         <v>622.3</v>
@@ -8643,7 +8665,7 @@
         <v>543</v>
       </c>
       <c r="K165" t="n">
-        <v>-2.040816326530612</v>
+        <v>47.36842105263158</v>
       </c>
       <c r="L165" t="n">
         <v>622.6</v>
@@ -8694,7 +8716,7 @@
         <v>543</v>
       </c>
       <c r="K166" t="n">
-        <v>-2.040816326530612</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L166" t="n">
         <v>623.5</v>
@@ -8745,7 +8767,7 @@
         <v>547</v>
       </c>
       <c r="K167" t="n">
-        <v>-20.83333333333334</v>
+        <v>0</v>
       </c>
       <c r="L167" t="n">
         <v>623.8</v>
@@ -8796,7 +8818,7 @@
         <v>551</v>
       </c>
       <c r="K168" t="n">
-        <v>-24</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L168" t="n">
         <v>623.4</v>
@@ -8847,7 +8869,7 @@
         <v>552</v>
       </c>
       <c r="K169" t="n">
-        <v>-14.8936170212766</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L169" t="n">
         <v>623.4</v>
@@ -8898,7 +8920,7 @@
         <v>562</v>
       </c>
       <c r="K170" t="n">
-        <v>5.263157894736842</v>
+        <v>35.71428571428572</v>
       </c>
       <c r="L170" t="n">
         <v>624.5</v>
@@ -8949,7 +8971,7 @@
         <v>572</v>
       </c>
       <c r="K171" t="n">
-        <v>1.694915254237288</v>
+        <v>-8.571428571428571</v>
       </c>
       <c r="L171" t="n">
         <v>624.5</v>
@@ -9000,7 +9022,7 @@
         <v>578</v>
       </c>
       <c r="K172" t="n">
-        <v>4.918032786885246</v>
+        <v>10</v>
       </c>
       <c r="L172" t="n">
         <v>624.8</v>
@@ -9051,7 +9073,7 @@
         <v>584</v>
       </c>
       <c r="K173" t="n">
-        <v>-4.477611940298507</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L173" t="n">
         <v>624.6</v>
@@ -9102,7 +9124,7 @@
         <v>593</v>
       </c>
       <c r="K174" t="n">
-        <v>7.894736842105263</v>
+        <v>4</v>
       </c>
       <c r="L174" t="n">
         <v>625.1</v>
@@ -9153,7 +9175,7 @@
         <v>594</v>
       </c>
       <c r="K175" t="n">
-        <v>7.894736842105263</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L175" t="n">
         <v>625.4</v>
@@ -9204,7 +9226,7 @@
         <v>605</v>
       </c>
       <c r="K176" t="n">
-        <v>1.234567901234568</v>
+        <v>-6.896551724137931</v>
       </c>
       <c r="L176" t="n">
         <v>624.6</v>
@@ -9255,7 +9277,7 @@
         <v>605</v>
       </c>
       <c r="K177" t="n">
-        <v>-1.265822784810127</v>
+        <v>0</v>
       </c>
       <c r="L177" t="n">
         <v>624.2</v>
@@ -9306,7 +9328,7 @@
         <v>609</v>
       </c>
       <c r="K178" t="n">
-        <v>0</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L178" t="n">
         <v>624.6</v>
@@ -9357,7 +9379,7 @@
         <v>609</v>
       </c>
       <c r="K179" t="n">
-        <v>3.896103896103896</v>
+        <v>-14.8936170212766</v>
       </c>
       <c r="L179" t="n">
         <v>624.9</v>
@@ -9408,7 +9430,7 @@
         <v>612</v>
       </c>
       <c r="K180" t="n">
-        <v>1.265822784810127</v>
+        <v>0</v>
       </c>
       <c r="L180" t="n">
         <v>623.9</v>
@@ -9459,7 +9481,7 @@
         <v>613</v>
       </c>
       <c r="K181" t="n">
-        <v>-1.265822784810127</v>
+        <v>-20</v>
       </c>
       <c r="L181" t="n">
         <v>623.8</v>
@@ -9510,7 +9532,7 @@
         <v>614</v>
       </c>
       <c r="K182" t="n">
-        <v>-3.896103896103896</v>
+        <v>0</v>
       </c>
       <c r="L182" t="n">
         <v>623.2</v>
@@ -9561,7 +9583,7 @@
         <v>618</v>
       </c>
       <c r="K183" t="n">
-        <v>2.5</v>
+        <v>-20</v>
       </c>
       <c r="L183" t="n">
         <v>623.6</v>
@@ -9612,7 +9634,7 @@
         <v>619</v>
       </c>
       <c r="K184" t="n">
-        <v>1.265822784810127</v>
+        <v>-20</v>
       </c>
       <c r="L184" t="n">
         <v>623.2</v>
@@ -9663,7 +9685,7 @@
         <v>620</v>
       </c>
       <c r="K185" t="n">
-        <v>-3.896103896103896</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L185" t="n">
         <v>622.6</v>
@@ -9714,7 +9736,7 @@
         <v>620</v>
       </c>
       <c r="K186" t="n">
-        <v>-3.896103896103896</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L186" t="n">
         <v>623.1</v>
@@ -9765,7 +9787,7 @@
         <v>624</v>
       </c>
       <c r="K187" t="n">
-        <v>6.493506493506493</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L187" t="n">
         <v>624</v>
@@ -9816,7 +9838,7 @@
         <v>627</v>
       </c>
       <c r="K188" t="n">
-        <v>7.894736842105263</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L188" t="n">
         <v>624.2</v>
@@ -9867,7 +9889,7 @@
         <v>633</v>
       </c>
       <c r="K189" t="n">
-        <v>-1.234567901234568</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L189" t="n">
         <v>623.8</v>
@@ -9918,7 +9940,7 @@
         <v>639</v>
       </c>
       <c r="K190" t="n">
-        <v>-6.493506493506493</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L190" t="n">
         <v>624.3</v>
@@ -9969,7 +9991,7 @@
         <v>639</v>
       </c>
       <c r="K191" t="n">
-        <v>7.462686567164178</v>
+        <v>20</v>
       </c>
       <c r="L191" t="n">
         <v>624.9</v>
@@ -10020,7 +10042,7 @@
         <v>640</v>
       </c>
       <c r="K192" t="n">
-        <v>0</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L192" t="n">
         <v>625.5</v>
@@ -10071,7 +10093,7 @@
         <v>644</v>
       </c>
       <c r="K193" t="n">
-        <v>3.333333333333333</v>
+        <v>-12</v>
       </c>
       <c r="L193" t="n">
         <v>625.3</v>
@@ -10122,7 +10144,7 @@
         <v>646</v>
       </c>
       <c r="K194" t="n">
-        <v>-16.9811320754717</v>
+        <v>-15.38461538461539</v>
       </c>
       <c r="L194" t="n">
         <v>624.8</v>
@@ -10173,7 +10195,7 @@
         <v>647</v>
       </c>
       <c r="K195" t="n">
-        <v>-20.75471698113208</v>
+        <v>-18.51851851851852</v>
       </c>
       <c r="L195" t="n">
         <v>624.3</v>
@@ -10224,7 +10246,7 @@
         <v>650</v>
       </c>
       <c r="K196" t="n">
-        <v>-6.666666666666667</v>
+        <v>-46.15384615384615</v>
       </c>
       <c r="L196" t="n">
         <v>623.5</v>
@@ -10275,7 +10297,7 @@
         <v>657</v>
       </c>
       <c r="K197" t="n">
-        <v>7.692307692307693</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L197" t="n">
         <v>623</v>
@@ -10326,7 +10348,7 @@
         <v>659</v>
       </c>
       <c r="K198" t="n">
-        <v>4</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L198" t="n">
         <v>623</v>
@@ -10377,7 +10399,7 @@
         <v>659</v>
       </c>
       <c r="K199" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L199" t="n">
         <v>623.6</v>
@@ -10428,7 +10450,7 @@
         <v>660</v>
       </c>
       <c r="K200" t="n">
-        <v>12.5</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L200" t="n">
         <v>623.7</v>
@@ -10479,7 +10501,7 @@
         <v>662</v>
       </c>
       <c r="K201" t="n">
-        <v>10.20408163265306</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L201" t="n">
         <v>623.6</v>
@@ -10530,7 +10552,7 @@
         <v>663</v>
       </c>
       <c r="K202" t="n">
-        <v>10.20408163265306</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L202" t="n">
         <v>623.5</v>
@@ -10581,7 +10603,7 @@
         <v>666</v>
       </c>
       <c r="K203" t="n">
-        <v>-4.166666666666666</v>
+        <v>10</v>
       </c>
       <c r="L203" t="n">
         <v>623.5</v>
@@ -10632,7 +10654,7 @@
         <v>669</v>
       </c>
       <c r="K204" t="n">
-        <v>0</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L204" t="n">
         <v>624</v>
@@ -10683,7 +10705,7 @@
         <v>671</v>
       </c>
       <c r="K205" t="n">
-        <v>-1.96078431372549</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L205" t="n">
         <v>624.4</v>
@@ -10734,7 +10756,7 @@
         <v>672</v>
       </c>
       <c r="K206" t="n">
-        <v>-3.846153846153846</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L206" t="n">
         <v>625</v>
@@ -10785,7 +10807,7 @@
         <v>674</v>
       </c>
       <c r="K207" t="n">
-        <v>-8</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L207" t="n">
         <v>625.1</v>
@@ -10836,7 +10858,7 @@
         <v>674</v>
       </c>
       <c r="K208" t="n">
-        <v>-2.127659574468085</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L208" t="n">
         <v>625</v>
@@ -10887,7 +10909,7 @@
         <v>675</v>
       </c>
       <c r="K209" t="n">
-        <v>9.523809523809524</v>
+        <v>-20</v>
       </c>
       <c r="L209" t="n">
         <v>624.8</v>
@@ -10938,7 +10960,7 @@
         <v>676</v>
       </c>
       <c r="K210" t="n">
-        <v>-8.108108108108109</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L210" t="n">
         <v>624.4</v>
@@ -10989,7 +11011,7 @@
         <v>677</v>
       </c>
       <c r="K211" t="n">
-        <v>-10.52631578947368</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L211" t="n">
         <v>624.1</v>
@@ -11040,7 +11062,7 @@
         <v>677</v>
       </c>
       <c r="K212" t="n">
-        <v>-13.51351351351351</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L212" t="n">
         <v>623.7</v>
@@ -11091,7 +11113,7 @@
         <v>679</v>
       </c>
       <c r="K213" t="n">
-        <v>2.857142857142857</v>
+        <v>-20</v>
       </c>
       <c r="L213" t="n">
         <v>623.8</v>
@@ -11142,7 +11164,7 @@
         <v>680</v>
       </c>
       <c r="K214" t="n">
-        <v>11.76470588235294</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L214" t="n">
         <v>623.7</v>
@@ -11193,7 +11215,7 @@
         <v>681</v>
       </c>
       <c r="K215" t="n">
-        <v>11.76470588235294</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L215" t="n">
         <v>623.7</v>
@@ -11244,7 +11266,7 @@
         <v>683</v>
       </c>
       <c r="K216" t="n">
-        <v>15.15151515151515</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L216" t="n">
         <v>623.6</v>
@@ -11295,7 +11317,7 @@
         <v>683</v>
       </c>
       <c r="K217" t="n">
-        <v>-7.692307692307693</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L217" t="n">
         <v>623.3</v>
@@ -11346,7 +11368,7 @@
         <v>684</v>
       </c>
       <c r="K218" t="n">
-        <v>-12</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L218" t="n">
         <v>623.1</v>
@@ -11397,7 +11419,7 @@
         <v>686</v>
       </c>
       <c r="K219" t="n">
-        <v>-3.703703703703703</v>
+        <v>20</v>
       </c>
       <c r="L219" t="n">
         <v>623.2</v>
@@ -11448,7 +11470,7 @@
         <v>688</v>
       </c>
       <c r="K220" t="n">
-        <v>-14.28571428571428</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L220" t="n">
         <v>623.2</v>
@@ -11499,7 +11521,7 @@
         <v>688</v>
       </c>
       <c r="K221" t="n">
-        <v>-7.692307692307693</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L221" t="n">
         <v>623.3</v>
@@ -11550,7 +11572,7 @@
         <v>689</v>
       </c>
       <c r="K222" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L222" t="n">
         <v>623.5</v>
@@ -11601,7 +11623,7 @@
         <v>692</v>
       </c>
       <c r="K223" t="n">
-        <v>-7.692307692307693</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L223" t="n">
         <v>623.2</v>
@@ -11652,7 +11674,7 @@
         <v>694</v>
       </c>
       <c r="K224" t="n">
-        <v>-12</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L224" t="n">
         <v>623</v>
@@ -11703,7 +11725,7 @@
         <v>698</v>
       </c>
       <c r="K225" t="n">
-        <v>-18.51851851851852</v>
+        <v>-20</v>
       </c>
       <c r="L225" t="n">
         <v>622.5</v>
@@ -11754,7 +11776,7 @@
         <v>700</v>
       </c>
       <c r="K226" t="n">
-        <v>-7.142857142857142</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L226" t="n">
         <v>622.4</v>
@@ -11805,7 +11827,7 @@
         <v>700</v>
       </c>
       <c r="K227" t="n">
-        <v>-15.38461538461539</v>
+        <v>-12.5</v>
       </c>
       <c r="L227" t="n">
         <v>622.3</v>
@@ -11856,7 +11878,7 @@
         <v>700</v>
       </c>
       <c r="K228" t="n">
-        <v>-15.38461538461539</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L228" t="n">
         <v>622.1</v>
@@ -11907,7 +11929,7 @@
         <v>702</v>
       </c>
       <c r="K229" t="n">
-        <v>-18.51851851851852</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L229" t="n">
         <v>621.5</v>
@@ -11958,7 +11980,7 @@
         <v>702</v>
       </c>
       <c r="K230" t="n">
-        <v>-15.38461538461539</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L230" t="n">
         <v>621.1</v>
@@ -12009,7 +12031,7 @@
         <v>705</v>
       </c>
       <c r="K231" t="n">
-        <v>0</v>
+        <v>-12.5</v>
       </c>
       <c r="L231" t="n">
         <v>621</v>
@@ -12111,7 +12133,7 @@
         <v>708</v>
       </c>
       <c r="K233" t="n">
-        <v>-10.3448275862069</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L233" t="n">
         <v>620.6</v>
@@ -12162,7 +12184,7 @@
         <v>709</v>
       </c>
       <c r="K234" t="n">
-        <v>-10.3448275862069</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L234" t="n">
         <v>620.5</v>
@@ -12213,7 +12235,7 @@
         <v>711</v>
       </c>
       <c r="K235" t="n">
-        <v>0</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L235" t="n">
         <v>621</v>
@@ -12264,7 +12286,7 @@
         <v>711</v>
       </c>
       <c r="K236" t="n">
-        <v>7.142857142857142</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L236" t="n">
         <v>621.3</v>
@@ -12315,7 +12337,7 @@
         <v>715</v>
       </c>
       <c r="K237" t="n">
-        <v>-6.25</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L237" t="n">
         <v>621.2</v>
@@ -12366,7 +12388,7 @@
         <v>716</v>
       </c>
       <c r="K238" t="n">
-        <v>-12.5</v>
+        <v>0</v>
       </c>
       <c r="L238" t="n">
         <v>621</v>
@@ -12417,7 +12439,7 @@
         <v>717</v>
       </c>
       <c r="K239" t="n">
-        <v>-16.12903225806452</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L239" t="n">
         <v>621.1</v>
@@ -12468,7 +12490,7 @@
         <v>718</v>
       </c>
       <c r="K240" t="n">
-        <v>-13.33333333333333</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L240" t="n">
         <v>621.1</v>
@@ -12519,7 +12541,7 @@
         <v>719</v>
       </c>
       <c r="K241" t="n">
-        <v>-9.67741935483871</v>
+        <v>0</v>
       </c>
       <c r="L241" t="n">
         <v>620.9</v>
@@ -12570,7 +12592,7 @@
         <v>721</v>
       </c>
       <c r="K242" t="n">
-        <v>-18.75</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L242" t="n">
         <v>620.7</v>
@@ -12621,7 +12643,7 @@
         <v>723</v>
       </c>
       <c r="K243" t="n">
-        <v>-16.12903225806452</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L243" t="n">
         <v>620.2</v>
@@ -12672,7 +12694,7 @@
         <v>729</v>
       </c>
       <c r="K244" t="n">
-        <v>-2.857142857142857</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L244" t="n">
         <v>620.2</v>
@@ -12723,7 +12745,7 @@
         <v>734</v>
       </c>
       <c r="K245" t="n">
-        <v>-5.555555555555555</v>
+        <v>-30.43478260869566</v>
       </c>
       <c r="L245" t="n">
         <v>619.5</v>
@@ -12774,7 +12796,7 @@
         <v>737</v>
       </c>
       <c r="K246" t="n">
-        <v>-2.702702702702703</v>
+        <v>0</v>
       </c>
       <c r="L246" t="n">
         <v>619.1</v>
@@ -12825,7 +12847,7 @@
         <v>737</v>
       </c>
       <c r="K247" t="n">
-        <v>-2.702702702702703</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L247" t="n">
         <v>619.1</v>
@@ -12876,7 +12898,7 @@
         <v>738</v>
       </c>
       <c r="K248" t="n">
-        <v>0</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L248" t="n">
         <v>619.3</v>
@@ -12927,7 +12949,7 @@
         <v>739</v>
       </c>
       <c r="K249" t="n">
-        <v>2.702702702702703</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L249" t="n">
         <v>619.3</v>
@@ -12978,7 +13000,7 @@
         <v>739</v>
       </c>
       <c r="K250" t="n">
-        <v>2.702702702702703</v>
+        <v>0</v>
       </c>
       <c r="L250" t="n">
         <v>619.4</v>
@@ -13029,7 +13051,7 @@
         <v>741</v>
       </c>
       <c r="K251" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L251" t="n">
         <v>619.2</v>
@@ -13080,7 +13102,7 @@
         <v>742</v>
       </c>
       <c r="K252" t="n">
-        <v>-2.857142857142857</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L252" t="n">
         <v>619.3</v>
@@ -13131,7 +13153,7 @@
         <v>743</v>
       </c>
       <c r="K253" t="n">
-        <v>-8.571428571428571</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L253" t="n">
         <v>619.5</v>
@@ -13182,7 +13204,7 @@
         <v>746</v>
       </c>
       <c r="K254" t="n">
-        <v>-2.702702702702703</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L254" t="n">
         <v>619.4</v>
@@ -13233,7 +13255,7 @@
         <v>749</v>
       </c>
       <c r="K255" t="n">
-        <v>-15.78947368421053</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L255" t="n">
         <v>619.5</v>
@@ -13284,7 +13306,7 @@
         <v>750</v>
       </c>
       <c r="K256" t="n">
-        <v>-12.82051282051282</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L256" t="n">
         <v>619.4</v>
@@ -13335,7 +13357,7 @@
         <v>750</v>
       </c>
       <c r="K257" t="n">
-        <v>-2.857142857142857</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L257" t="n">
         <v>619.3</v>
@@ -13386,7 +13408,7 @@
         <v>751</v>
       </c>
       <c r="K258" t="n">
-        <v>-2.857142857142857</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L258" t="n">
         <v>619</v>
@@ -13437,7 +13459,7 @@
         <v>752</v>
       </c>
       <c r="K259" t="n">
-        <v>-2.857142857142857</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L259" t="n">
         <v>618.9</v>
@@ -13488,7 +13510,7 @@
         <v>753</v>
       </c>
       <c r="K260" t="n">
-        <v>-2.857142857142857</v>
+        <v>0</v>
       </c>
       <c r="L260" t="n">
         <v>618.7</v>
@@ -13539,7 +13561,7 @@
         <v>753</v>
       </c>
       <c r="K261" t="n">
-        <v>-5.88235294117647</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L261" t="n">
         <v>618.7</v>
@@ -13590,7 +13612,7 @@
         <v>756</v>
       </c>
       <c r="K262" t="n">
-        <v>8.571428571428571</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L262" t="n">
         <v>618.9</v>
@@ -13641,7 +13663,7 @@
         <v>759</v>
       </c>
       <c r="K263" t="n">
-        <v>5.555555555555555</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L263" t="n">
         <v>618.9</v>
@@ -13692,7 +13714,7 @@
         <v>759</v>
       </c>
       <c r="K264" t="n">
-        <v>-13.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L264" t="n">
         <v>618.6</v>
@@ -13743,7 +13765,7 @@
         <v>760</v>
       </c>
       <c r="K265" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L265" t="n">
         <v>618.5</v>
@@ -13794,7 +13816,7 @@
         <v>762</v>
       </c>
       <c r="K266" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L266" t="n">
         <v>618.1</v>
@@ -13845,7 +13867,7 @@
         <v>762</v>
       </c>
       <c r="K267" t="n">
-        <v>-20</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L267" t="n">
         <v>617.7</v>
@@ -13896,7 +13918,7 @@
         <v>768</v>
       </c>
       <c r="K268" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="L268" t="n">
         <v>618</v>
@@ -13947,7 +13969,7 @@
         <v>772</v>
       </c>
       <c r="K269" t="n">
-        <v>-9.090909090909092</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L269" t="n">
         <v>617.8</v>
@@ -13998,7 +14020,7 @@
         <v>777</v>
       </c>
       <c r="K270" t="n">
-        <v>-21.05263157894737</v>
+        <v>-25</v>
       </c>
       <c r="L270" t="n">
         <v>617.2</v>
@@ -14049,7 +14071,7 @@
         <v>777</v>
       </c>
       <c r="K271" t="n">
-        <v>-16.66666666666666</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L271" t="n">
         <v>616.6</v>
@@ -14100,7 +14122,7 @@
         <v>781</v>
       </c>
       <c r="K272" t="n">
-        <v>-7.692307692307693</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L272" t="n">
         <v>616.1</v>
@@ -14202,7 +14224,7 @@
         <v>784</v>
       </c>
       <c r="K274" t="n">
-        <v>-5.263157894736842</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L274" t="n">
         <v>616.2</v>
@@ -14253,7 +14275,7 @@
         <v>784</v>
       </c>
       <c r="K275" t="n">
-        <v>2.857142857142857</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L275" t="n">
         <v>616.4</v>
@@ -14304,7 +14326,7 @@
         <v>785</v>
       </c>
       <c r="K276" t="n">
-        <v>-2.857142857142857</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L276" t="n">
         <v>616.7</v>
@@ -14355,7 +14377,7 @@
         <v>786</v>
       </c>
       <c r="K277" t="n">
-        <v>0</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L277" t="n">
         <v>617.1</v>
@@ -14406,7 +14428,7 @@
         <v>786</v>
       </c>
       <c r="K278" t="n">
-        <v>2.857142857142857</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L278" t="n">
         <v>616.9</v>
@@ -14457,7 +14479,7 @@
         <v>786</v>
       </c>
       <c r="K279" t="n">
-        <v>0</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L279" t="n">
         <v>617.1</v>
@@ -14508,7 +14530,7 @@
         <v>788</v>
       </c>
       <c r="K280" t="n">
-        <v>8.571428571428571</v>
+        <v>81.81818181818183</v>
       </c>
       <c r="L280" t="n">
         <v>618</v>
@@ -14559,7 +14581,7 @@
         <v>790</v>
       </c>
       <c r="K281" t="n">
-        <v>2.702702702702703</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L281" t="n">
         <v>618.7</v>
@@ -14610,7 +14632,7 @@
         <v>805</v>
       </c>
       <c r="K282" t="n">
-        <v>26.53061224489796</v>
+        <v>72.72727272727273</v>
       </c>
       <c r="L282" t="n">
         <v>620.5</v>
@@ -14661,7 +14683,7 @@
         <v>814</v>
       </c>
       <c r="K283" t="n">
-        <v>12.72727272727273</v>
+        <v>20</v>
       </c>
       <c r="L283" t="n">
         <v>621.2</v>
@@ -14712,7 +14734,7 @@
         <v>814</v>
       </c>
       <c r="K284" t="n">
-        <v>12.72727272727273</v>
+        <v>20</v>
       </c>
       <c r="L284" t="n">
         <v>621.8</v>
@@ -14763,7 +14785,7 @@
         <v>815</v>
       </c>
       <c r="K285" t="n">
-        <v>12.72727272727273</v>
+        <v>20</v>
       </c>
       <c r="L285" t="n">
         <v>622.3</v>
@@ -14814,7 +14836,7 @@
         <v>815</v>
       </c>
       <c r="K286" t="n">
-        <v>16.9811320754717</v>
+        <v>17.24137931034483</v>
       </c>
       <c r="L286" t="n">
         <v>622.9</v>
@@ -14865,7 +14887,7 @@
         <v>819</v>
       </c>
       <c r="K287" t="n">
-        <v>22.80701754385965</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L287" t="n">
         <v>623.8</v>
@@ -14916,7 +14938,7 @@
         <v>821</v>
       </c>
       <c r="K288" t="n">
-        <v>9.433962264150944</v>
+        <v>20</v>
       </c>
       <c r="L288" t="n">
         <v>624.5</v>
@@ -14967,7 +14989,7 @@
         <v>825</v>
       </c>
       <c r="K289" t="n">
-        <v>9.433962264150944</v>
+        <v>2.702702702702703</v>
       </c>
       <c r="L289" t="n">
         <v>624.8</v>
@@ -15018,7 +15040,7 @@
         <v>832</v>
       </c>
       <c r="K290" t="n">
-        <v>30.90909090909091</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L290" t="n">
         <v>625.6</v>
@@ -15069,7 +15091,7 @@
         <v>833</v>
       </c>
       <c r="K291" t="n">
-        <v>32.14285714285715</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L291" t="n">
         <v>626.7</v>
@@ -15120,7 +15142,7 @@
         <v>834</v>
       </c>
       <c r="K292" t="n">
-        <v>28.30188679245283</v>
+        <v>30</v>
       </c>
       <c r="L292" t="n">
         <v>626.4</v>
@@ -15171,7 +15193,7 @@
         <v>834</v>
       </c>
       <c r="K293" t="n">
-        <v>25.49019607843137</v>
+        <v>30</v>
       </c>
       <c r="L293" t="n">
         <v>627</v>
@@ -15222,7 +15244,7 @@
         <v>834</v>
       </c>
       <c r="K294" t="n">
-        <v>24</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="L294" t="n">
         <v>627.6</v>
@@ -15273,7 +15295,7 @@
         <v>834</v>
       </c>
       <c r="K295" t="n">
-        <v>24</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="L295" t="n">
         <v>628.3</v>
@@ -15324,7 +15346,7 @@
         <v>834</v>
       </c>
       <c r="K296" t="n">
-        <v>26.53061224489796</v>
+        <v>20</v>
       </c>
       <c r="L296" t="n">
         <v>629</v>
@@ -15375,7 +15397,7 @@
         <v>834</v>
       </c>
       <c r="K297" t="n">
-        <v>25</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L297" t="n">
         <v>629.3</v>
@@ -15426,7 +15448,7 @@
         <v>834</v>
       </c>
       <c r="K298" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="L298" t="n">
         <v>629.8</v>
@@ -15477,7 +15499,7 @@
         <v>835</v>
       </c>
       <c r="K299" t="n">
-        <v>26.53061224489796</v>
+        <v>100</v>
       </c>
       <c r="L299" t="n">
         <v>630.8</v>
@@ -15528,7 +15550,7 @@
         <v>837</v>
       </c>
       <c r="K300" t="n">
-        <v>26.53061224489796</v>
+        <v>100</v>
       </c>
       <c r="L300" t="n">
         <v>631.3</v>
@@ -15579,7 +15601,7 @@
         <v>838</v>
       </c>
       <c r="K301" t="n">
-        <v>29.16666666666667</v>
+        <v>50</v>
       </c>
       <c r="L301" t="n">
         <v>631.6</v>
@@ -15630,7 +15652,7 @@
         <v>839</v>
       </c>
       <c r="K302" t="n">
-        <v>-5.88235294117647</v>
+        <v>20</v>
       </c>
       <c r="L302" t="n">
         <v>631.7</v>
@@ -15681,7 +15703,7 @@
         <v>839</v>
       </c>
       <c r="K303" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L303" t="n">
         <v>631.8</v>
@@ -15732,7 +15754,7 @@
         <v>845</v>
       </c>
       <c r="K304" t="n">
-        <v>3.225806451612903</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L304" t="n">
         <v>631.3</v>
@@ -15783,7 +15805,7 @@
         <v>851</v>
       </c>
       <c r="K305" t="n">
-        <v>22.22222222222222</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L305" t="n">
         <v>631.4</v>
@@ -15834,7 +15856,7 @@
         <v>857</v>
       </c>
       <c r="K306" t="n">
-        <v>4.761904761904762</v>
+        <v>-21.73913043478261</v>
       </c>
       <c r="L306" t="n">
         <v>630.9</v>
@@ -15885,7 +15907,7 @@
         <v>864</v>
       </c>
       <c r="K307" t="n">
-        <v>11.11111111111111</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L307" t="n">
         <v>631.1</v>
@@ -15936,7 +15958,7 @@
         <v>871</v>
       </c>
       <c r="K308" t="n">
-        <v>0</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L308" t="n">
         <v>630.6</v>
@@ -15987,7 +16009,7 @@
         <v>871</v>
       </c>
       <c r="K309" t="n">
-        <v>8.695652173913043</v>
+        <v>-23.52941176470588</v>
       </c>
       <c r="L309" t="n">
         <v>630</v>
@@ -16038,7 +16060,7 @@
         <v>871</v>
       </c>
       <c r="K310" t="n">
-        <v>-7.692307692307693</v>
+        <v>-21.21212121212121</v>
       </c>
       <c r="L310" t="n">
         <v>629.2</v>
@@ -16089,7 +16111,7 @@
         <v>878</v>
       </c>
       <c r="K311" t="n">
-        <v>6.666666666666667</v>
+        <v>2.564102564102564</v>
       </c>
       <c r="L311" t="n">
         <v>629.2</v>
@@ -16140,7 +16162,7 @@
         <v>878</v>
       </c>
       <c r="K312" t="n">
-        <v>4.545454545454546</v>
+        <v>2.564102564102564</v>
       </c>
       <c r="L312" t="n">
         <v>629.3</v>
@@ -16191,7 +16213,7 @@
         <v>881</v>
       </c>
       <c r="K313" t="n">
-        <v>-2.127659574468085</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L313" t="n">
         <v>629.1</v>
@@ -16242,7 +16264,7 @@
         <v>883</v>
       </c>
       <c r="K314" t="n">
-        <v>-6.122448979591836</v>
+        <v>-12.5</v>
       </c>
       <c r="L314" t="n">
         <v>629.3</v>
@@ -16293,7 +16315,7 @@
         <v>885</v>
       </c>
       <c r="K315" t="n">
-        <v>-1.96078431372549</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L315" t="n">
         <v>629.1</v>
@@ -16344,7 +16366,7 @@
         <v>887</v>
       </c>
       <c r="K316" t="n">
-        <v>-5.660377358490567</v>
+        <v>-21.73913043478261</v>
       </c>
       <c r="L316" t="n">
         <v>629.3</v>
@@ -16395,7 +16417,7 @@
         <v>889</v>
       </c>
       <c r="K317" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L317" t="n">
         <v>628.6</v>
@@ -16446,7 +16468,7 @@
         <v>889</v>
       </c>
       <c r="K318" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L318" t="n">
         <v>628.6</v>
@@ -16497,7 +16519,7 @@
         <v>890</v>
       </c>
       <c r="K319" t="n">
-        <v>-12.72727272727273</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L319" t="n">
         <v>628.5</v>
@@ -16548,7 +16570,7 @@
         <v>891</v>
       </c>
       <c r="K320" t="n">
-        <v>-18.51851851851852</v>
+        <v>-69.23076923076923</v>
       </c>
       <c r="L320" t="n">
         <v>628.3</v>
@@ -16599,7 +16621,7 @@
         <v>893</v>
       </c>
       <c r="K321" t="n">
-        <v>-12.72727272727273</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L321" t="n">
         <v>627.6</v>
@@ -16650,7 +16672,7 @@
         <v>894</v>
       </c>
       <c r="K322" t="n">
-        <v>-12.72727272727273</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L322" t="n">
         <v>626.8</v>
@@ -16701,7 +16723,7 @@
         <v>899</v>
       </c>
       <c r="K323" t="n">
-        <v>-20</v>
+        <v>-50</v>
       </c>
       <c r="L323" t="n">
         <v>625.8</v>
@@ -16752,7 +16774,7 @@
         <v>899</v>
       </c>
       <c r="K324" t="n">
-        <v>-11.11111111111111</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L324" t="n">
         <v>625</v>
@@ -16803,7 +16825,7 @@
         <v>904</v>
       </c>
       <c r="K325" t="n">
-        <v>-13.20754716981132</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L325" t="n">
         <v>624.5</v>
@@ -16854,7 +16876,7 @@
         <v>904</v>
       </c>
       <c r="K326" t="n">
-        <v>-2.127659574468085</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L326" t="n">
         <v>624.2</v>
@@ -16905,7 +16927,7 @@
         <v>905</v>
       </c>
       <c r="K327" t="n">
-        <v>-21.95121951219512</v>
+        <v>-12.5</v>
       </c>
       <c r="L327" t="n">
         <v>624</v>
@@ -16956,7 +16978,7 @@
         <v>905</v>
       </c>
       <c r="K328" t="n">
-        <v>-5.88235294117647</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L328" t="n">
         <v>623.8</v>
@@ -17007,7 +17029,7 @@
         <v>908</v>
       </c>
       <c r="K329" t="n">
-        <v>-13.51351351351351</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L329" t="n">
         <v>623.4</v>
@@ -17058,7 +17080,7 @@
         <v>908</v>
       </c>
       <c r="K330" t="n">
-        <v>-13.51351351351351</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L330" t="n">
         <v>623.1</v>
@@ -17109,7 +17131,7 @@
         <v>915</v>
       </c>
       <c r="K331" t="n">
-        <v>-51.35135135135135</v>
+        <v>-52.38095238095239</v>
       </c>
       <c r="L331" t="n">
         <v>621.9</v>
@@ -17160,7 +17182,7 @@
         <v>922</v>
       </c>
       <c r="K332" t="n">
-        <v>-27.27272727272727</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L332" t="n">
         <v>621.5</v>
@@ -17211,7 +17233,7 @@
         <v>922</v>
       </c>
       <c r="K333" t="n">
-        <v>-21.95121951219512</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L333" t="n">
         <v>621.6</v>
@@ -17262,7 +17284,7 @@
         <v>922</v>
       </c>
       <c r="K334" t="n">
-        <v>-17.94871794871795</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L334" t="n">
         <v>621.7</v>
@@ -17364,7 +17386,7 @@
         <v>930</v>
       </c>
       <c r="K336" t="n">
-        <v>-34.88372093023256</v>
+        <v>-44</v>
       </c>
       <c r="L336" t="n">
         <v>620</v>
@@ -17415,7 +17437,7 @@
         <v>941</v>
       </c>
       <c r="K337" t="n">
-        <v>-3.846153846153846</v>
+        <v>0</v>
       </c>
       <c r="L337" t="n">
         <v>620</v>
@@ -17466,7 +17488,7 @@
         <v>950</v>
       </c>
       <c r="K338" t="n">
-        <v>-18.0327868852459</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L338" t="n">
         <v>619.1</v>
@@ -17517,7 +17539,7 @@
         <v>954</v>
       </c>
       <c r="K339" t="n">
-        <v>-9.375</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L339" t="n">
         <v>618.9</v>
@@ -17568,7 +17590,7 @@
         <v>954</v>
       </c>
       <c r="K340" t="n">
-        <v>-7.936507936507936</v>
+        <v>12.82051282051282</v>
       </c>
       <c r="L340" t="n">
         <v>618.7</v>
@@ -17619,7 +17641,7 @@
         <v>957</v>
       </c>
       <c r="K341" t="n">
-        <v>-15.625</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L341" t="n">
         <v>618.9</v>
@@ -17670,7 +17692,7 @@
         <v>959</v>
       </c>
       <c r="K342" t="n">
-        <v>-16.92307692307692</v>
+        <v>-18.91891891891892</v>
       </c>
       <c r="L342" t="n">
         <v>618.2</v>
@@ -17721,7 +17743,7 @@
         <v>960</v>
       </c>
       <c r="K343" t="n">
-        <v>-11.47540983606557</v>
+        <v>-21.05263157894737</v>
       </c>
       <c r="L343" t="n">
         <v>617.4</v>
@@ -17772,7 +17794,7 @@
         <v>961</v>
       </c>
       <c r="K344" t="n">
-        <v>-12.90322580645161</v>
+        <v>-21.05263157894737</v>
       </c>
       <c r="L344" t="n">
         <v>616.5</v>
@@ -17823,7 +17845,7 @@
         <v>964</v>
       </c>
       <c r="K345" t="n">
-        <v>-16.66666666666666</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L345" t="n">
         <v>616</v>
@@ -17874,7 +17896,7 @@
         <v>967</v>
       </c>
       <c r="K346" t="n">
-        <v>-20.63492063492063</v>
+        <v>-46.15384615384615</v>
       </c>
       <c r="L346" t="n">
         <v>615.9</v>
@@ -17925,7 +17947,7 @@
         <v>969</v>
       </c>
       <c r="K347" t="n">
-        <v>-15.625</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L347" t="n">
         <v>614.9</v>
@@ -17976,7 +17998,7 @@
         <v>973</v>
       </c>
       <c r="K348" t="n">
-        <v>-8.823529411764707</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L348" t="n">
         <v>615.2</v>
@@ -18027,7 +18049,7 @@
         <v>973</v>
       </c>
       <c r="K349" t="n">
-        <v>-4.615384615384616</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L349" t="n">
         <v>615.1</v>
@@ -18078,7 +18100,7 @@
         <v>973</v>
       </c>
       <c r="K350" t="n">
-        <v>-4.615384615384616</v>
+        <v>12.5</v>
       </c>
       <c r="L350" t="n">
         <v>615</v>
@@ -18129,7 +18151,7 @@
         <v>980</v>
       </c>
       <c r="K351" t="n">
-        <v>-4.615384615384616</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L351" t="n">
         <v>614.5</v>
@@ -18180,7 +18202,7 @@
         <v>986</v>
       </c>
       <c r="K352" t="n">
-        <v>-6.25</v>
+        <v>15.38461538461539</v>
       </c>
       <c r="L352" t="n">
         <v>614.8</v>
@@ -18231,7 +18253,7 @@
         <v>987</v>
       </c>
       <c r="K353" t="n">
-        <v>-4.615384615384616</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L353" t="n">
         <v>615.3</v>
@@ -18282,7 +18304,7 @@
         <v>987</v>
       </c>
       <c r="K354" t="n">
-        <v>-4.615384615384616</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L354" t="n">
         <v>615.9</v>
@@ -18333,7 +18355,7 @@
         <v>993</v>
       </c>
       <c r="K355" t="n">
-        <v>-11.42857142857143</v>
+        <v>0</v>
       </c>
       <c r="L355" t="n">
         <v>615.6</v>
@@ -18384,7 +18406,7 @@
         <v>996</v>
       </c>
       <c r="K356" t="n">
-        <v>3.03030303030303</v>
+        <v>3.703703703703703</v>
       </c>
       <c r="L356" t="n">
         <v>615.9</v>
@@ -18435,7 +18457,7 @@
         <v>996</v>
       </c>
       <c r="K357" t="n">
-        <v>-16.36363636363636</v>
+        <v>-13.04347826086956</v>
       </c>
       <c r="L357" t="n">
         <v>616</v>
@@ -18486,7 +18508,7 @@
         <v>1002</v>
       </c>
       <c r="K358" t="n">
-        <v>11.53846153846154</v>
+        <v>10.3448275862069</v>
       </c>
       <c r="L358" t="n">
         <v>616.3</v>
@@ -18537,7 +18559,7 @@
         <v>1002</v>
       </c>
       <c r="K359" t="n">
-        <v>4.166666666666666</v>
+        <v>10.3448275862069</v>
       </c>
       <c r="L359" t="n">
         <v>616.6</v>
@@ -18588,7 +18610,7 @@
         <v>1009</v>
       </c>
       <c r="K360" t="n">
-        <v>-9.090909090909092</v>
+        <v>10.3448275862069</v>
       </c>
       <c r="L360" t="n">
         <v>616.2</v>
@@ -18639,7 +18661,7 @@
         <v>1012</v>
       </c>
       <c r="K361" t="n">
-        <v>1.818181818181818</v>
+        <v>0</v>
       </c>
       <c r="L361" t="n">
         <v>616.8</v>
@@ -18690,7 +18712,7 @@
         <v>1012</v>
       </c>
       <c r="K362" t="n">
-        <v>5.660377358490567</v>
+        <v>-4</v>
       </c>
       <c r="L362" t="n">
         <v>616.8</v>
@@ -18741,7 +18763,7 @@
         <v>1012</v>
       </c>
       <c r="K363" t="n">
-        <v>7.692307692307693</v>
+        <v>-4</v>
       </c>
       <c r="L363" t="n">
         <v>616.7</v>
@@ -18792,7 +18814,7 @@
         <v>1014</v>
       </c>
       <c r="K364" t="n">
-        <v>5.660377358490567</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L364" t="n">
         <v>616.4</v>
@@ -18843,7 +18865,7 @@
         <v>1017</v>
       </c>
       <c r="K365" t="n">
-        <v>-5.660377358490567</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L365" t="n">
         <v>616.4</v>
@@ -18894,7 +18916,7 @@
         <v>1025</v>
       </c>
       <c r="K366" t="n">
-        <v>13.79310344827586</v>
+        <v>17.24137931034483</v>
       </c>
       <c r="L366" t="n">
         <v>616.9</v>
@@ -18945,7 +18967,7 @@
         <v>1033</v>
       </c>
       <c r="K367" t="n">
-        <v>-3.125</v>
+        <v>-29.03225806451613</v>
       </c>
       <c r="L367" t="n">
         <v>616.6</v>
@@ -18996,7 +19018,7 @@
         <v>1041</v>
       </c>
       <c r="K368" t="n">
-        <v>2.941176470588235</v>
+        <v>-2.564102564102564</v>
       </c>
       <c r="L368" t="n">
         <v>616.5</v>
@@ -19047,7 +19069,7 @@
         <v>1041</v>
       </c>
       <c r="K369" t="n">
-        <v>2.941176470588235</v>
+        <v>18.75</v>
       </c>
       <c r="L369" t="n">
         <v>616.4</v>
@@ -19098,7 +19120,7 @@
         <v>1042</v>
       </c>
       <c r="K370" t="n">
-        <v>4.347826086956522</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="L370" t="n">
         <v>617.1</v>
@@ -19149,7 +19171,7 @@
         <v>1042</v>
       </c>
       <c r="K371" t="n">
-        <v>16.12903225806452</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="L371" t="n">
         <v>617.5</v>
@@ -19200,7 +19222,7 @@
         <v>1043</v>
       </c>
       <c r="K372" t="n">
-        <v>5.263157894736842</v>
+        <v>9.67741935483871</v>
       </c>
       <c r="L372" t="n">
         <v>617.8</v>
@@ -19251,7 +19273,7 @@
         <v>1051</v>
       </c>
       <c r="K373" t="n">
-        <v>-9.375</v>
+        <v>-8.108108108108109</v>
       </c>
       <c r="L373" t="n">
         <v>617.3</v>
@@ -19302,7 +19324,7 @@
         <v>1052</v>
       </c>
       <c r="K374" t="n">
-        <v>-7.692307692307693</v>
+        <v>2.857142857142857</v>
       </c>
       <c r="L374" t="n">
         <v>617.1</v>
@@ -19353,7 +19375,7 @@
         <v>1052</v>
       </c>
       <c r="K375" t="n">
-        <v>1.694915254237288</v>
+        <v>-25.92592592592592</v>
       </c>
       <c r="L375" t="n">
         <v>617.2</v>
@@ -19404,7 +19426,7 @@
         <v>1052</v>
       </c>
       <c r="K376" t="n">
-        <v>-3.571428571428571</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L376" t="n">
         <v>616.5</v>
@@ -19455,7 +19477,7 @@
         <v>1052</v>
       </c>
       <c r="K377" t="n">
-        <v>-3.571428571428571</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L377" t="n">
         <v>616.6</v>
@@ -19506,7 +19528,7 @@
         <v>1052</v>
       </c>
       <c r="K378" t="n">
-        <v>-16</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L378" t="n">
         <v>615.9</v>
@@ -19557,7 +19579,7 @@
         <v>1054</v>
       </c>
       <c r="K379" t="n">
-        <v>-11.53846153846154</v>
+        <v>-50</v>
       </c>
       <c r="L379" t="n">
         <v>615.4</v>
@@ -19608,7 +19630,7 @@
         <v>1054</v>
       </c>
       <c r="K380" t="n">
-        <v>2.222222222222222</v>
+        <v>-50</v>
       </c>
       <c r="L380" t="n">
         <v>614.8</v>
@@ -19659,7 +19681,7 @@
         <v>1058</v>
       </c>
       <c r="K381" t="n">
-        <v>4.347826086956522</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L381" t="n">
         <v>614.6</v>
@@ -19710,7 +19732,7 @@
         <v>1058</v>
       </c>
       <c r="K382" t="n">
-        <v>4.347826086956522</v>
+        <v>100</v>
       </c>
       <c r="L382" t="n">
         <v>614.5</v>
@@ -19761,7 +19783,7 @@
         <v>1058</v>
       </c>
       <c r="K383" t="n">
-        <v>4.347826086956522</v>
+        <v>100</v>
       </c>
       <c r="L383" t="n">
         <v>615.2</v>
@@ -19812,7 +19834,7 @@
         <v>1058</v>
       </c>
       <c r="K384" t="n">
-        <v>9.090909090909092</v>
+        <v>100</v>
       </c>
       <c r="L384" t="n">
         <v>615.8</v>
@@ -19863,7 +19885,7 @@
         <v>1064</v>
       </c>
       <c r="K385" t="n">
-        <v>2.127659574468085</v>
+        <v>0</v>
       </c>
       <c r="L385" t="n">
         <v>615.8</v>
@@ -19914,7 +19936,7 @@
         <v>1064</v>
       </c>
       <c r="K386" t="n">
-        <v>-17.94871794871795</v>
+        <v>0</v>
       </c>
       <c r="L386" t="n">
         <v>615.8</v>
@@ -19965,7 +19987,7 @@
         <v>1064</v>
       </c>
       <c r="K387" t="n">
-        <v>3.225806451612903</v>
+        <v>0</v>
       </c>
       <c r="L387" t="n">
         <v>615.8</v>
@@ -20016,7 +20038,7 @@
         <v>1064</v>
       </c>
       <c r="K388" t="n">
-        <v>-30.43478260869566</v>
+        <v>-20</v>
       </c>
       <c r="L388" t="n">
         <v>615.8</v>
@@ -20067,7 +20089,7 @@
         <v>1065</v>
       </c>
       <c r="K389" t="n">
-        <v>-25</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L389" t="n">
         <v>615.7</v>
@@ -20118,7 +20140,7 @@
         <v>1072</v>
       </c>
       <c r="K390" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L390" t="n">
         <v>616.3</v>
@@ -20169,7 +20191,7 @@
         <v>1080</v>
       </c>
       <c r="K391" t="n">
-        <v>-21.05263157894737</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L391" t="n">
         <v>615.7</v>
@@ -20220,7 +20242,7 @@
         <v>1081</v>
       </c>
       <c r="K392" t="n">
-        <v>-15.78947368421053</v>
+        <v>-21.73913043478261</v>
       </c>
       <c r="L392" t="n">
         <v>615.2</v>
@@ -20271,7 +20293,7 @@
         <v>1081</v>
       </c>
       <c r="K393" t="n">
-        <v>6.666666666666667</v>
+        <v>-21.73913043478261</v>
       </c>
       <c r="L393" t="n">
         <v>614.7</v>
@@ -20373,7 +20395,7 @@
         <v>1083</v>
       </c>
       <c r="K395" t="n">
-        <v>3.225806451612903</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L395" t="n">
         <v>614.2</v>
@@ -20424,7 +20446,7 @@
         <v>1083</v>
       </c>
       <c r="K396" t="n">
-        <v>3.225806451612903</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L396" t="n">
         <v>614.3</v>
@@ -20475,7 +20497,7 @@
         <v>1083</v>
       </c>
       <c r="K397" t="n">
-        <v>3.225806451612903</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L397" t="n">
         <v>614.4</v>
@@ -20526,7 +20548,7 @@
         <v>1083</v>
       </c>
       <c r="K398" t="n">
-        <v>3.225806451612903</v>
+        <v>0</v>
       </c>
       <c r="L398" t="n">
         <v>614.5</v>
@@ -20577,7 +20599,7 @@
         <v>1083</v>
       </c>
       <c r="K399" t="n">
-        <v>-3.448275862068965</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L399" t="n">
         <v>614.5</v>
@@ -20628,7 +20650,7 @@
         <v>1084</v>
       </c>
       <c r="K400" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L400" t="n">
         <v>613.9</v>
@@ -20679,7 +20701,7 @@
         <v>1085</v>
       </c>
       <c r="K401" t="n">
-        <v>-18.51851851851852</v>
+        <v>0</v>
       </c>
       <c r="L401" t="n">
         <v>614</v>
@@ -20730,7 +20752,7 @@
         <v>1086</v>
       </c>
       <c r="K402" t="n">
-        <v>-14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L402" t="n">
         <v>614.1</v>
@@ -20781,7 +20803,7 @@
         <v>1087</v>
       </c>
       <c r="K403" t="n">
-        <v>-17.24137931034483</v>
+        <v>20</v>
       </c>
       <c r="L403" t="n">
         <v>614.1</v>
@@ -20832,7 +20854,7 @@
         <v>1087</v>
       </c>
       <c r="K404" t="n">
-        <v>-17.24137931034483</v>
+        <v>0</v>
       </c>
       <c r="L404" t="n">
         <v>614.2</v>
@@ -20883,7 +20905,7 @@
         <v>1089</v>
       </c>
       <c r="K405" t="n">
-        <v>-4</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L405" t="n">
         <v>614</v>
@@ -20934,7 +20956,7 @@
         <v>1090</v>
       </c>
       <c r="K406" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L406" t="n">
         <v>613.9</v>
@@ -20985,7 +21007,7 @@
         <v>1091</v>
       </c>
       <c r="K407" t="n">
-        <v>-3.703703703703703</v>
+        <v>-25</v>
       </c>
       <c r="L407" t="n">
         <v>613.7</v>
@@ -21036,7 +21058,7 @@
         <v>1091</v>
       </c>
       <c r="K408" t="n">
-        <v>-3.703703703703703</v>
+        <v>-25</v>
       </c>
       <c r="L408" t="n">
         <v>613.5</v>
@@ -21087,7 +21109,7 @@
         <v>1091</v>
       </c>
       <c r="K409" t="n">
-        <v>-7.692307692307693</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L409" t="n">
         <v>613.3</v>
@@ -21138,7 +21160,7 @@
         <v>1096</v>
       </c>
       <c r="K410" t="n">
-        <v>-16.66666666666666</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L410" t="n">
         <v>613.5</v>
@@ -21189,7 +21211,7 @@
         <v>1096</v>
       </c>
       <c r="K411" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L411" t="n">
         <v>613.8</v>
@@ -21240,7 +21262,7 @@
         <v>1101</v>
       </c>
       <c r="K412" t="n">
-        <v>-10</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L412" t="n">
         <v>613.5</v>
@@ -21291,7 +21313,7 @@
         <v>1101</v>
       </c>
       <c r="K413" t="n">
-        <v>-10</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L413" t="n">
         <v>613.3</v>
@@ -21342,7 +21364,7 @@
         <v>1101</v>
       </c>
       <c r="K414" t="n">
-        <v>-5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L414" t="n">
         <v>613.1</v>
@@ -21393,7 +21415,7 @@
         <v>1101</v>
       </c>
       <c r="K415" t="n">
-        <v>-11.11111111111111</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L415" t="n">
         <v>613.1</v>
@@ -21444,7 +21466,7 @@
         <v>1103</v>
       </c>
       <c r="K416" t="n">
-        <v>-20</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L416" t="n">
         <v>612.8</v>
@@ -21495,7 +21517,7 @@
         <v>1106</v>
       </c>
       <c r="K417" t="n">
-        <v>-30.43478260869566</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L417" t="n">
         <v>612.3</v>
@@ -21546,7 +21568,7 @@
         <v>1109</v>
       </c>
       <c r="K418" t="n">
-        <v>-38.46153846153847</v>
+        <v>-44.44444444444444</v>
       </c>
       <c r="L418" t="n">
         <v>611.5</v>
@@ -21597,7 +21619,7 @@
         <v>1111</v>
       </c>
       <c r="K419" t="n">
-        <v>-42.85714285714285</v>
+        <v>-100</v>
       </c>
       <c r="L419" t="n">
         <v>610.5</v>
@@ -21648,7 +21670,7 @@
         <v>1111</v>
       </c>
       <c r="K420" t="n">
-        <v>-48.14814814814815</v>
+        <v>-100</v>
       </c>
       <c r="L420" t="n">
         <v>609</v>
@@ -21699,7 +21721,7 @@
         <v>1111</v>
       </c>
       <c r="K421" t="n">
-        <v>-46.15384615384615</v>
+        <v>-100</v>
       </c>
       <c r="L421" t="n">
         <v>607.5</v>
@@ -21750,7 +21772,7 @@
         <v>1111</v>
       </c>
       <c r="K422" t="n">
-        <v>-52</v>
+        <v>-100</v>
       </c>
       <c r="L422" t="n">
         <v>606.5</v>
@@ -21801,7 +21823,7 @@
         <v>1121</v>
       </c>
       <c r="K423" t="n">
-        <v>-5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L423" t="n">
         <v>606.5</v>
@@ -21852,7 +21874,7 @@
         <v>1122</v>
       </c>
       <c r="K424" t="n">
-        <v>-8.571428571428571</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L424" t="n">
         <v>606.4</v>
@@ -21903,7 +21925,7 @@
         <v>1124</v>
       </c>
       <c r="K425" t="n">
-        <v>2.857142857142857</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L425" t="n">
         <v>606.5</v>
@@ -21954,7 +21976,7 @@
         <v>1125</v>
       </c>
       <c r="K426" t="n">
-        <v>-2.857142857142857</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L426" t="n">
         <v>606.7</v>
@@ -22005,7 +22027,7 @@
         <v>1125</v>
       </c>
       <c r="K427" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L427" t="n">
         <v>607.2</v>
@@ -22056,7 +22078,7 @@
         <v>1125</v>
       </c>
       <c r="K428" t="n">
-        <v>0</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L428" t="n">
         <v>608</v>
@@ -22107,7 +22129,7 @@
         <v>1125</v>
       </c>
       <c r="K429" t="n">
-        <v>0</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L429" t="n">
         <v>609</v>
@@ -22158,7 +22180,7 @@
         <v>1125</v>
       </c>
       <c r="K430" t="n">
-        <v>-17.24137931034483</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L430" t="n">
         <v>610</v>
@@ -22209,7 +22231,7 @@
         <v>1126</v>
       </c>
       <c r="K431" t="n">
-        <v>-20</v>
+        <v>60</v>
       </c>
       <c r="L431" t="n">
         <v>610.9</v>
@@ -22260,7 +22282,7 @@
         <v>1126</v>
       </c>
       <c r="K432" t="n">
-        <v>-4</v>
+        <v>-20</v>
       </c>
       <c r="L432" t="n">
         <v>611.8</v>
@@ -22311,7 +22333,7 @@
         <v>1127</v>
       </c>
       <c r="K433" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L433" t="n">
         <v>611.8</v>
@@ -22362,7 +22384,7 @@
         <v>1127</v>
       </c>
       <c r="K434" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L434" t="n">
         <v>611.9</v>
@@ -22413,7 +22435,7 @@
         <v>1128</v>
       </c>
       <c r="K435" t="n">
-        <v>3.703703703703703</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L435" t="n">
         <v>611.9</v>
@@ -22464,7 +22486,7 @@
         <v>1128</v>
       </c>
       <c r="K436" t="n">
-        <v>12</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L436" t="n">
         <v>612</v>
@@ -22515,7 +22537,7 @@
         <v>1128</v>
       </c>
       <c r="K437" t="n">
-        <v>27.27272727272727</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L437" t="n">
         <v>612.1</v>
@@ -22566,7 +22588,7 @@
         <v>1130</v>
       </c>
       <c r="K438" t="n">
-        <v>52.38095238095239</v>
+        <v>60</v>
       </c>
       <c r="L438" t="n">
         <v>612.4</v>
@@ -22617,7 +22639,7 @@
         <v>1131</v>
       </c>
       <c r="K439" t="n">
-        <v>60</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L439" t="n">
         <v>612.6</v>
@@ -22668,7 +22690,7 @@
         <v>1132</v>
       </c>
       <c r="K440" t="n">
-        <v>61.90476190476191</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L440" t="n">
         <v>612.9</v>
@@ -22719,7 +22741,7 @@
         <v>1132</v>
       </c>
       <c r="K441" t="n">
-        <v>61.90476190476191</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L441" t="n">
         <v>613.3</v>
@@ -22770,7 +22792,7 @@
         <v>1133</v>
       </c>
       <c r="K442" t="n">
-        <v>63.63636363636363</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L442" t="n">
         <v>613.8</v>
@@ -22821,7 +22843,7 @@
         <v>1134</v>
       </c>
       <c r="K443" t="n">
-        <v>38.46153846153847</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L443" t="n">
         <v>614.3</v>
@@ -22872,7 +22894,7 @@
         <v>1135</v>
       </c>
       <c r="K444" t="n">
-        <v>53.84615384615385</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L444" t="n">
         <v>614.9</v>
@@ -22923,7 +22945,7 @@
         <v>1145</v>
       </c>
       <c r="K445" t="n">
-        <v>71.42857142857143</v>
+        <v>88.23529411764706</v>
       </c>
       <c r="L445" t="n">
         <v>616.4</v>
@@ -23025,7 +23047,7 @@
         <v>1158</v>
       </c>
       <c r="K447" t="n">
-        <v>45.45454545454545</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L447" t="n">
         <v>618.6</v>
@@ -23076,7 +23098,7 @@
         <v>1159</v>
       </c>
       <c r="K448" t="n">
-        <v>41.17647058823529</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L448" t="n">
         <v>619.7</v>
@@ -23178,7 +23200,7 @@
         <v>1162</v>
       </c>
       <c r="K450" t="n">
-        <v>45.94594594594595</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L450" t="n">
         <v>622.4</v>
@@ -23229,7 +23251,7 @@
         <v>1162</v>
       </c>
       <c r="K451" t="n">
-        <v>50</v>
+        <v>44.82758620689656</v>
       </c>
       <c r="L451" t="n">
         <v>623.8</v>
@@ -23280,7 +23302,7 @@
         <v>1170</v>
       </c>
       <c r="K452" t="n">
-        <v>22.72727272727273</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L452" t="n">
         <v>624.3</v>
@@ -23331,7 +23353,7 @@
         <v>1171</v>
       </c>
       <c r="K453" t="n">
-        <v>18.18181818181818</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="L453" t="n">
         <v>624.6</v>
@@ -23382,7 +23404,7 @@
         <v>1179</v>
       </c>
       <c r="K454" t="n">
-        <v>30.76923076923077</v>
+        <v>0</v>
       </c>
       <c r="L454" t="n">
         <v>625.6</v>
@@ -23433,7 +23455,7 @@
         <v>1181</v>
       </c>
       <c r="K455" t="n">
-        <v>24.52830188679245</v>
+        <v>17.24137931034483</v>
       </c>
       <c r="L455" t="n">
         <v>625.4</v>
@@ -23484,7 +23506,7 @@
         <v>1182</v>
       </c>
       <c r="K456" t="n">
-        <v>22.22222222222222</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L456" t="n">
         <v>625.8</v>
@@ -23535,7 +23557,7 @@
         <v>1183</v>
       </c>
       <c r="K457" t="n">
-        <v>23.63636363636364</v>
+        <v>0</v>
       </c>
       <c r="L457" t="n">
         <v>625.7</v>
@@ -23586,7 +23608,7 @@
         <v>1183</v>
       </c>
       <c r="K458" t="n">
-        <v>20.75471698113208</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L458" t="n">
         <v>625.7</v>
@@ -23637,7 +23659,7 @@
         <v>1184</v>
       </c>
       <c r="K459" t="n">
-        <v>24.52830188679245</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L459" t="n">
         <v>625.7</v>
@@ -23688,7 +23710,7 @@
         <v>1184</v>
       </c>
       <c r="K460" t="n">
-        <v>23.07692307692308</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L460" t="n">
         <v>625.5</v>
@@ -23739,7 +23761,7 @@
         <v>1186</v>
       </c>
       <c r="K461" t="n">
-        <v>25.92592592592592</v>
+        <v>50</v>
       </c>
       <c r="L461" t="n">
         <v>625.5</v>
@@ -23790,7 +23812,7 @@
         <v>1190</v>
       </c>
       <c r="K462" t="n">
-        <v>29.82456140350877</v>
+        <v>68.42105263157895</v>
       </c>
       <c r="L462" t="n">
         <v>626.7</v>
@@ -23841,7 +23863,7 @@
         <v>1191</v>
       </c>
       <c r="K463" t="n">
-        <v>26.31578947368421</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L463" t="n">
         <v>627.9</v>
@@ -23892,7 +23914,7 @@
         <v>1192</v>
       </c>
       <c r="K464" t="n">
-        <v>22.80701754385965</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L464" t="n">
         <v>628.2</v>
@@ -23943,7 +23965,7 @@
         <v>1192</v>
       </c>
       <c r="K465" t="n">
-        <v>6.382978723404255</v>
+        <v>60</v>
       </c>
       <c r="L465" t="n">
         <v>628.7</v>
@@ -23994,7 +24016,7 @@
         <v>1193</v>
       </c>
       <c r="K466" t="n">
-        <v>21.95121951219512</v>
+        <v>40</v>
       </c>
       <c r="L466" t="n">
         <v>629.2</v>
@@ -24045,7 +24067,7 @@
         <v>1202</v>
       </c>
       <c r="K467" t="n">
-        <v>-13.63636363636363</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L467" t="n">
         <v>628.7</v>
@@ -24096,7 +24118,7 @@
         <v>1205</v>
       </c>
       <c r="K468" t="n">
-        <v>-4.347826086956522</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L468" t="n">
         <v>628.5</v>
@@ -24147,7 +24169,7 @@
         <v>1207</v>
       </c>
       <c r="K469" t="n">
-        <v>-2.127659574468085</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L469" t="n">
         <v>628.4</v>
@@ -24198,7 +24220,7 @@
         <v>1212</v>
       </c>
       <c r="K470" t="n">
-        <v>-16</v>
+        <v>-30.76923076923077</v>
       </c>
       <c r="L470" t="n">
         <v>627.8</v>
@@ -24249,7 +24271,7 @@
         <v>1213</v>
       </c>
       <c r="K471" t="n">
-        <v>-17.64705882352941</v>
+        <v>-56.52173913043478</v>
       </c>
       <c r="L471" t="n">
         <v>626.9</v>
@@ -24300,7 +24322,7 @@
         <v>1215</v>
       </c>
       <c r="K472" t="n">
-        <v>-6.666666666666667</v>
+        <v>-58.33333333333334</v>
       </c>
       <c r="L472" t="n">
         <v>625.4</v>
@@ -24351,7 +24373,7 @@
         <v>1218</v>
       </c>
       <c r="K473" t="n">
-        <v>-10.63829787234043</v>
+        <v>-61.53846153846154</v>
       </c>
       <c r="L473" t="n">
         <v>623.7</v>
@@ -24402,7 +24424,7 @@
         <v>1220</v>
       </c>
       <c r="K474" t="n">
-        <v>-36.58536585365854</v>
+        <v>-64.28571428571429</v>
       </c>
       <c r="L474" t="n">
         <v>621.9</v>
@@ -24453,7 +24475,7 @@
         <v>1221</v>
       </c>
       <c r="K475" t="n">
-        <v>-35</v>
+        <v>-64.28571428571429</v>
       </c>
       <c r="L475" t="n">
         <v>620</v>
@@ -24504,7 +24526,7 @@
         <v>1221</v>
       </c>
       <c r="K476" t="n">
-        <v>-33.33333333333333</v>
+        <v>-47.36842105263158</v>
       </c>
       <c r="L476" t="n">
         <v>618.2</v>
@@ -24555,7 +24577,7 @@
         <v>1224</v>
       </c>
       <c r="K477" t="n">
-        <v>-26.82926829268293</v>
+        <v>-47.36842105263158</v>
       </c>
       <c r="L477" t="n">
         <v>617.6</v>
@@ -24606,7 +24628,7 @@
         <v>1224</v>
       </c>
       <c r="K478" t="n">
-        <v>-26.82926829268293</v>
+        <v>-64.70588235294117</v>
       </c>
       <c r="L478" t="n">
         <v>616.7</v>
@@ -24657,7 +24679,7 @@
         <v>1224</v>
       </c>
       <c r="K479" t="n">
-        <v>-30</v>
+        <v>-50</v>
       </c>
       <c r="L479" t="n">
         <v>615.6</v>
@@ -24708,7 +24730,7 @@
         <v>1224</v>
       </c>
       <c r="K480" t="n">
-        <v>-30</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L480" t="n">
         <v>615</v>
@@ -24759,7 +24781,7 @@
         <v>1224</v>
       </c>
       <c r="K481" t="n">
-        <v>-36.84210526315789</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L481" t="n">
         <v>614.5</v>
@@ -24810,7 +24832,7 @@
         <v>1224</v>
       </c>
       <c r="K482" t="n">
-        <v>-52.94117647058824</v>
+        <v>0</v>
       </c>
       <c r="L482" t="n">
         <v>614.2</v>
@@ -24861,7 +24883,7 @@
         <v>1228</v>
       </c>
       <c r="K483" t="n">
-        <v>-56.75675675675676</v>
+        <v>-25</v>
       </c>
       <c r="L483" t="n">
         <v>613.8</v>
@@ -24912,7 +24934,7 @@
         <v>1232</v>
       </c>
       <c r="K484" t="n">
-        <v>-60</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L484" t="n">
         <v>613.2</v>
@@ -24963,7 +24985,7 @@
         <v>1232</v>
       </c>
       <c r="K485" t="n">
-        <v>-60</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L485" t="n">
         <v>612.7</v>
@@ -25014,7 +25036,7 @@
         <v>1232</v>
       </c>
       <c r="K486" t="n">
-        <v>-58.97435897435898</v>
+        <v>-100</v>
       </c>
       <c r="L486" t="n">
         <v>612.2</v>
@@ -25065,7 +25087,7 @@
         <v>1233</v>
       </c>
       <c r="K487" t="n">
-        <v>-41.93548387096774</v>
+        <v>-77.77777777777779</v>
       </c>
       <c r="L487" t="n">
         <v>611.5</v>
@@ -25116,7 +25138,7 @@
         <v>1237</v>
       </c>
       <c r="K488" t="n">
-        <v>-37.5</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L488" t="n">
         <v>611.2</v>
@@ -25167,7 +25189,7 @@
         <v>1241</v>
       </c>
       <c r="K489" t="n">
-        <v>-52.94117647058824</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L489" t="n">
         <v>610.5</v>
@@ -25218,7 +25240,7 @@
         <v>1242</v>
       </c>
       <c r="K490" t="n">
-        <v>-40</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L490" t="n">
         <v>609.9</v>
@@ -25269,7 +25291,7 @@
         <v>1242</v>
       </c>
       <c r="K491" t="n">
-        <v>-37.93103448275862</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L491" t="n">
         <v>609.3</v>
@@ -25320,7 +25342,7 @@
         <v>1248</v>
       </c>
       <c r="K492" t="n">
-        <v>-9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L492" t="n">
         <v>609.3</v>
@@ -25371,7 +25393,7 @@
         <v>1254</v>
       </c>
       <c r="K493" t="n">
-        <v>-16.66666666666666</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L493" t="n">
         <v>609.1</v>
@@ -25422,7 +25444,7 @@
         <v>1255</v>
       </c>
       <c r="K494" t="n">
-        <v>-8.571428571428571</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L494" t="n">
         <v>609.4</v>
@@ -25473,7 +25495,7 @@
         <v>1260</v>
       </c>
       <c r="K495" t="n">
-        <v>7.692307692307693</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L495" t="n">
         <v>610.2</v>
@@ -25524,7 +25546,7 @@
         <v>1268</v>
       </c>
       <c r="K496" t="n">
-        <v>-10.63829787234043</v>
+        <v>-2.857142857142857</v>
       </c>
       <c r="L496" t="n">
         <v>610.2</v>
@@ -25575,7 +25597,7 @@
         <v>1268</v>
       </c>
       <c r="K497" t="n">
-        <v>-18.18181818181818</v>
+        <v>-16.12903225806452</v>
       </c>
       <c r="L497" t="n">
         <v>610.1</v>
@@ -25626,7 +25648,7 @@
         <v>1272</v>
       </c>
       <c r="K498" t="n">
-        <v>-8.333333333333332</v>
+        <v>9.67741935483871</v>
       </c>
       <c r="L498" t="n">
         <v>610</v>
@@ -25677,7 +25699,7 @@
         <v>1272</v>
       </c>
       <c r="K499" t="n">
-        <v>-8.333333333333332</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L499" t="n">
         <v>610.3</v>
@@ -25728,7 +25750,7 @@
         <v>1272</v>
       </c>
       <c r="K500" t="n">
-        <v>-8.333333333333332</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L500" t="n">
         <v>610.5</v>
@@ -25779,7 +25801,7 @@
         <v>1274</v>
       </c>
       <c r="K501" t="n">
-        <v>-4</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L501" t="n">
         <v>610.9</v>
@@ -25830,7 +25852,7 @@
         <v>1277</v>
       </c>
       <c r="K502" t="n">
-        <v>-9.433962264150944</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L502" t="n">
         <v>610.4</v>
@@ -25881,7 +25903,7 @@
         <v>1281</v>
       </c>
       <c r="K503" t="n">
-        <v>5.660377358490567</v>
+        <v>15.38461538461539</v>
       </c>
       <c r="L503" t="n">
         <v>610.9</v>
@@ -25932,7 +25954,7 @@
         <v>1282</v>
       </c>
       <c r="K504" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L504" t="n">
         <v>611.4</v>
@@ -25983,7 +26005,7 @@
         <v>1283</v>
       </c>
       <c r="K505" t="n">
-        <v>13.72549019607843</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L505" t="n">
         <v>611.3</v>
@@ -26034,7 +26056,7 @@
         <v>1283</v>
       </c>
       <c r="K506" t="n">
-        <v>13.72549019607843</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L506" t="n">
         <v>612</v>
@@ -26085,7 +26107,7 @@
         <v>1283</v>
       </c>
       <c r="K507" t="n">
-        <v>12</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L507" t="n">
         <v>612.7</v>
@@ -26136,7 +26158,7 @@
         <v>1284</v>
       </c>
       <c r="K508" t="n">
-        <v>6.382978723404255</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L508" t="n">
         <v>613.1</v>
@@ -26187,7 +26209,7 @@
         <v>1284</v>
       </c>
       <c r="K509" t="n">
-        <v>16.27906976744186</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L509" t="n">
         <v>613.5</v>
@@ -26238,7 +26260,7 @@
         <v>1285</v>
       </c>
       <c r="K510" t="n">
-        <v>11.62790697674419</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L510" t="n">
         <v>613.8</v>
@@ -26289,7 +26311,7 @@
         <v>1285</v>
       </c>
       <c r="K511" t="n">
-        <v>11.62790697674419</v>
+        <v>50</v>
       </c>
       <c r="L511" t="n">
         <v>613.9</v>
@@ -26340,7 +26362,7 @@
         <v>1286</v>
       </c>
       <c r="K512" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L512" t="n">
         <v>614.4</v>
@@ -26391,7 +26413,7 @@
         <v>1289</v>
       </c>
       <c r="K513" t="n">
-        <v>8.571428571428571</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L513" t="n">
         <v>614.2</v>
@@ -26442,7 +26464,7 @@
         <v>1290</v>
       </c>
       <c r="K514" t="n">
-        <v>8.571428571428571</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L514" t="n">
         <v>614</v>
@@ -26493,7 +26515,7 @@
         <v>1290</v>
       </c>
       <c r="K515" t="n">
-        <v>-6.666666666666667</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L515" t="n">
         <v>613.9</v>
@@ -26544,7 +26566,7 @@
         <v>1290</v>
       </c>
       <c r="K516" t="n">
-        <v>27.27272727272727</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L516" t="n">
         <v>613.8</v>
@@ -26595,7 +26617,7 @@
         <v>1293</v>
       </c>
       <c r="K517" t="n">
-        <v>12</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L517" t="n">
         <v>613.4</v>
@@ -26646,7 +26668,7 @@
         <v>1295</v>
       </c>
       <c r="K518" t="n">
-        <v>-13.04347826086956</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L518" t="n">
         <v>612.7</v>
@@ -26697,7 +26719,7 @@
         <v>1295</v>
       </c>
       <c r="K519" t="n">
-        <v>-13.04347826086956</v>
+        <v>-60</v>
       </c>
       <c r="L519" t="n">
         <v>612</v>
@@ -26748,7 +26770,7 @@
         <v>1295</v>
       </c>
       <c r="K520" t="n">
-        <v>-13.04347826086956</v>
+        <v>-60</v>
       </c>
       <c r="L520" t="n">
         <v>611.4</v>
@@ -26799,7 +26821,7 @@
         <v>1295</v>
       </c>
       <c r="K521" t="n">
-        <v>-23.80952380952381</v>
+        <v>-77.77777777777779</v>
       </c>
       <c r="L521" t="n">
         <v>610.8</v>
@@ -26901,7 +26923,7 @@
         <v>1301</v>
       </c>
       <c r="K523" t="n">
-        <v>0</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L523" t="n">
         <v>610.9</v>
@@ -26952,7 +26974,7 @@
         <v>1302</v>
       </c>
       <c r="K524" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="L524" t="n">
         <v>610.9</v>
@@ -27054,7 +27076,7 @@
         <v>1304</v>
       </c>
       <c r="K526" t="n">
-        <v>-14.28571428571428</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L526" t="n">
         <v>610.5</v>
@@ -27105,7 +27127,7 @@
         <v>1304</v>
       </c>
       <c r="K527" t="n">
-        <v>-14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L527" t="n">
         <v>610.6</v>
@@ -27156,7 +27178,7 @@
         <v>1304</v>
       </c>
       <c r="K528" t="n">
-        <v>-20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L528" t="n">
         <v>610.9</v>
@@ -27207,7 +27229,7 @@
         <v>1304</v>
       </c>
       <c r="K529" t="n">
-        <v>-20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L529" t="n">
         <v>611.2</v>
@@ -27258,7 +27280,7 @@
         <v>1304</v>
       </c>
       <c r="K530" t="n">
-        <v>-15.78947368421053</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L530" t="n">
         <v>611.5</v>
@@ -27309,7 +27331,7 @@
         <v>1305</v>
       </c>
       <c r="K531" t="n">
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="L531" t="n">
         <v>611.7</v>
@@ -27360,7 +27382,7 @@
         <v>1307</v>
       </c>
       <c r="K532" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L532" t="n">
         <v>611.1</v>
@@ -27411,7 +27433,7 @@
         <v>1307</v>
       </c>
       <c r="K533" t="n">
-        <v>-22.22222222222222</v>
+        <v>-100</v>
       </c>
       <c r="L533" t="n">
         <v>610.5</v>
@@ -27462,7 +27484,7 @@
         <v>1309</v>
       </c>
       <c r="K534" t="n">
-        <v>-15.78947368421053</v>
+        <v>-20</v>
       </c>
       <c r="L534" t="n">
         <v>610.2</v>
@@ -27513,7 +27535,7 @@
         <v>1316</v>
       </c>
       <c r="K535" t="n">
-        <v>-38.46153846153847</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L535" t="n">
         <v>609.4</v>
@@ -27564,7 +27586,7 @@
         <v>1321</v>
       </c>
       <c r="K536" t="n">
-        <v>-16.12903225806452</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L536" t="n">
         <v>609.1</v>
@@ -27615,7 +27637,7 @@
         <v>1321</v>
       </c>
       <c r="K537" t="n">
-        <v>-7.142857142857142</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L537" t="n">
         <v>608.8</v>
@@ -27666,7 +27688,7 @@
         <v>1327</v>
       </c>
       <c r="K538" t="n">
-        <v>-18.75</v>
+        <v>-39.1304347826087</v>
       </c>
       <c r="L538" t="n">
         <v>607.9</v>
@@ -27717,7 +27739,7 @@
         <v>1337</v>
       </c>
       <c r="K539" t="n">
-        <v>9.523809523809524</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="L539" t="n">
         <v>608</v>

--- a/BackTest/2019-10-15 BackTest PPT.xlsx
+++ b/BackTest/2019-10-15 BackTest PPT.xlsx
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -489,7 +489,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -524,7 +524,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -559,7 +559,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="I301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
@@ -10954,7 +10954,7 @@
         <v>0</v>
       </c>
       <c r="I302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
@@ -10989,7 +10989,7 @@
         <v>0</v>
       </c>
       <c r="I303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
@@ -11024,7 +11024,7 @@
         <v>0</v>
       </c>
       <c r="I304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="I305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
@@ -11094,7 +11094,7 @@
         <v>0</v>
       </c>
       <c r="I306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
@@ -11129,7 +11129,7 @@
         <v>0</v>
       </c>
       <c r="I307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
@@ -11164,7 +11164,7 @@
         <v>0</v>
       </c>
       <c r="I308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
@@ -11199,7 +11199,7 @@
         <v>0</v>
       </c>
       <c r="I309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
@@ -11234,7 +11234,7 @@
         <v>0</v>
       </c>
       <c r="I310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
@@ -11269,7 +11269,7 @@
         <v>0</v>
       </c>
       <c r="I311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
@@ -11304,7 +11304,7 @@
         <v>0</v>
       </c>
       <c r="I312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
@@ -11339,7 +11339,7 @@
         <v>0</v>
       </c>
       <c r="I313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>0</v>
       </c>
       <c r="I314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
@@ -11409,7 +11409,7 @@
         <v>0</v>
       </c>
       <c r="I315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
@@ -11444,7 +11444,7 @@
         <v>0</v>
       </c>
       <c r="I316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
@@ -11479,7 +11479,7 @@
         <v>0</v>
       </c>
       <c r="I317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
@@ -11514,7 +11514,7 @@
         <v>0</v>
       </c>
       <c r="I318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
@@ -11549,7 +11549,7 @@
         <v>0</v>
       </c>
       <c r="I319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
@@ -11584,7 +11584,7 @@
         <v>0</v>
       </c>
       <c r="I320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
@@ -12701,13 +12701,17 @@
         <v>623.7166666666667</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
       </c>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>611</v>
+      </c>
+      <c r="K352" t="n">
+        <v>611</v>
+      </c>
       <c r="L352" t="inlineStr"/>
       <c r="M352" t="n">
         <v>1</v>
@@ -12742,8 +12746,14 @@
         <v>0</v>
       </c>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
-      <c r="L353" t="inlineStr"/>
+      <c r="K353" t="n">
+        <v>611</v>
+      </c>
+      <c r="L353" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M353" t="n">
         <v>1</v>
       </c>
@@ -12777,8 +12787,14 @@
         <v>0</v>
       </c>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
-      <c r="L354" t="inlineStr"/>
+      <c r="K354" t="n">
+        <v>611</v>
+      </c>
+      <c r="L354" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M354" t="n">
         <v>1</v>
       </c>
@@ -12812,8 +12828,14 @@
         <v>0</v>
       </c>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
-      <c r="L355" t="inlineStr"/>
+      <c r="K355" t="n">
+        <v>611</v>
+      </c>
+      <c r="L355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M355" t="n">
         <v>1</v>
       </c>
@@ -12847,8 +12869,14 @@
         <v>0</v>
       </c>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
-      <c r="L356" t="inlineStr"/>
+      <c r="K356" t="n">
+        <v>611</v>
+      </c>
+      <c r="L356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M356" t="n">
         <v>1</v>
       </c>
@@ -12882,8 +12910,14 @@
         <v>0</v>
       </c>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
-      <c r="L357" t="inlineStr"/>
+      <c r="K357" t="n">
+        <v>611</v>
+      </c>
+      <c r="L357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M357" t="n">
         <v>1</v>
       </c>
@@ -12917,8 +12951,14 @@
         <v>0</v>
       </c>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
-      <c r="L358" t="inlineStr"/>
+      <c r="K358" t="n">
+        <v>611</v>
+      </c>
+      <c r="L358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M358" t="n">
         <v>1</v>
       </c>
@@ -12952,8 +12992,14 @@
         <v>0</v>
       </c>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
-      <c r="L359" t="inlineStr"/>
+      <c r="K359" t="n">
+        <v>611</v>
+      </c>
+      <c r="L359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M359" t="n">
         <v>1</v>
       </c>
@@ -12987,8 +13033,14 @@
         <v>0</v>
       </c>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
-      <c r="L360" t="inlineStr"/>
+      <c r="K360" t="n">
+        <v>611</v>
+      </c>
+      <c r="L360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M360" t="n">
         <v>1</v>
       </c>
@@ -13022,8 +13074,14 @@
         <v>0</v>
       </c>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
-      <c r="L361" t="inlineStr"/>
+      <c r="K361" t="n">
+        <v>611</v>
+      </c>
+      <c r="L361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M361" t="n">
         <v>1</v>
       </c>
@@ -13057,8 +13115,14 @@
         <v>0</v>
       </c>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
-      <c r="L362" t="inlineStr"/>
+      <c r="K362" t="n">
+        <v>611</v>
+      </c>
+      <c r="L362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M362" t="n">
         <v>1</v>
       </c>
@@ -13092,8 +13156,14 @@
         <v>0</v>
       </c>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
-      <c r="L363" t="inlineStr"/>
+      <c r="K363" t="n">
+        <v>611</v>
+      </c>
+      <c r="L363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M363" t="n">
         <v>1</v>
       </c>
@@ -13127,8 +13197,14 @@
         <v>0</v>
       </c>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
-      <c r="L364" t="inlineStr"/>
+      <c r="K364" t="n">
+        <v>611</v>
+      </c>
+      <c r="L364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M364" t="n">
         <v>1</v>
       </c>
@@ -13162,8 +13238,14 @@
         <v>0</v>
       </c>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
-      <c r="L365" t="inlineStr"/>
+      <c r="K365" t="n">
+        <v>611</v>
+      </c>
+      <c r="L365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M365" t="n">
         <v>1</v>
       </c>
@@ -13197,8 +13279,14 @@
         <v>0</v>
       </c>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
-      <c r="L366" t="inlineStr"/>
+      <c r="K366" t="n">
+        <v>611</v>
+      </c>
+      <c r="L366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M366" t="n">
         <v>1</v>
       </c>
@@ -13232,8 +13320,14 @@
         <v>0</v>
       </c>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
-      <c r="L367" t="inlineStr"/>
+      <c r="K367" t="n">
+        <v>611</v>
+      </c>
+      <c r="L367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M367" t="n">
         <v>1</v>
       </c>
@@ -13267,8 +13361,14 @@
         <v>0</v>
       </c>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
-      <c r="L368" t="inlineStr"/>
+      <c r="K368" t="n">
+        <v>611</v>
+      </c>
+      <c r="L368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M368" t="n">
         <v>1</v>
       </c>
@@ -13302,8 +13402,14 @@
         <v>0</v>
       </c>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
-      <c r="L369" t="inlineStr"/>
+      <c r="K369" t="n">
+        <v>611</v>
+      </c>
+      <c r="L369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M369" t="n">
         <v>1</v>
       </c>
@@ -13337,8 +13443,14 @@
         <v>0</v>
       </c>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
-      <c r="L370" t="inlineStr"/>
+      <c r="K370" t="n">
+        <v>611</v>
+      </c>
+      <c r="L370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M370" t="n">
         <v>1</v>
       </c>
@@ -13372,8 +13484,14 @@
         <v>0</v>
       </c>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
-      <c r="L371" t="inlineStr"/>
+      <c r="K371" t="n">
+        <v>611</v>
+      </c>
+      <c r="L371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M371" t="n">
         <v>1</v>
       </c>
@@ -13407,8 +13525,14 @@
         <v>0</v>
       </c>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
-      <c r="L372" t="inlineStr"/>
+      <c r="K372" t="n">
+        <v>611</v>
+      </c>
+      <c r="L372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M372" t="n">
         <v>1</v>
       </c>
@@ -13442,8 +13566,14 @@
         <v>0</v>
       </c>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
-      <c r="L373" t="inlineStr"/>
+      <c r="K373" t="n">
+        <v>611</v>
+      </c>
+      <c r="L373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M373" t="n">
         <v>1</v>
       </c>
@@ -13477,8 +13607,14 @@
         <v>0</v>
       </c>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
-      <c r="L374" t="inlineStr"/>
+      <c r="K374" t="n">
+        <v>611</v>
+      </c>
+      <c r="L374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M374" t="n">
         <v>1</v>
       </c>
@@ -13512,8 +13648,14 @@
         <v>0</v>
       </c>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
-      <c r="L375" t="inlineStr"/>
+      <c r="K375" t="n">
+        <v>611</v>
+      </c>
+      <c r="L375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M375" t="n">
         <v>1</v>
       </c>
@@ -13547,8 +13689,14 @@
         <v>0</v>
       </c>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
-      <c r="L376" t="inlineStr"/>
+      <c r="K376" t="n">
+        <v>611</v>
+      </c>
+      <c r="L376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M376" t="n">
         <v>1</v>
       </c>
@@ -13582,8 +13730,14 @@
         <v>0</v>
       </c>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
-      <c r="L377" t="inlineStr"/>
+      <c r="K377" t="n">
+        <v>611</v>
+      </c>
+      <c r="L377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M377" t="n">
         <v>1</v>
       </c>
@@ -13617,8 +13771,14 @@
         <v>0</v>
       </c>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
-      <c r="L378" t="inlineStr"/>
+      <c r="K378" t="n">
+        <v>611</v>
+      </c>
+      <c r="L378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M378" t="n">
         <v>1</v>
       </c>
@@ -13652,8 +13812,14 @@
         <v>0</v>
       </c>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
-      <c r="L379" t="inlineStr"/>
+      <c r="K379" t="n">
+        <v>611</v>
+      </c>
+      <c r="L379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M379" t="n">
         <v>1</v>
       </c>
@@ -13687,8 +13853,14 @@
         <v>0</v>
       </c>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
-      <c r="L380" t="inlineStr"/>
+      <c r="K380" t="n">
+        <v>611</v>
+      </c>
+      <c r="L380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M380" t="n">
         <v>1</v>
       </c>
@@ -13722,8 +13894,14 @@
         <v>0</v>
       </c>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
-      <c r="L381" t="inlineStr"/>
+      <c r="K381" t="n">
+        <v>611</v>
+      </c>
+      <c r="L381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M381" t="n">
         <v>1</v>
       </c>
@@ -13757,8 +13935,14 @@
         <v>0</v>
       </c>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
-      <c r="L382" t="inlineStr"/>
+      <c r="K382" t="n">
+        <v>611</v>
+      </c>
+      <c r="L382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M382" t="n">
         <v>1</v>
       </c>
@@ -13792,8 +13976,14 @@
         <v>0</v>
       </c>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
-      <c r="L383" t="inlineStr"/>
+      <c r="K383" t="n">
+        <v>611</v>
+      </c>
+      <c r="L383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M383" t="n">
         <v>1</v>
       </c>
@@ -13827,8 +14017,14 @@
         <v>0</v>
       </c>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
-      <c r="L384" t="inlineStr"/>
+      <c r="K384" t="n">
+        <v>611</v>
+      </c>
+      <c r="L384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M384" t="n">
         <v>1</v>
       </c>
@@ -13862,8 +14058,14 @@
         <v>0</v>
       </c>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
-      <c r="L385" t="inlineStr"/>
+      <c r="K385" t="n">
+        <v>611</v>
+      </c>
+      <c r="L385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M385" t="n">
         <v>1</v>
       </c>
@@ -13897,8 +14099,14 @@
         <v>0</v>
       </c>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
-      <c r="L386" t="inlineStr"/>
+      <c r="K386" t="n">
+        <v>611</v>
+      </c>
+      <c r="L386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M386" t="n">
         <v>1</v>
       </c>
@@ -13932,8 +14140,14 @@
         <v>0</v>
       </c>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
-      <c r="L387" t="inlineStr"/>
+      <c r="K387" t="n">
+        <v>611</v>
+      </c>
+      <c r="L387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M387" t="n">
         <v>1</v>
       </c>
@@ -13967,8 +14181,14 @@
         <v>0</v>
       </c>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
-      <c r="L388" t="inlineStr"/>
+      <c r="K388" t="n">
+        <v>611</v>
+      </c>
+      <c r="L388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M388" t="n">
         <v>1</v>
       </c>
@@ -14002,8 +14222,14 @@
         <v>0</v>
       </c>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
-      <c r="L389" t="inlineStr"/>
+      <c r="K389" t="n">
+        <v>611</v>
+      </c>
+      <c r="L389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M389" t="n">
         <v>1</v>
       </c>
@@ -14037,8 +14263,14 @@
         <v>0</v>
       </c>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
-      <c r="L390" t="inlineStr"/>
+      <c r="K390" t="n">
+        <v>611</v>
+      </c>
+      <c r="L390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M390" t="n">
         <v>1</v>
       </c>
@@ -14072,8 +14304,14 @@
         <v>0</v>
       </c>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
-      <c r="L391" t="inlineStr"/>
+      <c r="K391" t="n">
+        <v>611</v>
+      </c>
+      <c r="L391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M391" t="n">
         <v>1</v>
       </c>
@@ -14107,8 +14345,14 @@
         <v>0</v>
       </c>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
-      <c r="L392" t="inlineStr"/>
+      <c r="K392" t="n">
+        <v>611</v>
+      </c>
+      <c r="L392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M392" t="n">
         <v>1</v>
       </c>
@@ -14142,8 +14386,14 @@
         <v>0</v>
       </c>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
-      <c r="L393" t="inlineStr"/>
+      <c r="K393" t="n">
+        <v>611</v>
+      </c>
+      <c r="L393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M393" t="n">
         <v>1</v>
       </c>
@@ -14177,8 +14427,14 @@
         <v>0</v>
       </c>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
-      <c r="L394" t="inlineStr"/>
+      <c r="K394" t="n">
+        <v>611</v>
+      </c>
+      <c r="L394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M394" t="n">
         <v>1</v>
       </c>
@@ -14212,8 +14468,14 @@
         <v>0</v>
       </c>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
-      <c r="L395" t="inlineStr"/>
+      <c r="K395" t="n">
+        <v>611</v>
+      </c>
+      <c r="L395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M395" t="n">
         <v>1</v>
       </c>
@@ -14241,18 +14503,18 @@
         <v>615.8833333333333</v>
       </c>
       <c r="H396" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
       </c>
-      <c r="J396" t="n">
-        <v>613</v>
-      </c>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="n">
+        <v>611</v>
+      </c>
       <c r="L396" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M396" t="n">
@@ -14282,15 +14544,15 @@
         <v>615.7166666666667</v>
       </c>
       <c r="H397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
       </c>
-      <c r="J397" t="n">
-        <v>615</v>
-      </c>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="n">
+        <v>611</v>
+      </c>
       <c r="L397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14323,15 +14585,15 @@
         <v>615.7</v>
       </c>
       <c r="H398" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I398" t="n">
         <v>0</v>
       </c>
-      <c r="J398" t="n">
-        <v>614</v>
-      </c>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="n">
+        <v>611</v>
+      </c>
       <c r="L398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14364,15 +14626,15 @@
         <v>615.6166666666667</v>
       </c>
       <c r="H399" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I399" t="n">
         <v>0</v>
       </c>
-      <c r="J399" t="n">
-        <v>614</v>
-      </c>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="n">
+        <v>611</v>
+      </c>
       <c r="L399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14405,15 +14667,15 @@
         <v>615.55</v>
       </c>
       <c r="H400" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I400" t="n">
         <v>0</v>
       </c>
-      <c r="J400" t="n">
-        <v>615</v>
-      </c>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="n">
+        <v>611</v>
+      </c>
       <c r="L400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14446,15 +14708,15 @@
         <v>615.5166666666667</v>
       </c>
       <c r="H401" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I401" t="n">
         <v>0</v>
       </c>
-      <c r="J401" t="n">
-        <v>614</v>
-      </c>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="n">
+        <v>611</v>
+      </c>
       <c r="L401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14487,15 +14749,15 @@
         <v>615.5333333333333</v>
       </c>
       <c r="H402" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I402" t="n">
         <v>0</v>
       </c>
-      <c r="J402" t="n">
-        <v>615</v>
-      </c>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="n">
+        <v>611</v>
+      </c>
       <c r="L402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14528,15 +14790,15 @@
         <v>615.55</v>
       </c>
       <c r="H403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
       </c>
-      <c r="J403" t="n">
-        <v>614</v>
-      </c>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="n">
+        <v>611</v>
+      </c>
       <c r="L403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14569,15 +14831,15 @@
         <v>615.5833333333334</v>
       </c>
       <c r="H404" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
       </c>
-      <c r="J404" t="n">
-        <v>614</v>
-      </c>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="n">
+        <v>611</v>
+      </c>
       <c r="L404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14610,15 +14872,15 @@
         <v>615.5333333333333</v>
       </c>
       <c r="H405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
       </c>
-      <c r="J405" t="n">
-        <v>614</v>
-      </c>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="n">
+        <v>611</v>
+      </c>
       <c r="L405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14651,15 +14913,15 @@
         <v>615.55</v>
       </c>
       <c r="H406" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I406" t="n">
         <v>0</v>
       </c>
-      <c r="J406" t="n">
-        <v>613</v>
-      </c>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="n">
+        <v>611</v>
+      </c>
       <c r="L406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14692,15 +14954,15 @@
         <v>615.5166666666667</v>
       </c>
       <c r="H407" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I407" t="n">
         <v>0</v>
       </c>
-      <c r="J407" t="n">
-        <v>612</v>
-      </c>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="n">
+        <v>611</v>
+      </c>
       <c r="L407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14733,15 +14995,15 @@
         <v>615.4166666666666</v>
       </c>
       <c r="H408" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I408" t="n">
         <v>0</v>
       </c>
-      <c r="J408" t="n">
-        <v>612</v>
-      </c>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="n">
+        <v>611</v>
+      </c>
       <c r="L408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14774,15 +15036,15 @@
         <v>615.3166666666667</v>
       </c>
       <c r="H409" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I409" t="n">
         <v>0</v>
       </c>
-      <c r="J409" t="n">
-        <v>612</v>
-      </c>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="n">
+        <v>611</v>
+      </c>
       <c r="L409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14815,15 +15077,15 @@
         <v>615.3</v>
       </c>
       <c r="H410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I410" t="n">
         <v>0</v>
       </c>
-      <c r="J410" t="n">
-        <v>617</v>
-      </c>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="n">
+        <v>611</v>
+      </c>
       <c r="L410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14856,15 +15118,15 @@
         <v>615.4</v>
       </c>
       <c r="H411" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I411" t="n">
         <v>0</v>
       </c>
-      <c r="J411" t="n">
-        <v>617</v>
-      </c>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="n">
+        <v>611</v>
+      </c>
       <c r="L411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14897,15 +15159,15 @@
         <v>615.3166666666667</v>
       </c>
       <c r="H412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I412" t="n">
         <v>0</v>
       </c>
-      <c r="J412" t="n">
-        <v>612</v>
-      </c>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="n">
+        <v>611</v>
+      </c>
       <c r="L412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14938,15 +15200,15 @@
         <v>615.2166666666667</v>
       </c>
       <c r="H413" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I413" t="n">
         <v>0</v>
       </c>
-      <c r="J413" t="n">
-        <v>612</v>
-      </c>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="n">
+        <v>611</v>
+      </c>
       <c r="L413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14979,15 +15241,15 @@
         <v>615.1166666666667</v>
       </c>
       <c r="H414" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I414" t="n">
         <v>0</v>
       </c>
-      <c r="J414" t="n">
-        <v>612</v>
-      </c>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="inlineStr"/>
+      <c r="K414" t="n">
+        <v>611</v>
+      </c>
       <c r="L414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15020,15 +15282,15 @@
         <v>615.1166666666667</v>
       </c>
       <c r="H415" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I415" t="n">
         <v>0</v>
       </c>
-      <c r="J415" t="n">
-        <v>612</v>
-      </c>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="n">
+        <v>611</v>
+      </c>
       <c r="L415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15061,15 +15323,15 @@
         <v>615.0333333333333</v>
       </c>
       <c r="H416" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I416" t="n">
         <v>0</v>
       </c>
-      <c r="J416" t="n">
-        <v>610</v>
-      </c>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="n">
+        <v>611</v>
+      </c>
       <c r="L416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15102,15 +15364,15 @@
         <v>614.9</v>
       </c>
       <c r="H417" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
       </c>
-      <c r="J417" t="n">
-        <v>609</v>
-      </c>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="n">
+        <v>611</v>
+      </c>
       <c r="L417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15143,15 +15405,15 @@
         <v>614.6166666666667</v>
       </c>
       <c r="H418" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I418" t="n">
         <v>0</v>
       </c>
-      <c r="J418" t="n">
-        <v>606</v>
-      </c>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="n">
+        <v>611</v>
+      </c>
       <c r="L418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15184,15 +15446,15 @@
         <v>614.3</v>
       </c>
       <c r="H419" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I419" t="n">
         <v>0</v>
       </c>
-      <c r="J419" t="n">
-        <v>604</v>
-      </c>
-      <c r="K419" t="inlineStr"/>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="n">
+        <v>611</v>
+      </c>
       <c r="L419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15225,15 +15487,15 @@
         <v>614.1</v>
       </c>
       <c r="H420" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I420" t="n">
         <v>0</v>
       </c>
-      <c r="J420" t="n">
-        <v>602</v>
-      </c>
-      <c r="K420" t="inlineStr"/>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="n">
+        <v>611</v>
+      </c>
       <c r="L420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15266,15 +15528,15 @@
         <v>613.85</v>
       </c>
       <c r="H421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
       </c>
-      <c r="J421" t="n">
-        <v>602</v>
-      </c>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="n">
+        <v>611</v>
+      </c>
       <c r="L421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15307,15 +15569,15 @@
         <v>613.6</v>
       </c>
       <c r="H422" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I422" t="n">
         <v>0</v>
       </c>
-      <c r="J422" t="n">
-        <v>602</v>
-      </c>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="n">
+        <v>611</v>
+      </c>
       <c r="L422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15348,15 +15610,15 @@
         <v>613.5166666666667</v>
       </c>
       <c r="H423" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
       </c>
-      <c r="J423" t="n">
-        <v>602</v>
-      </c>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="n">
+        <v>611</v>
+      </c>
       <c r="L423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15389,15 +15651,15 @@
         <v>613.45</v>
       </c>
       <c r="H424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I424" t="n">
         <v>0</v>
       </c>
-      <c r="J424" t="n">
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="n">
         <v>611</v>
       </c>
-      <c r="K424" t="inlineStr"/>
       <c r="L424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15430,15 +15692,15 @@
         <v>613.4666666666667</v>
       </c>
       <c r="H425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I425" t="n">
         <v>0</v>
       </c>
-      <c r="J425" t="n">
-        <v>605</v>
-      </c>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="n">
+        <v>611</v>
+      </c>
       <c r="L425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15471,15 +15733,15 @@
         <v>613.3333333333334</v>
       </c>
       <c r="H426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I426" t="n">
         <v>0</v>
       </c>
-      <c r="J426" t="n">
-        <v>612</v>
-      </c>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="n">
+        <v>611</v>
+      </c>
       <c r="L426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15512,15 +15774,15 @@
         <v>613.3333333333334</v>
       </c>
       <c r="H427" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I427" t="n">
         <v>0</v>
       </c>
-      <c r="J427" t="n">
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="n">
         <v>611</v>
       </c>
-      <c r="K427" t="inlineStr"/>
       <c r="L427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15553,15 +15815,15 @@
         <v>613.2</v>
       </c>
       <c r="H428" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I428" t="n">
         <v>0</v>
       </c>
-      <c r="J428" t="n">
-        <v>612</v>
-      </c>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="n">
+        <v>611</v>
+      </c>
       <c r="L428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15594,15 +15856,15 @@
         <v>613.0666666666667</v>
       </c>
       <c r="H429" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I429" t="n">
         <v>0</v>
       </c>
-      <c r="J429" t="n">
-        <v>612</v>
-      </c>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="n">
+        <v>611</v>
+      </c>
       <c r="L429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15635,15 +15897,15 @@
         <v>612.9166666666666</v>
       </c>
       <c r="H430" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I430" t="n">
         <v>0</v>
       </c>
-      <c r="J430" t="n">
-        <v>612</v>
-      </c>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="inlineStr"/>
+      <c r="K430" t="n">
+        <v>611</v>
+      </c>
       <c r="L430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15676,15 +15938,15 @@
         <v>612.75</v>
       </c>
       <c r="H431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I431" t="n">
         <v>0</v>
       </c>
-      <c r="J431" t="n">
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="n">
         <v>611</v>
       </c>
-      <c r="K431" t="inlineStr"/>
       <c r="L431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15717,15 +15979,15 @@
         <v>612.6</v>
       </c>
       <c r="H432" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I432" t="n">
         <v>0</v>
       </c>
-      <c r="J432" t="n">
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="n">
         <v>611</v>
       </c>
-      <c r="K432" t="inlineStr"/>
       <c r="L432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15758,15 +16020,15 @@
         <v>612.6</v>
       </c>
       <c r="H433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I433" t="n">
         <v>0</v>
       </c>
-      <c r="J433" t="n">
-        <v>612</v>
-      </c>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="n">
+        <v>611</v>
+      </c>
       <c r="L433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15799,15 +16061,15 @@
         <v>612.5833333333334</v>
       </c>
       <c r="H434" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I434" t="n">
         <v>0</v>
       </c>
-      <c r="J434" t="n">
-        <v>612</v>
-      </c>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="n">
+        <v>611</v>
+      </c>
       <c r="L434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15840,15 +16102,15 @@
         <v>612.5833333333334</v>
       </c>
       <c r="H435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I435" t="n">
         <v>0</v>
       </c>
-      <c r="J435" t="n">
-        <v>612</v>
-      </c>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="n">
+        <v>611</v>
+      </c>
       <c r="L435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15881,15 +16143,15 @@
         <v>612.5833333333334</v>
       </c>
       <c r="H436" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I436" t="n">
         <v>0</v>
       </c>
-      <c r="J436" t="n">
-        <v>613</v>
-      </c>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="n">
+        <v>611</v>
+      </c>
       <c r="L436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15922,15 +16184,15 @@
         <v>612.5833333333334</v>
       </c>
       <c r="H437" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I437" t="n">
         <v>0</v>
       </c>
-      <c r="J437" t="n">
-        <v>613</v>
-      </c>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="n">
+        <v>611</v>
+      </c>
       <c r="L437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15963,15 +16225,15 @@
         <v>612.6166666666667</v>
       </c>
       <c r="H438" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I438" t="n">
         <v>0</v>
       </c>
-      <c r="J438" t="n">
-        <v>615</v>
-      </c>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="n">
+        <v>611</v>
+      </c>
       <c r="L438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16004,15 +16266,15 @@
         <v>612.6</v>
       </c>
       <c r="H439" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I439" t="n">
         <v>0</v>
       </c>
-      <c r="J439" t="n">
-        <v>613</v>
-      </c>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="n">
+        <v>611</v>
+      </c>
       <c r="L439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16045,15 +16307,15 @@
         <v>612.6</v>
       </c>
       <c r="H440" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I440" t="n">
         <v>0</v>
       </c>
-      <c r="J440" t="n">
-        <v>614</v>
-      </c>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="n">
+        <v>611</v>
+      </c>
       <c r="L440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16086,15 +16348,15 @@
         <v>612.5333333333333</v>
       </c>
       <c r="H441" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I441" t="n">
         <v>0</v>
       </c>
-      <c r="J441" t="n">
-        <v>615</v>
-      </c>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="n">
+        <v>611</v>
+      </c>
       <c r="L441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16127,15 +16389,15 @@
         <v>612.4833333333333</v>
       </c>
       <c r="H442" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I442" t="n">
         <v>0</v>
       </c>
-      <c r="J442" t="n">
-        <v>616</v>
-      </c>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="n">
+        <v>611</v>
+      </c>
       <c r="L442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16168,15 +16430,15 @@
         <v>612.45</v>
       </c>
       <c r="H443" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I443" t="n">
         <v>0</v>
       </c>
-      <c r="J443" t="n">
-        <v>616</v>
-      </c>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="n">
+        <v>611</v>
+      </c>
       <c r="L443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16209,15 +16471,15 @@
         <v>612.4333333333333</v>
       </c>
       <c r="H444" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I444" t="n">
         <v>0</v>
       </c>
-      <c r="J444" t="n">
-        <v>619</v>
-      </c>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="n">
+        <v>611</v>
+      </c>
       <c r="L444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16250,15 +16512,15 @@
         <v>612.6833333333333</v>
       </c>
       <c r="H445" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I445" t="n">
         <v>0</v>
       </c>
-      <c r="J445" t="n">
-        <v>621</v>
-      </c>
-      <c r="K445" t="inlineStr"/>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="n">
+        <v>611</v>
+      </c>
       <c r="L445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16297,7 +16559,9 @@
         <v>0</v>
       </c>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="n">
+        <v>611</v>
+      </c>
       <c r="L446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16336,7 +16600,9 @@
         <v>0</v>
       </c>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="n">
+        <v>611</v>
+      </c>
       <c r="L447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16375,7 +16641,9 @@
         <v>0</v>
       </c>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="n">
+        <v>611</v>
+      </c>
       <c r="L448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16414,7 +16682,9 @@
         <v>0</v>
       </c>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="n">
+        <v>611</v>
+      </c>
       <c r="L449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16453,7 +16723,9 @@
         <v>0</v>
       </c>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="n">
+        <v>611</v>
+      </c>
       <c r="L450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16492,7 +16764,9 @@
         <v>0</v>
       </c>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="n">
+        <v>611</v>
+      </c>
       <c r="L451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16531,7 +16805,9 @@
         <v>0</v>
       </c>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="n">
+        <v>611</v>
+      </c>
       <c r="L452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16567,17 +16843,19 @@
         <v>0</v>
       </c>
       <c r="I453" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="n">
+        <v>611</v>
+      </c>
       <c r="L453" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M453" t="n">
-        <v>1</v>
+        <v>1.009729950900164</v>
       </c>
     </row>
     <row r="454">
@@ -16610,11 +16888,7 @@
       </c>
       <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr"/>
-      <c r="L454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L454" t="inlineStr"/>
       <c r="M454" t="n">
         <v>1</v>
       </c>
@@ -16649,11 +16923,7 @@
       </c>
       <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr"/>
-      <c r="L455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L455" t="inlineStr"/>
       <c r="M455" t="n">
         <v>1</v>
       </c>
@@ -16688,11 +16958,7 @@
       </c>
       <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr"/>
-      <c r="L456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L456" t="inlineStr"/>
       <c r="M456" t="n">
         <v>1</v>
       </c>
@@ -16727,11 +16993,7 @@
       </c>
       <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr"/>
-      <c r="L457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L457" t="inlineStr"/>
       <c r="M457" t="n">
         <v>1</v>
       </c>
@@ -16766,11 +17028,7 @@
       </c>
       <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr"/>
-      <c r="L458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L458" t="inlineStr"/>
       <c r="M458" t="n">
         <v>1</v>
       </c>
@@ -16805,11 +17063,7 @@
       </c>
       <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr"/>
-      <c r="L459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L459" t="inlineStr"/>
       <c r="M459" t="n">
         <v>1</v>
       </c>
@@ -16844,11 +17098,7 @@
       </c>
       <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr"/>
-      <c r="L460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L460" t="inlineStr"/>
       <c r="M460" t="n">
         <v>1</v>
       </c>
@@ -16879,15 +17129,11 @@
         <v>0</v>
       </c>
       <c r="I461" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr"/>
-      <c r="L461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L461" t="inlineStr"/>
       <c r="M461" t="n">
         <v>1</v>
       </c>
@@ -16922,11 +17168,7 @@
       </c>
       <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr"/>
-      <c r="L462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L462" t="inlineStr"/>
       <c r="M462" t="n">
         <v>1</v>
       </c>
@@ -16961,11 +17203,7 @@
       </c>
       <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr"/>
-      <c r="L463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L463" t="inlineStr"/>
       <c r="M463" t="n">
         <v>1</v>
       </c>
@@ -16996,15 +17234,11 @@
         <v>0</v>
       </c>
       <c r="I464" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr"/>
-      <c r="L464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L464" t="inlineStr"/>
       <c r="M464" t="n">
         <v>1</v>
       </c>
@@ -17035,15 +17269,11 @@
         <v>0</v>
       </c>
       <c r="I465" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr"/>
-      <c r="L465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L465" t="inlineStr"/>
       <c r="M465" t="n">
         <v>1</v>
       </c>
@@ -17074,15 +17304,11 @@
         <v>0</v>
       </c>
       <c r="I466" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr"/>
-      <c r="L466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L466" t="inlineStr"/>
       <c r="M466" t="n">
         <v>1</v>
       </c>
@@ -17113,15 +17339,11 @@
         <v>0</v>
       </c>
       <c r="I467" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr"/>
-      <c r="L467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L467" t="inlineStr"/>
       <c r="M467" t="n">
         <v>1</v>
       </c>
@@ -17152,15 +17374,11 @@
         <v>0</v>
       </c>
       <c r="I468" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr"/>
-      <c r="L468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L468" t="inlineStr"/>
       <c r="M468" t="n">
         <v>1</v>
       </c>
@@ -17195,11 +17413,7 @@
       </c>
       <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr"/>
-      <c r="L469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L469" t="inlineStr"/>
       <c r="M469" t="n">
         <v>1</v>
       </c>
@@ -17234,11 +17448,7 @@
       </c>
       <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr"/>
-      <c r="L470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L470" t="inlineStr"/>
       <c r="M470" t="n">
         <v>1</v>
       </c>
@@ -17269,16 +17479,14 @@
         <v>0</v>
       </c>
       <c r="I471" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr"/>
-      <c r="L471" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M471" t="inlineStr"/>
+      <c r="L471" t="inlineStr"/>
+      <c r="M471" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="472">
       <c r="A472" s="1" t="n">
@@ -17828,17 +18036,13 @@
         <v>619.0333333333333</v>
       </c>
       <c r="H487" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I487" t="n">
         <v>0</v>
       </c>
-      <c r="J487" t="n">
-        <v>608</v>
-      </c>
-      <c r="K487" t="n">
-        <v>608</v>
-      </c>
+      <c r="J487" t="inlineStr"/>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="inlineStr"/>
       <c r="M487" t="n">
         <v>1</v>
@@ -17867,22 +18071,14 @@
         <v>619.0333333333333</v>
       </c>
       <c r="H488" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I488" t="n">
         <v>0</v>
       </c>
-      <c r="J488" t="n">
-        <v>613</v>
-      </c>
-      <c r="K488" t="n">
-        <v>608</v>
-      </c>
-      <c r="L488" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J488" t="inlineStr"/>
+      <c r="K488" t="inlineStr"/>
+      <c r="L488" t="inlineStr"/>
       <c r="M488" t="n">
         <v>1</v>
       </c>
@@ -17910,22 +18106,14 @@
         <v>618.9666666666667</v>
       </c>
       <c r="H489" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I489" t="n">
         <v>0</v>
       </c>
-      <c r="J489" t="n">
-        <v>608</v>
-      </c>
-      <c r="K489" t="n">
-        <v>608</v>
-      </c>
-      <c r="L489" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J489" t="inlineStr"/>
+      <c r="K489" t="inlineStr"/>
+      <c r="L489" t="inlineStr"/>
       <c r="M489" t="n">
         <v>1</v>
       </c>
@@ -17953,17 +18141,13 @@
         <v>618.9166666666666</v>
       </c>
       <c r="H490" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I490" t="n">
         <v>0</v>
       </c>
-      <c r="J490" t="n">
-        <v>609</v>
-      </c>
-      <c r="K490" t="n">
-        <v>609</v>
-      </c>
+      <c r="J490" t="inlineStr"/>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="inlineStr"/>
       <c r="M490" t="n">
         <v>1</v>
@@ -18003,11 +18187,7 @@
       <c r="K491" t="n">
         <v>609</v>
       </c>
-      <c r="L491" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="L491" t="inlineStr"/>
       <c r="M491" t="n">
         <v>1</v>
       </c>
@@ -18041,7 +18221,7 @@
         <v>0</v>
       </c>
       <c r="J492" t="n">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="K492" t="n">
         <v>609</v>
@@ -18127,7 +18307,7 @@
         <v>0</v>
       </c>
       <c r="J494" t="n">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K494" t="n">
         <v>609</v>
@@ -18213,7 +18393,7 @@
         <v>0</v>
       </c>
       <c r="J496" t="n">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="K496" t="n">
         <v>609</v>
@@ -18299,7 +18479,7 @@
         <v>0</v>
       </c>
       <c r="J498" t="n">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="K498" t="n">
         <v>609</v>
@@ -18465,14 +18645,12 @@
         <v>618.3833333333333</v>
       </c>
       <c r="H502" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I502" t="n">
         <v>0</v>
       </c>
-      <c r="J502" t="n">
-        <v>613</v>
-      </c>
+      <c r="J502" t="inlineStr"/>
       <c r="K502" t="n">
         <v>609</v>
       </c>
@@ -18508,14 +18686,12 @@
         <v>618.3333333333334</v>
       </c>
       <c r="H503" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I503" t="n">
         <v>0</v>
       </c>
-      <c r="J503" t="n">
-        <v>611</v>
-      </c>
+      <c r="J503" t="inlineStr"/>
       <c r="K503" t="n">
         <v>609</v>
       </c>
@@ -18551,14 +18727,12 @@
         <v>618.2833333333333</v>
       </c>
       <c r="H504" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I504" t="n">
         <v>0</v>
       </c>
-      <c r="J504" t="n">
-        <v>612</v>
-      </c>
+      <c r="J504" t="inlineStr"/>
       <c r="K504" t="n">
         <v>609</v>
       </c>
@@ -18594,14 +18768,12 @@
         <v>618.05</v>
       </c>
       <c r="H505" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I505" t="n">
         <v>0</v>
       </c>
-      <c r="J505" t="n">
-        <v>615</v>
-      </c>
+      <c r="J505" t="inlineStr"/>
       <c r="K505" t="n">
         <v>609</v>
       </c>
@@ -18637,14 +18809,12 @@
         <v>617.9333333333333</v>
       </c>
       <c r="H506" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I506" t="n">
         <v>0</v>
       </c>
-      <c r="J506" t="n">
-        <v>614</v>
-      </c>
+      <c r="J506" t="inlineStr"/>
       <c r="K506" t="n">
         <v>609</v>
       </c>
@@ -18680,14 +18850,12 @@
         <v>617.7166666666667</v>
       </c>
       <c r="H507" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I507" t="n">
         <v>0</v>
       </c>
-      <c r="J507" t="n">
-        <v>614</v>
-      </c>
+      <c r="J507" t="inlineStr"/>
       <c r="K507" t="n">
         <v>609</v>
       </c>
@@ -18723,14 +18891,12 @@
         <v>617.5333333333333</v>
       </c>
       <c r="H508" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I508" t="n">
         <v>0</v>
       </c>
-      <c r="J508" t="n">
-        <v>615</v>
-      </c>
+      <c r="J508" t="inlineStr"/>
       <c r="K508" t="n">
         <v>609</v>
       </c>
@@ -18766,14 +18932,12 @@
         <v>617.3333333333334</v>
       </c>
       <c r="H509" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I509" t="n">
         <v>0</v>
       </c>
-      <c r="J509" t="n">
-        <v>615</v>
-      </c>
+      <c r="J509" t="inlineStr"/>
       <c r="K509" t="n">
         <v>609</v>
       </c>
@@ -18809,14 +18973,12 @@
         <v>617.0833333333334</v>
       </c>
       <c r="H510" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I510" t="n">
         <v>0</v>
       </c>
-      <c r="J510" t="n">
-        <v>615</v>
-      </c>
+      <c r="J510" t="inlineStr"/>
       <c r="K510" t="n">
         <v>609</v>
       </c>
@@ -18852,14 +19014,12 @@
         <v>616.8333333333334</v>
       </c>
       <c r="H511" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I511" t="n">
         <v>0</v>
       </c>
-      <c r="J511" t="n">
-        <v>614</v>
-      </c>
+      <c r="J511" t="inlineStr"/>
       <c r="K511" t="n">
         <v>609</v>
       </c>
@@ -18895,14 +19055,12 @@
         <v>616.7333333333333</v>
       </c>
       <c r="H512" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I512" t="n">
         <v>0</v>
       </c>
-      <c r="J512" t="n">
-        <v>615</v>
-      </c>
+      <c r="J512" t="inlineStr"/>
       <c r="K512" t="n">
         <v>609</v>
       </c>
@@ -18938,14 +19096,12 @@
         <v>616.6</v>
       </c>
       <c r="H513" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I513" t="n">
         <v>0</v>
       </c>
-      <c r="J513" t="n">
-        <v>615</v>
-      </c>
+      <c r="J513" t="inlineStr"/>
       <c r="K513" t="n">
         <v>609</v>
       </c>
@@ -18981,14 +19137,12 @@
         <v>616.35</v>
       </c>
       <c r="H514" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I514" t="n">
         <v>0</v>
       </c>
-      <c r="J514" t="n">
-        <v>613</v>
-      </c>
+      <c r="J514" t="inlineStr"/>
       <c r="K514" t="n">
         <v>609</v>
       </c>
@@ -19024,14 +19178,12 @@
         <v>616.1333333333333</v>
       </c>
       <c r="H515" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I515" t="n">
         <v>0</v>
       </c>
-      <c r="J515" t="n">
-        <v>613</v>
-      </c>
+      <c r="J515" t="inlineStr"/>
       <c r="K515" t="n">
         <v>609</v>
       </c>
@@ -19067,14 +19219,12 @@
         <v>615.9333333333333</v>
       </c>
       <c r="H516" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I516" t="n">
         <v>0</v>
       </c>
-      <c r="J516" t="n">
-        <v>613</v>
-      </c>
+      <c r="J516" t="inlineStr"/>
       <c r="K516" t="n">
         <v>609</v>
       </c>
@@ -19110,14 +19260,12 @@
         <v>615.6666666666666</v>
       </c>
       <c r="H517" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I517" t="n">
         <v>0</v>
       </c>
-      <c r="J517" t="n">
-        <v>611</v>
-      </c>
+      <c r="J517" t="inlineStr"/>
       <c r="K517" t="n">
         <v>609</v>
       </c>
@@ -19153,14 +19301,12 @@
         <v>615.3666666666667</v>
       </c>
       <c r="H518" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I518" t="n">
         <v>0</v>
       </c>
-      <c r="J518" t="n">
-        <v>610</v>
-      </c>
+      <c r="J518" t="inlineStr"/>
       <c r="K518" t="n">
         <v>609</v>
       </c>

--- a/BackTest/2019-10-15 BackTest PPT.xlsx
+++ b/BackTest/2019-10-15 BackTest PPT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>3287.034099999998</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>6488.034499999998</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>617</v>
@@ -523,7 +523,7 @@
         <v>6488.034499999998</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>618</v>
@@ -562,7 +562,7 @@
         <v>6488.034499999998</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>618</v>
@@ -601,7 +601,7 @@
         <v>6488.034499999998</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>618</v>
@@ -640,7 +640,7 @@
         <v>6488.034499999998</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>618</v>
@@ -679,7 +679,7 @@
         <v>6488.034499999998</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>618</v>
@@ -718,7 +718,7 @@
         <v>6488.034499999998</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>618</v>
@@ -757,7 +757,7 @@
         <v>6487.034499999998</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>618</v>
@@ -796,7 +796,7 @@
         <v>6487.034499999998</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>614</v>
@@ -835,7 +835,7 @@
         <v>6011.569899999998</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>614</v>
@@ -874,7 +874,7 @@
         <v>6348.069899999998</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>606</v>
@@ -913,7 +913,7 @@
         <v>6348.069899999998</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>611</v>
@@ -952,7 +952,7 @@
         <v>7527.352299999998</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>611</v>
@@ -991,7 +991,7 @@
         <v>7527.352299999998</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>618</v>
@@ -1030,7 +1030,7 @@
         <v>7527.352299999998</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>618</v>
@@ -1069,7 +1069,7 @@
         <v>7527.352299999998</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>618</v>
@@ -1108,7 +1108,7 @@
         <v>13556.1806</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>618</v>
@@ -1147,7 +1147,7 @@
         <v>19085.03493076</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>622</v>
@@ -1186,7 +1186,7 @@
         <v>23801.0383</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>624</v>
@@ -1225,7 +1225,7 @@
         <v>33074.8943</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>625</v>
@@ -1264,7 +1264,7 @@
         <v>57899.2196</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>628</v>
@@ -1303,9 +1303,11 @@
         <v>60982.6767</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>632</v>
+      </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
@@ -1377,9 +1379,11 @@
         <v>75026.7317</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>636</v>
+      </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
@@ -1414,9 +1418,11 @@
         <v>87883.50330000001</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>644</v>
+      </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
@@ -1451,9 +1457,11 @@
         <v>81169.17090000001</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>652</v>
+      </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
@@ -1488,9 +1496,11 @@
         <v>77371.58260000001</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>650</v>
+      </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
@@ -1525,9 +1535,11 @@
         <v>70819.7029</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>638</v>
+      </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
@@ -1562,9 +1574,11 @@
         <v>70820.7029</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>624</v>
+      </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
@@ -1599,9 +1613,11 @@
         <v>80484.0242</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>628</v>
+      </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
@@ -1636,9 +1652,11 @@
         <v>79715.8811</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>658</v>
+      </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
@@ -1673,9 +1691,11 @@
         <v>84286.83069999999</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>641</v>
+      </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
@@ -1858,16 +1878,18 @@
         <v>90441.21999999999</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
       <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
@@ -1897,7 +1919,11 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1930,7 +1956,11 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1963,7 +1993,11 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1996,7 +2030,11 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2029,7 +2067,11 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2062,7 +2104,11 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2095,7 +2141,11 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2128,7 +2178,11 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2161,7 +2215,11 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2194,7 +2252,11 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2227,7 +2289,11 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2260,7 +2326,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2293,7 +2363,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2322,11 +2396,15 @@
         <v>98075.33990000001</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2359,7 +2437,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2392,7 +2474,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2425,7 +2511,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2454,11 +2544,15 @@
         <v>96398.46290000001</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2487,14 +2581,16 @@
         <v>97253.73350000002</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
@@ -2520,7 +2616,7 @@
         <v>97225.54800000001</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2586,7 +2682,7 @@
         <v>96217.25580000001</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2619,7 +2715,7 @@
         <v>93364.76630000002</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2652,7 +2748,7 @@
         <v>91525.47740000002</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2685,7 +2781,7 @@
         <v>92072.04860000002</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2718,7 +2814,7 @@
         <v>91871.54860000002</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2751,7 +2847,7 @@
         <v>91871.54860000002</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2784,7 +2880,7 @@
         <v>91018.29120000002</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2817,7 +2913,7 @@
         <v>78234.55430000002</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2883,7 +2979,7 @@
         <v>78815.82530000003</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2916,7 +3012,7 @@
         <v>78815.82530000003</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2949,7 +3045,7 @@
         <v>78815.82530000003</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2982,7 +3078,7 @@
         <v>81983.24450000003</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3015,7 +3111,7 @@
         <v>81435.24450000003</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3048,7 +3144,7 @@
         <v>83409.71180000003</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3114,7 +3210,7 @@
         <v>84120.54650000004</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3147,7 +3243,7 @@
         <v>83356.85350000004</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3180,7 +3276,7 @@
         <v>87092.40790000003</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3213,7 +3309,7 @@
         <v>86794.57650000004</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3246,7 +3342,7 @@
         <v>88550.71920000004</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3279,7 +3375,7 @@
         <v>90821.00550000004</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3411,7 +3507,7 @@
         <v>87712.79040000006</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3675,7 +3771,7 @@
         <v>82369.41650000008</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3708,7 +3804,7 @@
         <v>82369.41650000008</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3741,7 +3837,7 @@
         <v>82369.41650000008</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3774,7 +3870,7 @@
         <v>82169.41650000008</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3807,7 +3903,7 @@
         <v>82169.41650000008</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3840,7 +3936,7 @@
         <v>82169.41650000008</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3873,7 +3969,7 @@
         <v>85127.49810000008</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3906,7 +4002,7 @@
         <v>82932.22740000009</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3939,7 +4035,7 @@
         <v>81954.8565000001</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3972,7 +4068,7 @@
         <v>87722.1838000001</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4005,7 +4101,7 @@
         <v>87722.1838000001</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4038,7 +4134,7 @@
         <v>88523.8694000001</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4071,7 +4167,7 @@
         <v>88373.8694000001</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4104,7 +4200,7 @@
         <v>88614.8694000001</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4137,7 +4233,7 @@
         <v>88614.8694000001</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4170,7 +4266,7 @@
         <v>97946.6731000001</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4203,7 +4299,7 @@
         <v>96705.5097000001</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4236,7 +4332,7 @@
         <v>96736.5097000001</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4269,7 +4365,7 @@
         <v>94393.57000000009</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4599,7 +4695,7 @@
         <v>81138.8603000001</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4632,7 +4728,7 @@
         <v>81138.8603000001</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4665,7 +4761,7 @@
         <v>80751.0086000001</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4698,7 +4794,7 @@
         <v>80644.6927000001</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4731,7 +4827,7 @@
         <v>80644.6927000001</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4764,7 +4860,7 @@
         <v>85620.9849000001</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4797,7 +4893,7 @@
         <v>85620.9849000001</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4830,7 +4926,7 @@
         <v>85831.3348000001</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4863,7 +4959,7 @@
         <v>85832.9858000001</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4896,7 +4992,7 @@
         <v>85832.9858000001</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4929,7 +5025,7 @@
         <v>85256.74520000009</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4962,7 +5058,7 @@
         <v>85419.07570000009</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4995,7 +5091,7 @@
         <v>84969.73150000008</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5028,7 +5124,7 @@
         <v>84969.73150000008</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5061,7 +5157,7 @@
         <v>84969.73150000008</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5094,7 +5190,7 @@
         <v>84572.03350000008</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5952,7 +6048,7 @@
         <v>86615.46840000009</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6117,7 +6213,7 @@
         <v>95911.71440000007</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6249,7 +6345,7 @@
         <v>97928.77732976007</v>
       </c>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6282,7 +6378,7 @@
         <v>97646.77732976007</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6315,7 +6411,7 @@
         <v>97453.37872976006</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6348,7 +6444,7 @@
         <v>97453.37872976006</v>
       </c>
       <c r="H175" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6381,7 +6477,7 @@
         <v>98494.48042976006</v>
       </c>
       <c r="H176" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6414,7 +6510,7 @@
         <v>98444.41662976006</v>
       </c>
       <c r="H177" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6447,7 +6543,7 @@
         <v>101001.1897297601</v>
       </c>
       <c r="H178" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6480,7 +6576,7 @@
         <v>101001.1897297601</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6546,7 +6642,7 @@
         <v>101001.1897297601</v>
       </c>
       <c r="H181" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6612,7 +6708,7 @@
         <v>105270.0476297601</v>
       </c>
       <c r="H183" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6645,7 +6741,7 @@
         <v>105270.0476297601</v>
       </c>
       <c r="H184" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6678,7 +6774,7 @@
         <v>105260.0476297601</v>
       </c>
       <c r="H185" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6711,7 +6807,7 @@
         <v>105416.22032976</v>
       </c>
       <c r="H186" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6744,7 +6840,7 @@
         <v>105416.22032976</v>
       </c>
       <c r="H187" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7008,7 +7104,7 @@
         <v>96877.29042976005</v>
       </c>
       <c r="H195" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -9285,7 +9381,7 @@
         <v>84751.46494529008</v>
       </c>
       <c r="H264" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9417,7 +9513,7 @@
         <v>86272.91784529008</v>
       </c>
       <c r="H268" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9813,7 +9909,7 @@
         <v>79168.67254529009</v>
       </c>
       <c r="H280" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9846,7 +9942,7 @@
         <v>79258.67254529009</v>
       </c>
       <c r="H281" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9912,7 +10008,7 @@
         <v>79724.68614529009</v>
       </c>
       <c r="H283" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9945,7 +10041,7 @@
         <v>79083.34164529009</v>
       </c>
       <c r="H284" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9978,7 +10074,7 @@
         <v>79110.84884529008</v>
       </c>
       <c r="H285" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10176,7 +10272,7 @@
         <v>79422.21854529007</v>
       </c>
       <c r="H291" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10209,7 +10305,7 @@
         <v>79423.21854529007</v>
       </c>
       <c r="H292" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10275,7 +10371,7 @@
         <v>82368.32724529007</v>
       </c>
       <c r="H294" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10308,7 +10404,7 @@
         <v>82368.32724529007</v>
       </c>
       <c r="H295" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10341,7 +10437,7 @@
         <v>82345.32724529007</v>
       </c>
       <c r="H296" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10374,7 +10470,7 @@
         <v>81476.50964529008</v>
       </c>
       <c r="H297" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10407,7 +10503,7 @@
         <v>82414.23964529007</v>
       </c>
       <c r="H298" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10440,7 +10536,7 @@
         <v>80091.94854529007</v>
       </c>
       <c r="H299" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10473,7 +10569,7 @@
         <v>80236.94854529007</v>
       </c>
       <c r="H300" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10638,7 +10734,7 @@
         <v>82173.56604529006</v>
       </c>
       <c r="H305" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10671,7 +10767,7 @@
         <v>82173.56604529006</v>
       </c>
       <c r="H306" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10704,7 +10800,7 @@
         <v>82275.28894529006</v>
       </c>
       <c r="H307" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10737,7 +10833,7 @@
         <v>80761.53984529006</v>
       </c>
       <c r="H308" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10770,7 +10866,7 @@
         <v>80761.53984529006</v>
       </c>
       <c r="H309" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10803,7 +10899,7 @@
         <v>79917.05374529006</v>
       </c>
       <c r="H310" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10836,7 +10932,7 @@
         <v>80260.02934529007</v>
       </c>
       <c r="H311" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10869,7 +10965,7 @@
         <v>80172.72254529006</v>
       </c>
       <c r="H312" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10902,7 +10998,7 @@
         <v>80672.72254529006</v>
       </c>
       <c r="H313" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10968,7 +11064,7 @@
         <v>80780.31904529006</v>
       </c>
       <c r="H315" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11001,7 +11097,7 @@
         <v>80780.31904529006</v>
       </c>
       <c r="H316" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -11034,7 +11130,7 @@
         <v>79485.76674529006</v>
       </c>
       <c r="H317" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -11067,7 +11163,7 @@
         <v>79601.46674529006</v>
       </c>
       <c r="H318" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -11166,7 +11262,7 @@
         <v>78292.05404529006</v>
       </c>
       <c r="H321" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11199,7 +11295,7 @@
         <v>78112.05404529006</v>
       </c>
       <c r="H322" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11232,7 +11328,7 @@
         <v>78112.05404529006</v>
       </c>
       <c r="H323" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11265,7 +11361,7 @@
         <v>77834.61004529006</v>
       </c>
       <c r="H324" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11298,7 +11394,7 @@
         <v>77351.45584529005</v>
       </c>
       <c r="H325" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11331,7 +11427,7 @@
         <v>77351.45584529005</v>
       </c>
       <c r="H326" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11859,7 +11955,7 @@
         <v>87760.21473919005</v>
       </c>
       <c r="H342" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11925,7 +12021,7 @@
         <v>87319.39423919005</v>
       </c>
       <c r="H344" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11958,7 +12054,7 @@
         <v>87319.39423919005</v>
       </c>
       <c r="H345" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11991,7 +12087,7 @@
         <v>87636.85453919006</v>
       </c>
       <c r="H346" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -12024,7 +12120,7 @@
         <v>86468.67273919005</v>
       </c>
       <c r="H347" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -12057,7 +12153,7 @@
         <v>86103.43293919005</v>
       </c>
       <c r="H348" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -12123,7 +12219,7 @@
         <v>86642.89053919005</v>
       </c>
       <c r="H350" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -12189,7 +12285,7 @@
         <v>86643.89053919005</v>
       </c>
       <c r="H352" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12222,7 +12318,7 @@
         <v>86643.89053919005</v>
       </c>
       <c r="H353" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12255,7 +12351,7 @@
         <v>86643.89053919005</v>
       </c>
       <c r="H354" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12288,7 +12384,7 @@
         <v>86643.89053919005</v>
       </c>
       <c r="H355" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12321,7 +12417,7 @@
         <v>86643.89053919005</v>
       </c>
       <c r="H356" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12354,7 +12450,7 @@
         <v>86643.89053919005</v>
       </c>
       <c r="H357" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12387,7 +12483,7 @@
         <v>87732.01033919005</v>
       </c>
       <c r="H358" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12420,7 +12516,7 @@
         <v>92207.38293919005</v>
       </c>
       <c r="H359" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12453,7 +12549,7 @@
         <v>91396.18713919005</v>
       </c>
       <c r="H360" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12486,7 +12582,7 @@
         <v>89724.84823919005</v>
       </c>
       <c r="H361" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12519,7 +12615,7 @@
         <v>89724.84823919005</v>
       </c>
       <c r="H362" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12552,7 +12648,7 @@
         <v>88330.48493919005</v>
       </c>
       <c r="H363" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12585,7 +12681,7 @@
         <v>88359.89203919005</v>
       </c>
       <c r="H364" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12618,7 +12714,7 @@
         <v>88032.53013919004</v>
       </c>
       <c r="H365" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12651,7 +12747,7 @@
         <v>88532.53013919004</v>
       </c>
       <c r="H366" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12684,7 +12780,7 @@
         <v>88432.53013919004</v>
       </c>
       <c r="H367" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12717,7 +12813,7 @@
         <v>88432.53013919004</v>
       </c>
       <c r="H368" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12750,7 +12846,7 @@
         <v>88432.53013919004</v>
       </c>
       <c r="H369" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12783,7 +12879,7 @@
         <v>88433.53013919004</v>
       </c>
       <c r="H370" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12849,7 +12945,7 @@
         <v>88406.47893919004</v>
       </c>
       <c r="H372" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12882,7 +12978,7 @@
         <v>87906.47893919004</v>
       </c>
       <c r="H373" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12915,7 +13011,7 @@
         <v>89067.29793919004</v>
       </c>
       <c r="H374" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12948,7 +13044,7 @@
         <v>88674.29793919004</v>
       </c>
       <c r="H375" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12981,7 +13077,7 @@
         <v>88069.64003919004</v>
       </c>
       <c r="H376" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -13014,7 +13110,7 @@
         <v>88069.64003919004</v>
       </c>
       <c r="H377" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -13278,7 +13374,7 @@
         <v>81482.07853919004</v>
       </c>
       <c r="H385" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13410,7 +13506,7 @@
         <v>72819.83673919004</v>
       </c>
       <c r="H389" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -15885,572 +15981,512 @@
         <v>48521.27803919004</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
-      </c>
-      <c r="I464" t="n">
-        <v>614</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr">
+      <c r="K464" t="inlineStr"/>
+      <c r="L464" t="n">
+        <v>1</v>
+      </c>
+      <c r="M464" t="inlineStr"/>
+    </row>
+    <row r="465">
+      <c r="A465" s="1" t="n">
+        <v>463</v>
+      </c>
+      <c r="B465" t="n">
+        <v>613</v>
+      </c>
+      <c r="C465" t="n">
+        <v>613</v>
+      </c>
+      <c r="D465" t="n">
+        <v>613</v>
+      </c>
+      <c r="E465" t="n">
+        <v>613</v>
+      </c>
+      <c r="F465" t="n">
+        <v>196.5327</v>
+      </c>
+      <c r="G465" t="n">
+        <v>48717.81073919004</v>
+      </c>
+      <c r="H465" t="n">
+        <v>0</v>
+      </c>
+      <c r="I465" t="inlineStr"/>
+      <c r="J465" t="inlineStr"/>
+      <c r="K465" t="inlineStr"/>
+      <c r="L465" t="n">
+        <v>1</v>
+      </c>
+      <c r="M465" t="inlineStr"/>
+    </row>
+    <row r="466">
+      <c r="A466" s="1" t="n">
+        <v>464</v>
+      </c>
+      <c r="B466" t="n">
+        <v>612</v>
+      </c>
+      <c r="C466" t="n">
+        <v>612</v>
+      </c>
+      <c r="D466" t="n">
+        <v>612</v>
+      </c>
+      <c r="E466" t="n">
+        <v>612</v>
+      </c>
+      <c r="F466" t="n">
+        <v>84.9999</v>
+      </c>
+      <c r="G466" t="n">
+        <v>48632.81083919004</v>
+      </c>
+      <c r="H466" t="n">
+        <v>0</v>
+      </c>
+      <c r="I466" t="inlineStr"/>
+      <c r="J466" t="inlineStr"/>
+      <c r="K466" t="inlineStr"/>
+      <c r="L466" t="n">
+        <v>1</v>
+      </c>
+      <c r="M466" t="inlineStr"/>
+    </row>
+    <row r="467">
+      <c r="A467" s="1" t="n">
+        <v>465</v>
+      </c>
+      <c r="B467" t="n">
+        <v>612</v>
+      </c>
+      <c r="C467" t="n">
+        <v>612</v>
+      </c>
+      <c r="D467" t="n">
+        <v>612</v>
+      </c>
+      <c r="E467" t="n">
+        <v>612</v>
+      </c>
+      <c r="F467" t="n">
+        <v>93.72620000000001</v>
+      </c>
+      <c r="G467" t="n">
+        <v>48632.81083919004</v>
+      </c>
+      <c r="H467" t="n">
+        <v>0</v>
+      </c>
+      <c r="I467" t="inlineStr"/>
+      <c r="J467" t="inlineStr"/>
+      <c r="K467" t="inlineStr"/>
+      <c r="L467" t="n">
+        <v>1</v>
+      </c>
+      <c r="M467" t="inlineStr"/>
+    </row>
+    <row r="468">
+      <c r="A468" s="1" t="n">
+        <v>466</v>
+      </c>
+      <c r="B468" t="n">
+        <v>612</v>
+      </c>
+      <c r="C468" t="n">
+        <v>612</v>
+      </c>
+      <c r="D468" t="n">
+        <v>612</v>
+      </c>
+      <c r="E468" t="n">
+        <v>612</v>
+      </c>
+      <c r="F468" t="n">
+        <v>6403</v>
+      </c>
+      <c r="G468" t="n">
+        <v>48632.81083919004</v>
+      </c>
+      <c r="H468" t="n">
+        <v>0</v>
+      </c>
+      <c r="I468" t="inlineStr"/>
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="inlineStr"/>
+      <c r="L468" t="n">
+        <v>1</v>
+      </c>
+      <c r="M468" t="inlineStr"/>
+    </row>
+    <row r="469">
+      <c r="A469" s="1" t="n">
+        <v>467</v>
+      </c>
+      <c r="B469" t="n">
+        <v>617</v>
+      </c>
+      <c r="C469" t="n">
+        <v>617</v>
+      </c>
+      <c r="D469" t="n">
+        <v>617</v>
+      </c>
+      <c r="E469" t="n">
+        <v>617</v>
+      </c>
+      <c r="F469" t="n">
+        <v>1</v>
+      </c>
+      <c r="G469" t="n">
+        <v>48633.81083919004</v>
+      </c>
+      <c r="H469" t="n">
+        <v>0</v>
+      </c>
+      <c r="I469" t="inlineStr"/>
+      <c r="J469" t="inlineStr"/>
+      <c r="K469" t="inlineStr"/>
+      <c r="L469" t="n">
+        <v>1</v>
+      </c>
+      <c r="M469" t="inlineStr"/>
+    </row>
+    <row r="470">
+      <c r="A470" s="1" t="n">
+        <v>468</v>
+      </c>
+      <c r="B470" t="n">
+        <v>617</v>
+      </c>
+      <c r="C470" t="n">
+        <v>617</v>
+      </c>
+      <c r="D470" t="n">
+        <v>617</v>
+      </c>
+      <c r="E470" t="n">
+        <v>617</v>
+      </c>
+      <c r="F470" t="n">
+        <v>19.09562398</v>
+      </c>
+      <c r="G470" t="n">
+        <v>48633.81083919004</v>
+      </c>
+      <c r="H470" t="n">
+        <v>0</v>
+      </c>
+      <c r="I470" t="inlineStr"/>
+      <c r="J470" t="inlineStr"/>
+      <c r="K470" t="inlineStr"/>
+      <c r="L470" t="n">
+        <v>1</v>
+      </c>
+      <c r="M470" t="inlineStr"/>
+    </row>
+    <row r="471">
+      <c r="A471" s="1" t="n">
+        <v>469</v>
+      </c>
+      <c r="B471" t="n">
+        <v>612</v>
+      </c>
+      <c r="C471" t="n">
+        <v>612</v>
+      </c>
+      <c r="D471" t="n">
+        <v>612</v>
+      </c>
+      <c r="E471" t="n">
+        <v>612</v>
+      </c>
+      <c r="F471" t="n">
+        <v>372.4128</v>
+      </c>
+      <c r="G471" t="n">
+        <v>48261.39803919004</v>
+      </c>
+      <c r="H471" t="n">
+        <v>0</v>
+      </c>
+      <c r="I471" t="inlineStr"/>
+      <c r="J471" t="inlineStr"/>
+      <c r="K471" t="inlineStr"/>
+      <c r="L471" t="n">
+        <v>1</v>
+      </c>
+      <c r="M471" t="inlineStr"/>
+    </row>
+    <row r="472">
+      <c r="A472" s="1" t="n">
+        <v>470</v>
+      </c>
+      <c r="B472" t="n">
+        <v>612</v>
+      </c>
+      <c r="C472" t="n">
+        <v>612</v>
+      </c>
+      <c r="D472" t="n">
+        <v>612</v>
+      </c>
+      <c r="E472" t="n">
+        <v>612</v>
+      </c>
+      <c r="F472" t="n">
+        <v>1035.885</v>
+      </c>
+      <c r="G472" t="n">
+        <v>48261.39803919004</v>
+      </c>
+      <c r="H472" t="n">
+        <v>0</v>
+      </c>
+      <c r="I472" t="inlineStr"/>
+      <c r="J472" t="inlineStr"/>
+      <c r="K472" t="inlineStr"/>
+      <c r="L472" t="n">
+        <v>1</v>
+      </c>
+      <c r="M472" t="inlineStr"/>
+    </row>
+    <row r="473">
+      <c r="A473" s="1" t="n">
+        <v>471</v>
+      </c>
+      <c r="B473" t="n">
+        <v>612</v>
+      </c>
+      <c r="C473" t="n">
+        <v>612</v>
+      </c>
+      <c r="D473" t="n">
+        <v>617</v>
+      </c>
+      <c r="E473" t="n">
+        <v>612</v>
+      </c>
+      <c r="F473" t="n">
+        <v>4856.4249</v>
+      </c>
+      <c r="G473" t="n">
+        <v>48261.39803919004</v>
+      </c>
+      <c r="H473" t="n">
+        <v>0</v>
+      </c>
+      <c r="I473" t="inlineStr"/>
+      <c r="J473" t="inlineStr"/>
+      <c r="K473" t="inlineStr"/>
+      <c r="L473" t="n">
+        <v>1</v>
+      </c>
+      <c r="M473" t="inlineStr"/>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="n">
+        <v>472</v>
+      </c>
+      <c r="B474" t="n">
+        <v>612</v>
+      </c>
+      <c r="C474" t="n">
+        <v>612</v>
+      </c>
+      <c r="D474" t="n">
+        <v>612</v>
+      </c>
+      <c r="E474" t="n">
+        <v>612</v>
+      </c>
+      <c r="F474" t="n">
+        <v>4</v>
+      </c>
+      <c r="G474" t="n">
+        <v>48261.39803919004</v>
+      </c>
+      <c r="H474" t="n">
+        <v>0</v>
+      </c>
+      <c r="I474" t="inlineStr"/>
+      <c r="J474" t="inlineStr"/>
+      <c r="K474" t="inlineStr"/>
+      <c r="L474" t="n">
+        <v>1</v>
+      </c>
+      <c r="M474" t="inlineStr"/>
+    </row>
+    <row r="475">
+      <c r="A475" s="1" t="n">
+        <v>473</v>
+      </c>
+      <c r="B475" t="n">
+        <v>610</v>
+      </c>
+      <c r="C475" t="n">
+        <v>610</v>
+      </c>
+      <c r="D475" t="n">
+        <v>610</v>
+      </c>
+      <c r="E475" t="n">
+        <v>610</v>
+      </c>
+      <c r="F475" t="n">
+        <v>20</v>
+      </c>
+      <c r="G475" t="n">
+        <v>48241.39803919004</v>
+      </c>
+      <c r="H475" t="n">
+        <v>0</v>
+      </c>
+      <c r="I475" t="inlineStr"/>
+      <c r="J475" t="inlineStr"/>
+      <c r="K475" t="inlineStr"/>
+      <c r="L475" t="n">
+        <v>1</v>
+      </c>
+      <c r="M475" t="inlineStr"/>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="n">
+        <v>474</v>
+      </c>
+      <c r="B476" t="n">
+        <v>609</v>
+      </c>
+      <c r="C476" t="n">
+        <v>607</v>
+      </c>
+      <c r="D476" t="n">
+        <v>609</v>
+      </c>
+      <c r="E476" t="n">
+        <v>607</v>
+      </c>
+      <c r="F476" t="n">
+        <v>272.2253</v>
+      </c>
+      <c r="G476" t="n">
+        <v>47969.17273919004</v>
+      </c>
+      <c r="H476" t="n">
+        <v>0</v>
+      </c>
+      <c r="I476" t="inlineStr"/>
+      <c r="J476" t="inlineStr"/>
+      <c r="K476" t="inlineStr"/>
+      <c r="L476" t="n">
+        <v>1</v>
+      </c>
+      <c r="M476" t="inlineStr"/>
+    </row>
+    <row r="477">
+      <c r="A477" s="1" t="n">
+        <v>475</v>
+      </c>
+      <c r="B477" t="n">
+        <v>606</v>
+      </c>
+      <c r="C477" t="n">
+        <v>604</v>
+      </c>
+      <c r="D477" t="n">
+        <v>606</v>
+      </c>
+      <c r="E477" t="n">
+        <v>604</v>
+      </c>
+      <c r="F477" t="n">
+        <v>6169.6734</v>
+      </c>
+      <c r="G477" t="n">
+        <v>41799.49933919004</v>
+      </c>
+      <c r="H477" t="n">
+        <v>0</v>
+      </c>
+      <c r="I477" t="inlineStr"/>
+      <c r="J477" t="inlineStr"/>
+      <c r="K477" t="inlineStr"/>
+      <c r="L477" t="n">
+        <v>1</v>
+      </c>
+      <c r="M477" t="inlineStr"/>
+    </row>
+    <row r="478">
+      <c r="A478" s="1" t="n">
+        <v>476</v>
+      </c>
+      <c r="B478" t="n">
+        <v>604</v>
+      </c>
+      <c r="C478" t="n">
+        <v>602</v>
+      </c>
+      <c r="D478" t="n">
+        <v>604</v>
+      </c>
+      <c r="E478" t="n">
+        <v>602</v>
+      </c>
+      <c r="F478" t="n">
+        <v>3319.2631</v>
+      </c>
+      <c r="G478" t="n">
+        <v>38480.23623919004</v>
+      </c>
+      <c r="H478" t="n">
+        <v>0</v>
+      </c>
+      <c r="I478" t="inlineStr"/>
+      <c r="J478" t="inlineStr"/>
+      <c r="K478" t="inlineStr"/>
+      <c r="L478" t="n">
+        <v>1</v>
+      </c>
+      <c r="M478" t="inlineStr"/>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="n">
+        <v>477</v>
+      </c>
+      <c r="B479" t="n">
+        <v>602</v>
+      </c>
+      <c r="C479" t="n">
+        <v>602</v>
+      </c>
+      <c r="D479" t="n">
+        <v>602</v>
+      </c>
+      <c r="E479" t="n">
+        <v>601</v>
+      </c>
+      <c r="F479" t="n">
+        <v>2374.6473</v>
+      </c>
+      <c r="G479" t="n">
+        <v>38480.23623919004</v>
+      </c>
+      <c r="H479" t="n">
+        <v>1</v>
+      </c>
+      <c r="I479" t="n">
+        <v>602</v>
+      </c>
+      <c r="J479" t="inlineStr"/>
+      <c r="K479" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L464" t="n">
-        <v>1</v>
-      </c>
-      <c r="M464" t="inlineStr"/>
-    </row>
-    <row r="465">
-      <c r="A465" s="1" t="n">
-        <v>463</v>
-      </c>
-      <c r="B465" t="n">
-        <v>613</v>
-      </c>
-      <c r="C465" t="n">
-        <v>613</v>
-      </c>
-      <c r="D465" t="n">
-        <v>613</v>
-      </c>
-      <c r="E465" t="n">
-        <v>613</v>
-      </c>
-      <c r="F465" t="n">
-        <v>196.5327</v>
-      </c>
-      <c r="G465" t="n">
-        <v>48717.81073919004</v>
-      </c>
-      <c r="H465" t="n">
-        <v>0</v>
-      </c>
-      <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L465" t="n">
-        <v>1</v>
-      </c>
-      <c r="M465" t="inlineStr"/>
-    </row>
-    <row r="466">
-      <c r="A466" s="1" t="n">
-        <v>464</v>
-      </c>
-      <c r="B466" t="n">
-        <v>612</v>
-      </c>
-      <c r="C466" t="n">
-        <v>612</v>
-      </c>
-      <c r="D466" t="n">
-        <v>612</v>
-      </c>
-      <c r="E466" t="n">
-        <v>612</v>
-      </c>
-      <c r="F466" t="n">
-        <v>84.9999</v>
-      </c>
-      <c r="G466" t="n">
-        <v>48632.81083919004</v>
-      </c>
-      <c r="H466" t="n">
-        <v>0</v>
-      </c>
-      <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L466" t="n">
-        <v>1</v>
-      </c>
-      <c r="M466" t="inlineStr"/>
-    </row>
-    <row r="467">
-      <c r="A467" s="1" t="n">
-        <v>465</v>
-      </c>
-      <c r="B467" t="n">
-        <v>612</v>
-      </c>
-      <c r="C467" t="n">
-        <v>612</v>
-      </c>
-      <c r="D467" t="n">
-        <v>612</v>
-      </c>
-      <c r="E467" t="n">
-        <v>612</v>
-      </c>
-      <c r="F467" t="n">
-        <v>93.72620000000001</v>
-      </c>
-      <c r="G467" t="n">
-        <v>48632.81083919004</v>
-      </c>
-      <c r="H467" t="n">
-        <v>0</v>
-      </c>
-      <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L467" t="n">
-        <v>1</v>
-      </c>
-      <c r="M467" t="inlineStr"/>
-    </row>
-    <row r="468">
-      <c r="A468" s="1" t="n">
-        <v>466</v>
-      </c>
-      <c r="B468" t="n">
-        <v>612</v>
-      </c>
-      <c r="C468" t="n">
-        <v>612</v>
-      </c>
-      <c r="D468" t="n">
-        <v>612</v>
-      </c>
-      <c r="E468" t="n">
-        <v>612</v>
-      </c>
-      <c r="F468" t="n">
-        <v>6403</v>
-      </c>
-      <c r="G468" t="n">
-        <v>48632.81083919004</v>
-      </c>
-      <c r="H468" t="n">
-        <v>0</v>
-      </c>
-      <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L468" t="n">
-        <v>1</v>
-      </c>
-      <c r="M468" t="inlineStr"/>
-    </row>
-    <row r="469">
-      <c r="A469" s="1" t="n">
-        <v>467</v>
-      </c>
-      <c r="B469" t="n">
-        <v>617</v>
-      </c>
-      <c r="C469" t="n">
-        <v>617</v>
-      </c>
-      <c r="D469" t="n">
-        <v>617</v>
-      </c>
-      <c r="E469" t="n">
-        <v>617</v>
-      </c>
-      <c r="F469" t="n">
-        <v>1</v>
-      </c>
-      <c r="G469" t="n">
-        <v>48633.81083919004</v>
-      </c>
-      <c r="H469" t="n">
-        <v>0</v>
-      </c>
-      <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L469" t="n">
-        <v>1</v>
-      </c>
-      <c r="M469" t="inlineStr"/>
-    </row>
-    <row r="470">
-      <c r="A470" s="1" t="n">
-        <v>468</v>
-      </c>
-      <c r="B470" t="n">
-        <v>617</v>
-      </c>
-      <c r="C470" t="n">
-        <v>617</v>
-      </c>
-      <c r="D470" t="n">
-        <v>617</v>
-      </c>
-      <c r="E470" t="n">
-        <v>617</v>
-      </c>
-      <c r="F470" t="n">
-        <v>19.09562398</v>
-      </c>
-      <c r="G470" t="n">
-        <v>48633.81083919004</v>
-      </c>
-      <c r="H470" t="n">
-        <v>0</v>
-      </c>
-      <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L470" t="n">
-        <v>1</v>
-      </c>
-      <c r="M470" t="inlineStr"/>
-    </row>
-    <row r="471">
-      <c r="A471" s="1" t="n">
-        <v>469</v>
-      </c>
-      <c r="B471" t="n">
-        <v>612</v>
-      </c>
-      <c r="C471" t="n">
-        <v>612</v>
-      </c>
-      <c r="D471" t="n">
-        <v>612</v>
-      </c>
-      <c r="E471" t="n">
-        <v>612</v>
-      </c>
-      <c r="F471" t="n">
-        <v>372.4128</v>
-      </c>
-      <c r="G471" t="n">
-        <v>48261.39803919004</v>
-      </c>
-      <c r="H471" t="n">
-        <v>0</v>
-      </c>
-      <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L471" t="n">
-        <v>1</v>
-      </c>
-      <c r="M471" t="inlineStr"/>
-    </row>
-    <row r="472">
-      <c r="A472" s="1" t="n">
-        <v>470</v>
-      </c>
-      <c r="B472" t="n">
-        <v>612</v>
-      </c>
-      <c r="C472" t="n">
-        <v>612</v>
-      </c>
-      <c r="D472" t="n">
-        <v>612</v>
-      </c>
-      <c r="E472" t="n">
-        <v>612</v>
-      </c>
-      <c r="F472" t="n">
-        <v>1035.885</v>
-      </c>
-      <c r="G472" t="n">
-        <v>48261.39803919004</v>
-      </c>
-      <c r="H472" t="n">
-        <v>0</v>
-      </c>
-      <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L472" t="n">
-        <v>1</v>
-      </c>
-      <c r="M472" t="inlineStr"/>
-    </row>
-    <row r="473">
-      <c r="A473" s="1" t="n">
-        <v>471</v>
-      </c>
-      <c r="B473" t="n">
-        <v>612</v>
-      </c>
-      <c r="C473" t="n">
-        <v>612</v>
-      </c>
-      <c r="D473" t="n">
-        <v>617</v>
-      </c>
-      <c r="E473" t="n">
-        <v>612</v>
-      </c>
-      <c r="F473" t="n">
-        <v>4856.4249</v>
-      </c>
-      <c r="G473" t="n">
-        <v>48261.39803919004</v>
-      </c>
-      <c r="H473" t="n">
-        <v>0</v>
-      </c>
-      <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L473" t="n">
-        <v>1</v>
-      </c>
-      <c r="M473" t="inlineStr"/>
-    </row>
-    <row r="474">
-      <c r="A474" s="1" t="n">
-        <v>472</v>
-      </c>
-      <c r="B474" t="n">
-        <v>612</v>
-      </c>
-      <c r="C474" t="n">
-        <v>612</v>
-      </c>
-      <c r="D474" t="n">
-        <v>612</v>
-      </c>
-      <c r="E474" t="n">
-        <v>612</v>
-      </c>
-      <c r="F474" t="n">
-        <v>4</v>
-      </c>
-      <c r="G474" t="n">
-        <v>48261.39803919004</v>
-      </c>
-      <c r="H474" t="n">
-        <v>0</v>
-      </c>
-      <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L474" t="n">
-        <v>1</v>
-      </c>
-      <c r="M474" t="inlineStr"/>
-    </row>
-    <row r="475">
-      <c r="A475" s="1" t="n">
-        <v>473</v>
-      </c>
-      <c r="B475" t="n">
-        <v>610</v>
-      </c>
-      <c r="C475" t="n">
-        <v>610</v>
-      </c>
-      <c r="D475" t="n">
-        <v>610</v>
-      </c>
-      <c r="E475" t="n">
-        <v>610</v>
-      </c>
-      <c r="F475" t="n">
-        <v>20</v>
-      </c>
-      <c r="G475" t="n">
-        <v>48241.39803919004</v>
-      </c>
-      <c r="H475" t="n">
-        <v>0</v>
-      </c>
-      <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L475" t="n">
-        <v>1</v>
-      </c>
-      <c r="M475" t="inlineStr"/>
-    </row>
-    <row r="476">
-      <c r="A476" s="1" t="n">
-        <v>474</v>
-      </c>
-      <c r="B476" t="n">
-        <v>609</v>
-      </c>
-      <c r="C476" t="n">
-        <v>607</v>
-      </c>
-      <c r="D476" t="n">
-        <v>609</v>
-      </c>
-      <c r="E476" t="n">
-        <v>607</v>
-      </c>
-      <c r="F476" t="n">
-        <v>272.2253</v>
-      </c>
-      <c r="G476" t="n">
-        <v>47969.17273919004</v>
-      </c>
-      <c r="H476" t="n">
-        <v>0</v>
-      </c>
-      <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L476" t="n">
-        <v>1</v>
-      </c>
-      <c r="M476" t="inlineStr"/>
-    </row>
-    <row r="477">
-      <c r="A477" s="1" t="n">
-        <v>475</v>
-      </c>
-      <c r="B477" t="n">
-        <v>606</v>
-      </c>
-      <c r="C477" t="n">
-        <v>604</v>
-      </c>
-      <c r="D477" t="n">
-        <v>606</v>
-      </c>
-      <c r="E477" t="n">
-        <v>604</v>
-      </c>
-      <c r="F477" t="n">
-        <v>6169.6734</v>
-      </c>
-      <c r="G477" t="n">
-        <v>41799.49933919004</v>
-      </c>
-      <c r="H477" t="n">
-        <v>0</v>
-      </c>
-      <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L477" t="n">
-        <v>1</v>
-      </c>
-      <c r="M477" t="inlineStr"/>
-    </row>
-    <row r="478">
-      <c r="A478" s="1" t="n">
-        <v>476</v>
-      </c>
-      <c r="B478" t="n">
-        <v>604</v>
-      </c>
-      <c r="C478" t="n">
-        <v>602</v>
-      </c>
-      <c r="D478" t="n">
-        <v>604</v>
-      </c>
-      <c r="E478" t="n">
-        <v>602</v>
-      </c>
-      <c r="F478" t="n">
-        <v>3319.2631</v>
-      </c>
-      <c r="G478" t="n">
-        <v>38480.23623919004</v>
-      </c>
-      <c r="H478" t="n">
-        <v>0</v>
-      </c>
-      <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L478" t="n">
-        <v>1</v>
-      </c>
-      <c r="M478" t="inlineStr"/>
-    </row>
-    <row r="479">
-      <c r="A479" s="1" t="n">
-        <v>477</v>
-      </c>
-      <c r="B479" t="n">
-        <v>602</v>
-      </c>
-      <c r="C479" t="n">
-        <v>602</v>
-      </c>
-      <c r="D479" t="n">
-        <v>602</v>
-      </c>
-      <c r="E479" t="n">
-        <v>601</v>
-      </c>
-      <c r="F479" t="n">
-        <v>2374.6473</v>
-      </c>
-      <c r="G479" t="n">
-        <v>38480.23623919004</v>
-      </c>
-      <c r="H479" t="n">
-        <v>0</v>
-      </c>
-      <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16479,9 +16515,11 @@
         <v>38480.23623919004</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
-      </c>
-      <c r="I480" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I480" t="n">
+        <v>602</v>
+      </c>
       <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr">
         <is>
@@ -16516,11 +16554,9 @@
         <v>38480.23623919004</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
-      </c>
-      <c r="I481" t="n">
-        <v>602</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr">
         <is>
@@ -17332,11 +17368,9 @@
         <v>44289.71617383003</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
-      </c>
-      <c r="I503" t="n">
-        <v>617</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr">
         <is>
@@ -17371,11 +17405,9 @@
         <v>44405.93377383004</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
-      </c>
-      <c r="I504" t="n">
-        <v>618</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
       <c r="K504" t="inlineStr">
         <is>
@@ -18261,9 +18293,11 @@
         <v>51211.87887383004</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
-      </c>
-      <c r="I528" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I528" t="n">
+        <v>624</v>
+      </c>
       <c r="J528" t="inlineStr"/>
       <c r="K528" t="inlineStr">
         <is>
@@ -18298,9 +18332,11 @@
         <v>47338.15517383003</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
-      </c>
-      <c r="I529" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I529" t="n">
+        <v>626</v>
+      </c>
       <c r="J529" t="inlineStr"/>
       <c r="K529" t="inlineStr">
         <is>
@@ -18335,9 +18371,11 @@
         <v>46961.86487383003</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
-      </c>
-      <c r="I530" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I530" t="n">
+        <v>621</v>
+      </c>
       <c r="J530" t="inlineStr"/>
       <c r="K530" t="inlineStr">
         <is>
@@ -18372,9 +18410,11 @@
         <v>46614.64077383003</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
-      </c>
-      <c r="I531" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I531" t="n">
+        <v>620</v>
+      </c>
       <c r="J531" t="inlineStr"/>
       <c r="K531" t="inlineStr">
         <is>
@@ -18409,9 +18449,11 @@
         <v>45194.68797383003</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
-      </c>
-      <c r="I532" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I532" t="n">
+        <v>618</v>
+      </c>
       <c r="J532" t="inlineStr"/>
       <c r="K532" t="inlineStr">
         <is>
@@ -18446,9 +18488,11 @@
         <v>43611.89387383003</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
-      </c>
-      <c r="I533" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I533" t="n">
+        <v>615</v>
+      </c>
       <c r="J533" t="inlineStr"/>
       <c r="K533" t="inlineStr">
         <is>
@@ -18483,9 +18527,11 @@
         <v>43211.89387383003</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
-      </c>
-      <c r="I534" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I534" t="n">
+        <v>613</v>
+      </c>
       <c r="J534" t="inlineStr"/>
       <c r="K534" t="inlineStr">
         <is>
@@ -18520,7 +18566,7 @@
         <v>43211.89387383003</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I535" t="n">
         <v>612</v>
@@ -18559,9 +18605,11 @@
         <v>46002.87647383004</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
-      </c>
-      <c r="I536" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I536" t="n">
+        <v>612</v>
+      </c>
       <c r="J536" t="inlineStr"/>
       <c r="K536" t="inlineStr">
         <is>
@@ -18596,9 +18644,11 @@
         <v>46002.87647383004</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
-      </c>
-      <c r="I537" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I537" t="n">
+        <v>615</v>
+      </c>
       <c r="J537" t="inlineStr"/>
       <c r="K537" t="inlineStr">
         <is>
@@ -18633,9 +18683,11 @@
         <v>46002.87647383004</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
-      </c>
-      <c r="I538" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I538" t="n">
+        <v>615</v>
+      </c>
       <c r="J538" t="inlineStr"/>
       <c r="K538" t="inlineStr">
         <is>
@@ -18670,9 +18722,11 @@
         <v>46002.87647383004</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
-      </c>
-      <c r="I539" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I539" t="n">
+        <v>615</v>
+      </c>
       <c r="J539" t="inlineStr"/>
       <c r="K539" t="inlineStr">
         <is>
@@ -18707,9 +18761,11 @@
         <v>46002.87647383004</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
-      </c>
-      <c r="I540" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I540" t="n">
+        <v>615</v>
+      </c>
       <c r="J540" t="inlineStr"/>
       <c r="K540" t="inlineStr">
         <is>
@@ -18744,7 +18800,7 @@
         <v>46002.87647383004</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I541" t="n">
         <v>615</v>
@@ -18783,7 +18839,7 @@
         <v>44688.86457383004</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I542" t="n">
         <v>615</v>
@@ -18822,7 +18878,7 @@
         <v>43582.28917383004</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I543" t="n">
         <v>611</v>
@@ -18861,7 +18917,7 @@
         <v>43582.28917383004</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I544" t="n">
         <v>607</v>
@@ -18900,7 +18956,7 @@
         <v>43582.28917383004</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I545" t="n">
         <v>607</v>
@@ -18939,7 +18995,7 @@
         <v>43632.28917383004</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I546" t="n">
         <v>607</v>
@@ -18978,7 +19034,7 @@
         <v>44460.95537383004</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I547" t="n">
         <v>608</v>
@@ -19017,7 +19073,7 @@
         <v>43829.53317383004</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I548" t="n">
         <v>612</v>
@@ -19056,7 +19112,7 @@
         <v>43832.53317383004</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I549" t="n">
         <v>608</v>
@@ -19095,7 +19151,7 @@
         <v>43832.53317383004</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I550" t="n">
         <v>609</v>
@@ -19134,9 +19190,11 @@
         <v>43843.53317383004</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
-      </c>
-      <c r="I551" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I551" t="n">
+        <v>609</v>
+      </c>
       <c r="J551" t="inlineStr"/>
       <c r="K551" t="inlineStr">
         <is>
@@ -19171,9 +19229,11 @@
         <v>43389.11927383004</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
-      </c>
-      <c r="I552" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I552" t="n">
+        <v>615</v>
+      </c>
       <c r="J552" t="inlineStr"/>
       <c r="K552" t="inlineStr">
         <is>
@@ -19208,9 +19268,11 @@
         <v>43699.70917383004</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
-      </c>
-      <c r="I553" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I553" t="n">
+        <v>609</v>
+      </c>
       <c r="J553" t="inlineStr"/>
       <c r="K553" t="inlineStr">
         <is>
@@ -19319,9 +19381,11 @@
         <v>43254.46987383004</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
-      </c>
-      <c r="I556" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I556" t="n">
+        <v>607</v>
+      </c>
       <c r="J556" t="inlineStr"/>
       <c r="K556" t="inlineStr">
         <is>
@@ -19356,9 +19420,11 @@
         <v>44211.65007383004</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
-      </c>
-      <c r="I557" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I557" t="n">
+        <v>607</v>
+      </c>
       <c r="J557" t="inlineStr"/>
       <c r="K557" t="inlineStr">
         <is>
@@ -19393,9 +19459,11 @@
         <v>44211.65007383004</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
-      </c>
-      <c r="I558" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I558" t="n">
+        <v>611</v>
+      </c>
       <c r="J558" t="inlineStr"/>
       <c r="K558" t="inlineStr">
         <is>
@@ -19430,9 +19498,11 @@
         <v>44211.65007383004</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
-      </c>
-      <c r="I559" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I559" t="n">
+        <v>611</v>
+      </c>
       <c r="J559" t="inlineStr"/>
       <c r="K559" t="inlineStr">
         <is>
@@ -19467,9 +19537,11 @@
         <v>46166.83767383004</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
-      </c>
-      <c r="I560" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I560" t="n">
+        <v>611</v>
+      </c>
       <c r="J560" t="inlineStr"/>
       <c r="K560" t="inlineStr">
         <is>
@@ -20281,11 +20353,9 @@
         <v>45646.03997383004</v>
       </c>
       <c r="H582" t="n">
-        <v>2</v>
-      </c>
-      <c r="I582" t="n">
-        <v>614</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
       <c r="K582" t="inlineStr">
         <is>
@@ -20357,11 +20427,9 @@
         <v>42479.20487383004</v>
       </c>
       <c r="H584" t="n">
-        <v>2</v>
-      </c>
-      <c r="I584" t="n">
-        <v>613</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
       <c r="K584" t="inlineStr">
         <is>
@@ -20396,11 +20464,9 @@
         <v>42479.20487383004</v>
       </c>
       <c r="H585" t="n">
-        <v>2</v>
-      </c>
-      <c r="I585" t="n">
-        <v>611</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
       <c r="K585" t="inlineStr">
         <is>
@@ -20435,11 +20501,9 @@
         <v>42479.20487383004</v>
       </c>
       <c r="H586" t="n">
-        <v>2</v>
-      </c>
-      <c r="I586" t="n">
-        <v>611</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
       <c r="K586" t="inlineStr">
         <is>
@@ -20474,11 +20538,9 @@
         <v>42479.20487383004</v>
       </c>
       <c r="H587" t="n">
-        <v>2</v>
-      </c>
-      <c r="I587" t="n">
-        <v>611</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
       <c r="K587" t="inlineStr">
         <is>
@@ -20491,6 +20553,6 @@
       <c r="M587" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-15 BackTest PPT.xlsx
+++ b/BackTest/2019-10-15 BackTest PPT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -757,11 +757,9 @@
         <v>6487.034499999998</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>618</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
@@ -796,11 +794,9 @@
         <v>6487.034499999998</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>614</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
@@ -1069,11 +1065,9 @@
         <v>7527.352299999998</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>618</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
@@ -1147,11 +1141,9 @@
         <v>19085.03493076</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>622</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
@@ -1186,11 +1178,9 @@
         <v>23801.0383</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>624</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
@@ -1225,11 +1215,9 @@
         <v>33074.8943</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>625</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
@@ -1264,20 +1252,16 @@
         <v>57899.2196</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>628</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -1303,17 +1287,11 @@
         <v>60982.6767</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>632</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1342,15 +1320,11 @@
         <v>61762.7527</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1379,17 +1353,11 @@
         <v>75026.7317</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>636</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1418,17 +1386,11 @@
         <v>87883.50330000001</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>644</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1457,17 +1419,11 @@
         <v>81169.17090000001</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>652</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1496,17 +1452,11 @@
         <v>77371.58260000001</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>650</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1535,17 +1485,11 @@
         <v>70819.7029</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>638</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1574,17 +1518,11 @@
         <v>70820.7029</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>624</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1613,17 +1551,11 @@
         <v>80484.0242</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>628</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1652,17 +1584,11 @@
         <v>79715.8811</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>658</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1691,17 +1617,11 @@
         <v>84286.83069999999</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>641</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1734,11 +1654,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1771,11 +1687,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1808,11 +1720,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1845,11 +1753,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1882,11 +1786,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1919,11 +1819,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1956,11 +1852,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1993,11 +1885,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2030,11 +1918,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2067,11 +1951,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2104,11 +1984,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2141,11 +2017,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2178,11 +2050,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2215,11 +2083,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2252,11 +2116,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2289,11 +2149,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2326,11 +2182,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2363,11 +2215,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2400,11 +2248,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2437,11 +2281,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2474,11 +2314,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2511,11 +2347,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2548,11 +2380,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2581,16 +2409,14 @@
         <v>97253.73350000002</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
       <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
@@ -2616,7 +2442,7 @@
         <v>97225.54800000001</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2682,7 +2508,7 @@
         <v>96217.25580000001</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2715,7 +2541,7 @@
         <v>93364.76630000002</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2748,7 +2574,7 @@
         <v>91525.47740000002</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2781,7 +2607,7 @@
         <v>92072.04860000002</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2814,7 +2640,7 @@
         <v>91871.54860000002</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2847,7 +2673,7 @@
         <v>91871.54860000002</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2880,7 +2706,7 @@
         <v>91018.29120000002</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2913,7 +2739,7 @@
         <v>78234.55430000002</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2979,7 +2805,7 @@
         <v>78815.82530000003</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -3012,7 +2838,7 @@
         <v>78815.82530000003</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -3045,7 +2871,7 @@
         <v>78815.82530000003</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3078,7 +2904,7 @@
         <v>81983.24450000003</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3111,7 +2937,7 @@
         <v>81435.24450000003</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3144,7 +2970,7 @@
         <v>83409.71180000003</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3210,7 +3036,7 @@
         <v>84120.54650000004</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3243,7 +3069,7 @@
         <v>83356.85350000004</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3276,7 +3102,7 @@
         <v>87092.40790000003</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3309,7 +3135,7 @@
         <v>86794.57650000004</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3342,7 +3168,7 @@
         <v>88550.71920000004</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3375,7 +3201,7 @@
         <v>90821.00550000004</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3507,7 +3333,7 @@
         <v>87712.79040000006</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3771,7 +3597,7 @@
         <v>82369.41650000008</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3804,7 +3630,7 @@
         <v>82369.41650000008</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3837,7 +3663,7 @@
         <v>82369.41650000008</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3870,7 +3696,7 @@
         <v>82169.41650000008</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3903,7 +3729,7 @@
         <v>82169.41650000008</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3936,7 +3762,7 @@
         <v>82169.41650000008</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3969,7 +3795,7 @@
         <v>85127.49810000008</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4002,7 +3828,7 @@
         <v>82932.22740000009</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4035,7 +3861,7 @@
         <v>81954.8565000001</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4068,7 +3894,7 @@
         <v>87722.1838000001</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4101,7 +3927,7 @@
         <v>87722.1838000001</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4134,7 +3960,7 @@
         <v>88523.8694000001</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4167,7 +3993,7 @@
         <v>88373.8694000001</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4200,7 +4026,7 @@
         <v>88614.8694000001</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4233,7 +4059,7 @@
         <v>88614.8694000001</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4266,7 +4092,7 @@
         <v>97946.6731000001</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4299,7 +4125,7 @@
         <v>96705.5097000001</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4332,7 +4158,7 @@
         <v>96736.5097000001</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4365,7 +4191,7 @@
         <v>94393.57000000009</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4695,7 +4521,7 @@
         <v>81138.8603000001</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4728,7 +4554,7 @@
         <v>81138.8603000001</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4761,7 +4587,7 @@
         <v>80751.0086000001</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4794,7 +4620,7 @@
         <v>80644.6927000001</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4827,7 +4653,7 @@
         <v>80644.6927000001</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4860,7 +4686,7 @@
         <v>85620.9849000001</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4893,7 +4719,7 @@
         <v>85620.9849000001</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4926,7 +4752,7 @@
         <v>85831.3348000001</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4959,7 +4785,7 @@
         <v>85832.9858000001</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4992,7 +4818,7 @@
         <v>85832.9858000001</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5025,7 +4851,7 @@
         <v>85256.74520000009</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5058,7 +4884,7 @@
         <v>85419.07570000009</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5091,7 +4917,7 @@
         <v>84969.73150000008</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5124,7 +4950,7 @@
         <v>84969.73150000008</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5157,7 +4983,7 @@
         <v>84969.73150000008</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5190,7 +5016,7 @@
         <v>84572.03350000008</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -16476,17 +16302,11 @@
         <v>38480.23623919004</v>
       </c>
       <c r="H479" t="n">
-        <v>1</v>
-      </c>
-      <c r="I479" t="n">
-        <v>602</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16515,17 +16335,11 @@
         <v>38480.23623919004</v>
       </c>
       <c r="H480" t="n">
-        <v>1</v>
-      </c>
-      <c r="I480" t="n">
-        <v>602</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16558,11 +16372,7 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16595,11 +16405,7 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16632,11 +16438,7 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16669,11 +16471,7 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16706,11 +16504,7 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16743,11 +16537,7 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16780,11 +16570,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16817,11 +16603,7 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -16854,11 +16636,7 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -16891,11 +16669,7 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -16928,11 +16702,7 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -16965,11 +16735,7 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17002,11 +16768,7 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17039,11 +16801,7 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17076,11 +16834,7 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17113,11 +16867,7 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17150,11 +16900,7 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17187,11 +16933,7 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17224,11 +16966,7 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17261,11 +16999,7 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17298,11 +17032,7 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17335,11 +17065,7 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17372,11 +17098,7 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17409,11 +17131,7 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17446,11 +17164,7 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17483,11 +17197,7 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17520,11 +17230,7 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17557,11 +17263,7 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17594,11 +17296,7 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17631,11 +17329,7 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17668,11 +17362,7 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17705,11 +17395,7 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17742,11 +17428,7 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17779,11 +17461,7 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17816,11 +17494,7 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17853,11 +17527,7 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -17890,11 +17560,7 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -17927,11 +17593,7 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -17964,11 +17626,7 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -18001,11 +17659,7 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -18038,11 +17692,7 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -18075,11 +17725,7 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -18112,11 +17758,7 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -18149,11 +17791,7 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -18186,11 +17824,7 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18223,11 +17857,7 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18260,11 +17890,7 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18293,17 +17919,11 @@
         <v>51211.87887383004</v>
       </c>
       <c r="H528" t="n">
-        <v>1</v>
-      </c>
-      <c r="I528" t="n">
-        <v>624</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18332,17 +17952,11 @@
         <v>47338.15517383003</v>
       </c>
       <c r="H529" t="n">
-        <v>1</v>
-      </c>
-      <c r="I529" t="n">
-        <v>626</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18371,17 +17985,11 @@
         <v>46961.86487383003</v>
       </c>
       <c r="H530" t="n">
-        <v>1</v>
-      </c>
-      <c r="I530" t="n">
-        <v>621</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18410,17 +18018,11 @@
         <v>46614.64077383003</v>
       </c>
       <c r="H531" t="n">
-        <v>1</v>
-      </c>
-      <c r="I531" t="n">
-        <v>620</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18449,17 +18051,11 @@
         <v>45194.68797383003</v>
       </c>
       <c r="H532" t="n">
-        <v>1</v>
-      </c>
-      <c r="I532" t="n">
-        <v>618</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18488,17 +18084,11 @@
         <v>43611.89387383003</v>
       </c>
       <c r="H533" t="n">
-        <v>1</v>
-      </c>
-      <c r="I533" t="n">
-        <v>615</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18527,17 +18117,11 @@
         <v>43211.89387383003</v>
       </c>
       <c r="H534" t="n">
-        <v>1</v>
-      </c>
-      <c r="I534" t="n">
-        <v>613</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18566,17 +18150,11 @@
         <v>43211.89387383003</v>
       </c>
       <c r="H535" t="n">
-        <v>1</v>
-      </c>
-      <c r="I535" t="n">
-        <v>612</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18605,17 +18183,11 @@
         <v>46002.87647383004</v>
       </c>
       <c r="H536" t="n">
-        <v>1</v>
-      </c>
-      <c r="I536" t="n">
-        <v>612</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18644,17 +18216,11 @@
         <v>46002.87647383004</v>
       </c>
       <c r="H537" t="n">
-        <v>1</v>
-      </c>
-      <c r="I537" t="n">
-        <v>615</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18683,17 +18249,11 @@
         <v>46002.87647383004</v>
       </c>
       <c r="H538" t="n">
-        <v>1</v>
-      </c>
-      <c r="I538" t="n">
-        <v>615</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18722,17 +18282,11 @@
         <v>46002.87647383004</v>
       </c>
       <c r="H539" t="n">
-        <v>1</v>
-      </c>
-      <c r="I539" t="n">
-        <v>615</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18761,17 +18315,11 @@
         <v>46002.87647383004</v>
       </c>
       <c r="H540" t="n">
-        <v>1</v>
-      </c>
-      <c r="I540" t="n">
-        <v>615</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18800,17 +18348,11 @@
         <v>46002.87647383004</v>
       </c>
       <c r="H541" t="n">
-        <v>1</v>
-      </c>
-      <c r="I541" t="n">
-        <v>615</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K541" t="inlineStr"/>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18839,17 +18381,11 @@
         <v>44688.86457383004</v>
       </c>
       <c r="H542" t="n">
-        <v>1</v>
-      </c>
-      <c r="I542" t="n">
-        <v>615</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K542" t="inlineStr"/>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -18878,17 +18414,11 @@
         <v>43582.28917383004</v>
       </c>
       <c r="H543" t="n">
-        <v>1</v>
-      </c>
-      <c r="I543" t="n">
-        <v>611</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K543" t="inlineStr"/>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -18917,17 +18447,11 @@
         <v>43582.28917383004</v>
       </c>
       <c r="H544" t="n">
-        <v>1</v>
-      </c>
-      <c r="I544" t="n">
-        <v>607</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K544" t="inlineStr"/>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -18956,17 +18480,11 @@
         <v>43582.28917383004</v>
       </c>
       <c r="H545" t="n">
-        <v>1</v>
-      </c>
-      <c r="I545" t="n">
-        <v>607</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -18995,17 +18513,11 @@
         <v>43632.28917383004</v>
       </c>
       <c r="H546" t="n">
-        <v>1</v>
-      </c>
-      <c r="I546" t="n">
-        <v>607</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K546" t="inlineStr"/>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -19034,17 +18546,11 @@
         <v>44460.95537383004</v>
       </c>
       <c r="H547" t="n">
-        <v>1</v>
-      </c>
-      <c r="I547" t="n">
-        <v>608</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K547" t="inlineStr"/>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -19073,17 +18579,11 @@
         <v>43829.53317383004</v>
       </c>
       <c r="H548" t="n">
-        <v>1</v>
-      </c>
-      <c r="I548" t="n">
-        <v>612</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K548" t="inlineStr"/>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -19112,17 +18612,11 @@
         <v>43832.53317383004</v>
       </c>
       <c r="H549" t="n">
-        <v>1</v>
-      </c>
-      <c r="I549" t="n">
-        <v>608</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K549" t="inlineStr"/>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -19151,17 +18645,11 @@
         <v>43832.53317383004</v>
       </c>
       <c r="H550" t="n">
-        <v>1</v>
-      </c>
-      <c r="I550" t="n">
-        <v>609</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -19190,17 +18678,11 @@
         <v>43843.53317383004</v>
       </c>
       <c r="H551" t="n">
-        <v>1</v>
-      </c>
-      <c r="I551" t="n">
-        <v>609</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K551" t="inlineStr"/>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -19229,17 +18711,11 @@
         <v>43389.11927383004</v>
       </c>
       <c r="H552" t="n">
-        <v>1</v>
-      </c>
-      <c r="I552" t="n">
-        <v>615</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K552" t="inlineStr"/>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -19268,17 +18744,11 @@
         <v>43699.70917383004</v>
       </c>
       <c r="H553" t="n">
-        <v>1</v>
-      </c>
-      <c r="I553" t="n">
-        <v>609</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K553" t="inlineStr"/>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -19311,11 +18781,7 @@
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K554" t="inlineStr"/>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -19348,11 +18814,7 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -19381,17 +18843,11 @@
         <v>43254.46987383004</v>
       </c>
       <c r="H556" t="n">
-        <v>1</v>
-      </c>
-      <c r="I556" t="n">
-        <v>607</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -19420,17 +18876,11 @@
         <v>44211.65007383004</v>
       </c>
       <c r="H557" t="n">
-        <v>1</v>
-      </c>
-      <c r="I557" t="n">
-        <v>607</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -19459,17 +18909,11 @@
         <v>44211.65007383004</v>
       </c>
       <c r="H558" t="n">
-        <v>1</v>
-      </c>
-      <c r="I558" t="n">
-        <v>611</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -19498,17 +18942,11 @@
         <v>44211.65007383004</v>
       </c>
       <c r="H559" t="n">
-        <v>1</v>
-      </c>
-      <c r="I559" t="n">
-        <v>611</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -19537,17 +18975,11 @@
         <v>46166.83767383004</v>
       </c>
       <c r="H560" t="n">
-        <v>1</v>
-      </c>
-      <c r="I560" t="n">
-        <v>611</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -19580,11 +19012,7 @@
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -19613,13 +19041,15 @@
         <v>45800.91397383004</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
-      </c>
-      <c r="I562" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I562" t="n">
+        <v>610</v>
+      </c>
       <c r="J562" t="inlineStr"/>
       <c r="K562" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L562" t="n">
@@ -20553,6 +19983,6 @@
       <c r="M587" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-15 BackTest PPT.xlsx
+++ b/BackTest/2019-10-15 BackTest PPT.xlsx
@@ -757,9 +757,11 @@
         <v>6487.034499999998</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>618</v>
+      </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
@@ -794,9 +796,11 @@
         <v>6487.034499999998</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>614</v>
+      </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
@@ -1065,9 +1069,11 @@
         <v>7527.352299999998</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>618</v>
+      </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
@@ -1141,9 +1147,11 @@
         <v>19085.03493076</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>622</v>
+      </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
@@ -1178,9 +1186,11 @@
         <v>23801.0383</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>624</v>
+      </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
@@ -1215,9 +1225,11 @@
         <v>33074.8943</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>625</v>
+      </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
@@ -1252,16 +1264,20 @@
         <v>57899.2196</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>628</v>
+      </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
       <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -1287,11 +1303,15 @@
         <v>60982.6767</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1320,11 +1340,15 @@
         <v>61762.7527</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1353,11 +1377,15 @@
         <v>75026.7317</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1386,11 +1414,15 @@
         <v>87883.50330000001</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1423,7 +1455,11 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1452,11 +1488,15 @@
         <v>77371.58260000001</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1485,11 +1525,15 @@
         <v>70819.7029</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1518,11 +1562,15 @@
         <v>70820.7029</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1551,11 +1599,15 @@
         <v>80484.0242</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1584,11 +1636,15 @@
         <v>79715.8811</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1621,7 +1677,11 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1654,7 +1714,11 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1687,7 +1751,11 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1720,7 +1788,11 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1753,7 +1825,11 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1786,7 +1862,11 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1819,7 +1899,11 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1852,7 +1936,11 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1885,7 +1973,11 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1918,7 +2010,11 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1951,7 +2047,11 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1984,7 +2084,11 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2013,14 +2117,16 @@
         <v>97587.2159</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
@@ -2046,7 +2152,7 @@
         <v>95156.7856</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2079,7 +2185,7 @@
         <v>95148.7856</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2277,7 +2383,7 @@
         <v>96424.46290000001</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2310,7 +2416,7 @@
         <v>96423.46290000001</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2343,7 +2449,7 @@
         <v>96423.46290000001</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2376,7 +2482,7 @@
         <v>96398.46290000001</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2409,7 +2515,7 @@
         <v>97253.73350000002</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2442,7 +2548,7 @@
         <v>97225.54800000001</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2475,7 +2581,7 @@
         <v>97225.54800000001</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2508,7 +2614,7 @@
         <v>96217.25580000001</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2541,7 +2647,7 @@
         <v>93364.76630000002</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2574,7 +2680,7 @@
         <v>91525.47740000002</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2640,7 +2746,7 @@
         <v>91871.54860000002</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2673,7 +2779,7 @@
         <v>91871.54860000002</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2706,7 +2812,7 @@
         <v>91018.29120000002</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2739,7 +2845,7 @@
         <v>78234.55430000002</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -3432,7 +3538,7 @@
         <v>87562.83550000006</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -4290,7 +4396,7 @@
         <v>87494.05000000009</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -19041,17 +19147,11 @@
         <v>45800.91397383004</v>
       </c>
       <c r="H562" t="n">
-        <v>1</v>
-      </c>
-      <c r="I562" t="n">
-        <v>610</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19084,11 +19184,7 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K563" t="inlineStr"/>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19121,11 +19217,7 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K564" t="inlineStr"/>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19158,11 +19250,7 @@
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K565" t="inlineStr"/>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19195,11 +19283,7 @@
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K566" t="inlineStr"/>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19232,11 +19316,7 @@
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K567" t="inlineStr"/>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19269,11 +19349,7 @@
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K568" t="inlineStr"/>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19306,11 +19382,7 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K569" t="inlineStr"/>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -19343,11 +19415,7 @@
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K570" t="inlineStr"/>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -19380,11 +19448,7 @@
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K571" t="inlineStr"/>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -19417,11 +19481,7 @@
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K572" t="inlineStr"/>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -19454,11 +19514,7 @@
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K573" t="inlineStr"/>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -19491,11 +19547,7 @@
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K574" t="inlineStr"/>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -19528,11 +19580,7 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K575" t="inlineStr"/>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -19565,11 +19613,7 @@
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K576" t="inlineStr"/>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -19602,11 +19646,7 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K577" t="inlineStr"/>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -19639,11 +19679,7 @@
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K578" t="inlineStr"/>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -19676,11 +19712,7 @@
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K579" t="inlineStr"/>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -19713,11 +19745,7 @@
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K580" t="inlineStr"/>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -19750,11 +19778,7 @@
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K581" t="inlineStr"/>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -19787,11 +19811,7 @@
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K582" t="inlineStr"/>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -19824,11 +19844,7 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K583" t="inlineStr"/>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -19861,11 +19877,7 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K584" t="inlineStr"/>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -19898,11 +19910,7 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K585" t="inlineStr"/>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -19935,11 +19943,7 @@
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K586" t="inlineStr"/>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -19972,11 +19976,7 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K587" t="inlineStr"/>
       <c r="L587" t="n">
         <v>1</v>
       </c>
